--- a/all_data_compiled.xlsx
+++ b/all_data_compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>description</t>
   </si>
@@ -28,54 +28,42 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Basic education</t>
+    <t>Poverty incidence</t>
+  </si>
+  <si>
+    <t>Access to early warning</t>
+  </si>
+  <si>
+    <t>National GDP per capita (PPP USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average income of the province</t>
+  </si>
+  <si>
+    <t>Relative income of poor families</t>
+  </si>
+  <si>
+    <t>Access to finance for poor people</t>
+  </si>
+  <si>
+    <t>Access to finance for non-poor people</t>
+  </si>
+  <si>
+    <t>Social protection for poor people</t>
+  </si>
+  <si>
+    <t>Social protection for non-poor people</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Exposure bias</t>
   </si>
   <si>
     <t>Vulnerability without early warning</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff</t>
-  </si>
-  <si>
-    <t>Poverty incidence</t>
-  </si>
-  <si>
-    <t>Access to early warning</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure</t>
-  </si>
-  <si>
-    <t>National GDP per capita (PPP USD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average income of the province</t>
-  </si>
-  <si>
-    <t>Relative income of poor families</t>
-  </si>
-  <si>
-    <t>Access to finance for poor people</t>
-  </si>
-  <si>
-    <t>Access to finance for non-poor people</t>
-  </si>
-  <si>
-    <t>Social protection for poor people</t>
-  </si>
-  <si>
-    <t>Social protection for non-poor people</t>
-  </si>
-  <si>
-    <t>Access to health care</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Exposure bias</t>
-  </si>
-  <si>
     <t>Asset-vulnerability bias</t>
   </si>
   <si>
@@ -112,24 +100,12 @@
     <t>pop</t>
   </si>
   <si>
-    <t>plgp</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
-    <t>bashs</t>
-  </si>
-  <si>
     <t>pov_head</t>
   </si>
   <si>
     <t>shew</t>
   </si>
   <si>
-    <t>ophe</t>
-  </si>
-  <si>
     <t>gdp_pc_pp_nat</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
   </si>
   <si>
     <t>social_r</t>
-  </si>
-  <si>
-    <t>axhealth</t>
   </si>
   <si>
     <t>fa</t>
@@ -791,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,139 +829,109 @@
         <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B4">
         <v>133.688</v>
@@ -997,90 +940,75 @@
         <v>240135.244121424</v>
       </c>
       <c r="D4">
-        <v>0.8827</v>
+        <v>0.3735946</v>
       </c>
       <c r="E4">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F4">
-        <v>0.857720119098256</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G4">
-        <v>0.3735946</v>
+        <v>0.726025888549619</v>
       </c>
       <c r="H4">
-        <v>0.953416149068323</v>
+        <v>0.374005146310813</v>
       </c>
       <c r="I4">
-        <v>0.0314139693356048</v>
+        <v>0.693233188692644</v>
       </c>
       <c r="J4">
-        <v>184.136684529347</v>
+        <v>0.693233188692644</v>
       </c>
       <c r="K4">
-        <v>0.726025888549619</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L4">
-        <v>0.374005146310813</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M4">
-        <v>0.693233188692644</v>
+        <v>0.1641</v>
       </c>
       <c r="N4">
-        <v>0.693233188692644</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
-        <v>0.40868266233886</v>
+        <v>0.123542760343149</v>
       </c>
       <c r="P4">
-        <v>0.40868266233886</v>
+        <v>0.234093237397461</v>
       </c>
       <c r="Q4">
-        <v>0.0155752077661686</v>
+        <v>0.1</v>
       </c>
       <c r="R4">
-        <v>0.1641</v>
+        <v>10.57</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T4">
-        <v>0.123542760343149</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>0.234093237397461</v>
+        <v>0.2</v>
       </c>
       <c r="V4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W4">
-        <v>10.57</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X4">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>0.2</v>
-      </c>
-      <c r="AA4">
-        <v>0.3</v>
-      </c>
-      <c r="AB4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>179.014</v>
@@ -1089,90 +1017,75 @@
         <v>661728.454375173</v>
       </c>
       <c r="D5">
-        <v>0.7075</v>
+        <v>0.3467151</v>
       </c>
       <c r="E5">
-        <v>0.21</v>
+        <v>0.821276595744681</v>
       </c>
       <c r="F5">
-        <v>0.921444550974752</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G5">
-        <v>0.3467151</v>
+        <v>0.972179989324558</v>
       </c>
       <c r="H5">
-        <v>0.821276595744681</v>
+        <v>0.279307763638598</v>
       </c>
       <c r="I5">
-        <v>0.0345634443107367</v>
+        <v>0.496879896983716</v>
       </c>
       <c r="J5">
-        <v>184.136684529347</v>
+        <v>0.496879896983716</v>
       </c>
       <c r="K5">
-        <v>0.972179989324558</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="L5">
-        <v>0.279307763638598</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="M5">
-        <v>0.496879896983716</v>
+        <v>0.318</v>
       </c>
       <c r="N5">
-        <v>0.496879896983716</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.388003116567215</v>
+        <v>0.190246526288616</v>
       </c>
       <c r="P5">
-        <v>0.388003116567215</v>
+        <v>0.911730224845332</v>
       </c>
       <c r="Q5">
-        <v>0.00944795977367715</v>
+        <v>0.1</v>
       </c>
       <c r="R5">
-        <v>0.318</v>
+        <v>9.41</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T5">
-        <v>0.190246526288616</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>0.911730224845332</v>
+        <v>0.2</v>
       </c>
       <c r="V5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W5">
-        <v>9.41</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X5">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>0.2</v>
-      </c>
-      <c r="AA5">
-        <v>0.3</v>
-      </c>
-      <c r="AB5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>126.492</v>
@@ -1181,90 +1094,75 @@
         <v>677779.68215436</v>
       </c>
       <c r="D6">
-        <v>0.6871</v>
+        <v>0.4807851</v>
       </c>
       <c r="E6">
-        <v>0.21</v>
+        <v>0.821276595744681</v>
       </c>
       <c r="F6">
-        <v>0.727441562600064</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G6">
-        <v>0.4807851</v>
+        <v>0.686946223254281</v>
       </c>
       <c r="H6">
-        <v>0.821276595744681</v>
+        <v>0.395281915061822</v>
       </c>
       <c r="I6">
-        <v>0.0345634443107367</v>
+        <v>0.475968914751725</v>
       </c>
       <c r="J6">
-        <v>184.136684529347</v>
+        <v>0.475968914751725</v>
       </c>
       <c r="K6">
-        <v>0.686946223254281</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="L6">
-        <v>0.395281915061822</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="M6">
-        <v>0.475968914751725</v>
+        <v>0.1146</v>
       </c>
       <c r="N6">
-        <v>0.475968914751725</v>
+        <v>0.2</v>
       </c>
       <c r="O6">
-        <v>0.388003116567215</v>
+        <v>0.193274885113575</v>
       </c>
       <c r="P6">
-        <v>0.388003116567215</v>
+        <v>0.50131039114282</v>
       </c>
       <c r="Q6">
-        <v>0.0285129880369057</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
-        <v>0.1146</v>
+        <v>8.61</v>
       </c>
       <c r="S6">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T6">
-        <v>0.193274885113575</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>0.50131039114282</v>
+        <v>0.2</v>
       </c>
       <c r="V6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W6">
-        <v>8.61</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X6">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y6">
-        <v>3</v>
-      </c>
-      <c r="Z6">
-        <v>0.2</v>
-      </c>
-      <c r="AA6">
-        <v>0.3</v>
-      </c>
-      <c r="AB6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>119.962</v>
@@ -1273,84 +1171,69 @@
         <v>554414.442422447</v>
       </c>
       <c r="D7">
-        <v>0.721</v>
+        <v>0.2496618</v>
       </c>
       <c r="E7">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F7">
-        <v>0.806175854849965</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G7">
-        <v>0.2496618</v>
+        <v>0.651483436375661</v>
       </c>
       <c r="H7">
-        <v>0.823002754820937</v>
+        <v>0.416798652906754</v>
       </c>
       <c r="I7">
-        <v>0.0443184077590071</v>
+        <v>0.660083320158597</v>
       </c>
       <c r="J7">
-        <v>184.136684529347</v>
+        <v>0.660083320158597</v>
       </c>
       <c r="K7">
-        <v>0.651483436375661</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L7">
-        <v>0.416798652906754</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M7">
-        <v>0.660083320158597</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.660083320158597</v>
-      </c>
-      <c r="O7">
-        <v>0.432902672615501</v>
-      </c>
-      <c r="P7">
-        <v>0.432902672615501</v>
+        <v>0.2</v>
       </c>
       <c r="Q7">
-        <v>0.0211688360280388</v>
+        <v>0.135089223583236</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0.23</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
         <v>0.2</v>
       </c>
       <c r="V7">
-        <v>0.135089223583236</v>
+        <v>0.3</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X7">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y7">
-        <v>3</v>
-      </c>
-      <c r="Z7">
-        <v>0.2</v>
-      </c>
-      <c r="AA7">
-        <v>0.3</v>
-      </c>
-      <c r="AB7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>158.629</v>
@@ -1359,84 +1242,69 @@
         <v>1264097.89496566</v>
       </c>
       <c r="D8">
-        <v>0.793</v>
+        <v>0.4095874</v>
       </c>
       <c r="E8">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>0.840840011052777</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G8">
-        <v>0.4095874</v>
+        <v>0.861474183731804</v>
       </c>
       <c r="H8">
-        <v>0.8</v>
+        <v>0.315200877519243</v>
       </c>
       <c r="I8">
-        <v>0.0325680981399525</v>
+        <v>0.551314358767217</v>
       </c>
       <c r="J8">
-        <v>184.136684529347</v>
+        <v>0.551314358767217</v>
       </c>
       <c r="K8">
-        <v>0.861474183731804</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L8">
-        <v>0.315200877519243</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M8">
-        <v>0.551314358767217</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.551314358767217</v>
-      </c>
-      <c r="O8">
-        <v>0.403793944470449</v>
-      </c>
-      <c r="P8">
-        <v>0.403793944470449</v>
+        <v>0.2</v>
       </c>
       <c r="Q8">
-        <v>0.0172852268947206</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0.23</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
         <v>0.2</v>
       </c>
       <c r="V8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X8">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y8">
-        <v>3</v>
-      </c>
-      <c r="Z8">
-        <v>0.2</v>
-      </c>
-      <c r="AA8">
-        <v>0.3</v>
-      </c>
-      <c r="AB8">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC8">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>124.667</v>
@@ -1445,84 +1313,69 @@
         <v>561980.471778846</v>
       </c>
       <c r="D9">
-        <v>0.812</v>
+        <v>0.3089693</v>
       </c>
       <c r="E9">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F9">
-        <v>0.759609922363189</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G9">
-        <v>0.3089693</v>
+        <v>0.677035107472737</v>
       </c>
       <c r="H9">
-        <v>0.823002754820937</v>
+        <v>0.401068446341053</v>
       </c>
       <c r="I9">
-        <v>0.0443184077590071</v>
+        <v>0.437850462431834</v>
       </c>
       <c r="J9">
-        <v>184.136684529347</v>
+        <v>0.437850462431834</v>
       </c>
       <c r="K9">
-        <v>0.677035107472737</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L9">
-        <v>0.401068446341053</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M9">
-        <v>0.437850462431834</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.437850462431834</v>
-      </c>
-      <c r="O9">
-        <v>0.432902672615501</v>
-      </c>
-      <c r="P9">
-        <v>0.432902672615501</v>
+        <v>0.2</v>
       </c>
       <c r="Q9">
-        <v>0.0257222428775351</v>
+        <v>0.125227041089264</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0.23</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
         <v>0.2</v>
       </c>
       <c r="V9">
-        <v>0.125227041089264</v>
+        <v>0.3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X9">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y9">
-        <v>3</v>
-      </c>
-      <c r="Z9">
-        <v>0.2</v>
-      </c>
-      <c r="AA9">
-        <v>0.3</v>
-      </c>
-      <c r="AB9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>158.732</v>
@@ -1531,90 +1384,75 @@
         <v>116022.676390039</v>
       </c>
       <c r="D10">
-        <v>0.6813</v>
+        <v>0.6136667</v>
       </c>
       <c r="E10">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F10">
-        <v>0.814191960623462</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G10">
-        <v>0.6136667</v>
+        <v>0.86203355081427</v>
       </c>
       <c r="H10">
-        <v>0.953416149068323</v>
+        <v>0.314996346042386</v>
       </c>
       <c r="I10">
-        <v>0.0314139693356048</v>
+        <v>0.261279700917478</v>
       </c>
       <c r="J10">
-        <v>184.136684529347</v>
+        <v>0.261279700917478</v>
       </c>
       <c r="K10">
-        <v>0.86203355081427</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L10">
-        <v>0.314996346042386</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M10">
-        <v>0.261279700917478</v>
+        <v>0.004</v>
       </c>
       <c r="N10">
-        <v>0.261279700917478</v>
+        <v>0.2</v>
       </c>
       <c r="O10">
-        <v>0.40868266233886</v>
+        <v>0.114280955450113</v>
       </c>
       <c r="P10">
-        <v>0.40868266233886</v>
+        <v>0.154515739245927</v>
       </c>
       <c r="Q10">
-        <v>0.0198596540018699</v>
+        <v>0.1</v>
       </c>
       <c r="R10">
-        <v>0.004</v>
+        <v>6.51</v>
       </c>
       <c r="S10">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T10">
-        <v>0.114280955450113</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>0.154515739245927</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W10">
-        <v>6.51</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X10">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y10">
-        <v>3</v>
-      </c>
-      <c r="Z10">
-        <v>0.2</v>
-      </c>
-      <c r="AA10">
-        <v>0.3</v>
-      </c>
-      <c r="AB10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>175.235</v>
@@ -1623,84 +1461,69 @@
         <v>207219.483546468</v>
       </c>
       <c r="D11">
-        <v>0.768</v>
+        <v>0.3083171</v>
       </c>
       <c r="E11">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F11">
-        <v>0.522058823529412</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G11">
-        <v>0.3083171</v>
+        <v>0.951657191221295</v>
       </c>
       <c r="H11">
-        <v>1.0034516765286</v>
+        <v>0.28533112677262</v>
       </c>
       <c r="I11">
-        <v>0.0392761289644462</v>
+        <v>0.573358263824997</v>
       </c>
       <c r="J11">
-        <v>184.136684529347</v>
+        <v>0.573358263824997</v>
       </c>
       <c r="K11">
-        <v>0.951657191221295</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L11">
-        <v>0.28533112677262</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M11">
-        <v>0.573358263824997</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.573358263824997</v>
-      </c>
-      <c r="O11">
-        <v>0.382118437118437</v>
-      </c>
-      <c r="P11">
-        <v>0.382118437118437</v>
+        <v>0.2</v>
       </c>
       <c r="Q11">
-        <v>0.0488193401310572</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0.23</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
         <v>0.2</v>
       </c>
       <c r="V11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X11">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y11">
-        <v>3</v>
-      </c>
-      <c r="Z11">
-        <v>0.2</v>
-      </c>
-      <c r="AA11">
-        <v>0.3</v>
-      </c>
-      <c r="AB11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>134.8675</v>
@@ -1709,84 +1532,69 @@
         <v>404023.538097355</v>
       </c>
       <c r="D12">
-        <v>0.687</v>
+        <v>0.361236931157526</v>
       </c>
       <c r="E12">
-        <v>0.124</v>
+        <v>0.66199649737303</v>
       </c>
       <c r="F12">
-        <v>0.485070341659489</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G12">
-        <v>0.361236931157526</v>
+        <v>0.732431456256102</v>
       </c>
       <c r="H12">
-        <v>0.66199649737303</v>
+        <v>0.370734239160658</v>
       </c>
       <c r="I12">
-        <v>0.00891809076634602</v>
+        <v>0.538168398955</v>
       </c>
       <c r="J12">
-        <v>184.136684529347</v>
+        <v>0.538168398955</v>
       </c>
       <c r="K12">
-        <v>0.732431456256102</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="L12">
-        <v>0.370734239160658</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="M12">
-        <v>0.538168398955</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.538168398955</v>
-      </c>
-      <c r="O12">
-        <v>0.238984286945568</v>
-      </c>
-      <c r="P12">
-        <v>0.238984286945568</v>
+        <v>0.2</v>
       </c>
       <c r="Q12">
-        <v>0.0517092609008002</v>
+        <v>0.109018519019815</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0.23</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>0.2</v>
       </c>
       <c r="V12">
-        <v>0.109018519019815</v>
+        <v>0.3</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X12">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y12">
-        <v>3</v>
-      </c>
-      <c r="Z12">
-        <v>0.2</v>
-      </c>
-      <c r="AA12">
-        <v>0.3</v>
-      </c>
-      <c r="AB12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>277.019</v>
@@ -1795,84 +1603,69 @@
         <v>716869.090163479</v>
       </c>
       <c r="D13">
-        <v>0.9121</v>
+        <v>0.0711549</v>
       </c>
       <c r="E13">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F13">
-        <v>0.961366795931806</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G13">
-        <v>0.0711549</v>
+        <v>1.5044204836644</v>
       </c>
       <c r="H13">
-        <v>1.0034516765286</v>
+        <v>0.180493034773788</v>
       </c>
       <c r="I13">
-        <v>0.0392761289644462</v>
+        <v>0.580481033452984</v>
       </c>
       <c r="J13">
-        <v>184.136684529347</v>
+        <v>0.580481033452984</v>
       </c>
       <c r="K13">
-        <v>1.5044204836644</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L13">
-        <v>0.180493034773788</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M13">
-        <v>0.580481033452984</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.580481033452984</v>
-      </c>
-      <c r="O13">
-        <v>0.382118437118437</v>
-      </c>
-      <c r="P13">
-        <v>0.382118437118437</v>
+        <v>0.2</v>
       </c>
       <c r="Q13">
-        <v>0.00575125871977706</v>
+        <v>0.104698863866378</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0.23</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
         <v>0.2</v>
       </c>
       <c r="V13">
-        <v>0.104698863866378</v>
+        <v>0.3</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X13">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y13">
-        <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>0.2</v>
-      </c>
-      <c r="AA13">
-        <v>0.3</v>
-      </c>
-      <c r="AB13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>316.686</v>
@@ -1881,81 +1674,66 @@
         <v>16631.5364730528</v>
       </c>
       <c r="D14">
-        <v>0.9615</v>
+        <v>0.3333333</v>
       </c>
       <c r="E14">
-        <v>0.121</v>
+        <v>0.895865237366003</v>
       </c>
       <c r="F14">
-        <v>0.992857142857143</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G14">
-        <v>0.3333333</v>
+        <v>1.719841979394</v>
       </c>
       <c r="H14">
-        <v>0.895865237366003</v>
+        <v>0.157885097541413</v>
       </c>
       <c r="I14">
-        <v>0.0265938129353891</v>
+        <v>0.391077905964043</v>
       </c>
       <c r="J14">
-        <v>184.136684529347</v>
+        <v>0.391077905964043</v>
       </c>
       <c r="K14">
-        <v>1.719841979394</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="L14">
-        <v>0.157885097541413</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="M14">
-        <v>0.391077905964043</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.391077905964043</v>
-      </c>
-      <c r="O14">
-        <v>0.339605685126709</v>
-      </c>
-      <c r="P14">
-        <v>0.339605685126709</v>
+        <v>0.2</v>
       </c>
       <c r="Q14">
-        <v>0.0020344785707211</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S14">
+        <v>0.23</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
         <v>0.2</v>
       </c>
       <c r="V14">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.333333333333333</v>
       </c>
       <c r="X14">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y14">
-        <v>3</v>
-      </c>
-      <c r="Z14">
-        <v>0.2</v>
-      </c>
-      <c r="AA14">
-        <v>0.3</v>
-      </c>
-      <c r="AB14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>219.272</v>
@@ -1964,90 +1742,75 @@
         <v>2485002.05546474</v>
       </c>
       <c r="D15">
-        <v>0.833</v>
+        <v>0.1903506</v>
       </c>
       <c r="E15">
-        <v>0.175</v>
+        <v>1.11720698254364</v>
       </c>
       <c r="F15">
-        <v>0.819595915707148</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G15">
-        <v>0.1903506</v>
+        <v>1.19081105734286</v>
       </c>
       <c r="H15">
-        <v>1.11720698254364</v>
+        <v>0.228027290306104</v>
       </c>
       <c r="I15">
-        <v>0.0348488090058342</v>
+        <v>0.601053603455341</v>
       </c>
       <c r="J15">
-        <v>184.136684529347</v>
+        <v>0.601053603455341</v>
       </c>
       <c r="K15">
-        <v>1.19081105734286</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="L15">
-        <v>0.228027290306104</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="M15">
-        <v>0.601053603455341</v>
+        <v>0.0023</v>
       </c>
       <c r="N15">
-        <v>0.601053603455341</v>
+        <v>0.2</v>
       </c>
       <c r="O15">
-        <v>0.362780034735979</v>
+        <v>0.135340971531749</v>
       </c>
       <c r="P15">
-        <v>0.362780034735979</v>
+        <v>0.702047711300956</v>
       </c>
       <c r="Q15">
-        <v>0.0194685055057073</v>
+        <v>0.1</v>
       </c>
       <c r="R15">
-        <v>0.0023</v>
+        <v>7.73</v>
       </c>
       <c r="S15">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T15">
-        <v>0.135340971531749</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>0.702047711300956</v>
+        <v>0.2</v>
       </c>
       <c r="V15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W15">
-        <v>7.73</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X15">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y15">
-        <v>3</v>
-      </c>
-      <c r="Z15">
-        <v>0.2</v>
-      </c>
-      <c r="AA15">
-        <v>0.3</v>
-      </c>
-      <c r="AB15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>303.525</v>
@@ -2056,84 +1819,69 @@
         <v>754450.151792923</v>
       </c>
       <c r="D16">
-        <v>0.7687</v>
+        <v>0.0369417</v>
       </c>
       <c r="E16">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F16">
-        <v>0.946982347328244</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G16">
-        <v>0.0369417</v>
+        <v>1.64836790005104</v>
       </c>
       <c r="H16">
-        <v>0.953416149068323</v>
+        <v>0.164731076517585</v>
       </c>
       <c r="I16">
-        <v>0.0314139693356048</v>
+        <v>0.605775696080789</v>
       </c>
       <c r="J16">
-        <v>184.136684529347</v>
+        <v>0.605775696080789</v>
       </c>
       <c r="K16">
-        <v>1.64836790005104</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L16">
-        <v>0.164731076517585</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M16">
-        <v>0.605775696080789</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.605775696080789</v>
-      </c>
-      <c r="O16">
-        <v>0.40868266233886</v>
-      </c>
-      <c r="P16">
-        <v>0.40868266233886</v>
+        <v>0.2</v>
       </c>
       <c r="Q16">
-        <v>0.006789188988192</v>
+        <v>0.108013523168847</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0.23</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>0.2</v>
       </c>
       <c r="V16">
-        <v>0.108013523168847</v>
+        <v>0.3</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X16">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y16">
-        <v>3</v>
-      </c>
-      <c r="Z16">
-        <v>0.2</v>
-      </c>
-      <c r="AA16">
-        <v>0.3</v>
-      </c>
-      <c r="AB16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>237.761</v>
@@ -2142,84 +1890,69 @@
         <v>166437.019362635</v>
       </c>
       <c r="D17">
-        <v>0.8529</v>
+        <v>0.2745147</v>
       </c>
       <c r="E17">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F17">
-        <v>0.968101265822785</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G17">
-        <v>0.2745147</v>
+        <v>1.29122016401955</v>
       </c>
       <c r="H17">
-        <v>0.704046242774567</v>
+        <v>0.210295212419194</v>
       </c>
       <c r="I17">
-        <v>0.0402754470227417</v>
+        <v>0.611077177703641</v>
       </c>
       <c r="J17">
-        <v>184.136684529347</v>
+        <v>0.611077177703641</v>
       </c>
       <c r="K17">
-        <v>1.29122016401955</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L17">
-        <v>0.210295212419194</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M17">
-        <v>0.611077177703641</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.611077177703641</v>
-      </c>
-      <c r="O17">
-        <v>0.41525155702608</v>
-      </c>
-      <c r="P17">
-        <v>0.41525155702608</v>
+        <v>0.2</v>
       </c>
       <c r="Q17">
-        <v>0.00513940897993627</v>
+        <v>0.113920550286055</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0.23</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>0.2</v>
       </c>
       <c r="V17">
-        <v>0.113920550286055</v>
+        <v>0.3</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X17">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y17">
-        <v>3</v>
-      </c>
-      <c r="Z17">
-        <v>0.2</v>
-      </c>
-      <c r="AA17">
-        <v>0.3</v>
-      </c>
-      <c r="AB17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>148.638</v>
@@ -2228,84 +1961,69 @@
         <v>1279708.23259846</v>
       </c>
       <c r="D18">
-        <v>0.8756</v>
+        <v>0.3682603</v>
       </c>
       <c r="E18">
-        <v>0.184</v>
+        <v>0.847161572052402</v>
       </c>
       <c r="F18">
-        <v>0.963843287340115</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G18">
-        <v>0.3682603</v>
+        <v>0.807215576732678</v>
       </c>
       <c r="H18">
-        <v>0.847161572052402</v>
+        <v>0.336387733957669</v>
       </c>
       <c r="I18">
-        <v>0.034143933636835</v>
+        <v>0.566535444651524</v>
       </c>
       <c r="J18">
-        <v>184.136684529347</v>
+        <v>0.566535444651524</v>
       </c>
       <c r="K18">
-        <v>0.807215576732678</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="L18">
-        <v>0.336387733957669</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="M18">
-        <v>0.566535444651524</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.566535444651524</v>
-      </c>
-      <c r="O18">
-        <v>0.399510616283393</v>
-      </c>
-      <c r="P18">
-        <v>0.399510616283393</v>
+        <v>0.2</v>
       </c>
       <c r="Q18">
-        <v>0.00526114132795102</v>
+        <v>0.1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0.23</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
         <v>0.2</v>
       </c>
       <c r="V18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X18">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y18">
-        <v>3</v>
-      </c>
-      <c r="Z18">
-        <v>0.2</v>
-      </c>
-      <c r="AA18">
-        <v>0.3</v>
-      </c>
-      <c r="AB18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>145.749</v>
@@ -2314,90 +2032,75 @@
         <v>1353046.84430757</v>
       </c>
       <c r="D19">
-        <v>0.6064</v>
+        <v>0.4900081</v>
       </c>
       <c r="E19">
-        <v>0.312</v>
+        <v>0.854588796185936</v>
       </c>
       <c r="F19">
-        <v>0.680411034393335</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G19">
-        <v>0.4900081</v>
+        <v>0.791526144681784</v>
       </c>
       <c r="H19">
-        <v>0.854588796185936</v>
+        <v>0.343055526967595</v>
       </c>
       <c r="I19">
-        <v>0.0311973744053692</v>
+        <v>0.496198567578322</v>
       </c>
       <c r="J19">
-        <v>184.136684529347</v>
+        <v>0.496198567578322</v>
       </c>
       <c r="K19">
-        <v>0.791526144681784</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="L19">
-        <v>0.343055526967595</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="M19">
-        <v>0.496198567578322</v>
+        <v>0.0239</v>
       </c>
       <c r="N19">
-        <v>0.496198567578322</v>
+        <v>0.2</v>
       </c>
       <c r="O19">
-        <v>0.330754776712315</v>
+        <v>0.153161084807299</v>
       </c>
       <c r="P19">
-        <v>0.330754776712315</v>
+        <v>0.447457806077575</v>
       </c>
       <c r="Q19">
-        <v>0.0330202484501421</v>
+        <v>0.1</v>
       </c>
       <c r="R19">
-        <v>0.0239</v>
+        <v>9.82</v>
       </c>
       <c r="S19">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T19">
-        <v>0.153161084807299</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>0.447457806077575</v>
+        <v>0.2</v>
       </c>
       <c r="V19">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W19">
-        <v>9.82</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X19">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y19">
-        <v>3</v>
-      </c>
-      <c r="Z19">
-        <v>0.2</v>
-      </c>
-      <c r="AA19">
-        <v>0.3</v>
-      </c>
-      <c r="AB19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>253.279</v>
@@ -2406,90 +2109,75 @@
         <v>3086241.84919508</v>
       </c>
       <c r="D20">
-        <v>0.7961</v>
+        <v>0.0730876</v>
       </c>
       <c r="E20">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F20">
-        <v>0.949024614937048</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G20">
-        <v>0.0730876</v>
+        <v>1.37549451727873</v>
       </c>
       <c r="H20">
-        <v>1.0034516765286</v>
+        <v>0.197410760465731</v>
       </c>
       <c r="I20">
-        <v>0.0392761289644462</v>
+        <v>0.601417335117009</v>
       </c>
       <c r="J20">
-        <v>184.136684529347</v>
+        <v>0.601417335117009</v>
       </c>
       <c r="K20">
-        <v>1.37549451727873</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L20">
-        <v>0.197410760465731</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M20">
-        <v>0.601417335117009</v>
+        <v>0.0101</v>
       </c>
       <c r="N20">
-        <v>0.601417335117009</v>
+        <v>0.2</v>
       </c>
       <c r="O20">
-        <v>0.382118437118437</v>
+        <v>0.176900982320819</v>
       </c>
       <c r="P20">
-        <v>0.382118437118437</v>
+        <v>1.36670893136654</v>
       </c>
       <c r="Q20">
-        <v>0.00696123916463022</v>
+        <v>0.104395897258309</v>
       </c>
       <c r="R20">
-        <v>0.0101</v>
+        <v>6.51</v>
       </c>
       <c r="S20">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T20">
-        <v>0.176900982320819</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.36670893136654</v>
+        <v>0.2</v>
       </c>
       <c r="V20">
-        <v>0.104395897258309</v>
+        <v>0.3</v>
       </c>
       <c r="W20">
-        <v>6.51</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X20">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y20">
-        <v>3</v>
-      </c>
-      <c r="Z20">
-        <v>0.2</v>
-      </c>
-      <c r="AA20">
-        <v>0.3</v>
-      </c>
-      <c r="AB20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>179.424</v>
@@ -2498,90 +2186,75 @@
         <v>1153021.19591091</v>
       </c>
       <c r="D21">
-        <v>0.8599</v>
+        <v>0.1970833</v>
       </c>
       <c r="E21">
-        <v>0.121</v>
+        <v>0.895865237366003</v>
       </c>
       <c r="F21">
-        <v>0.886090814196242</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G21">
-        <v>0.1970833</v>
+        <v>0.974406596157671</v>
       </c>
       <c r="H21">
-        <v>0.895865237366003</v>
+        <v>0.278669520242554</v>
       </c>
       <c r="I21">
-        <v>0.0265938129353891</v>
+        <v>0.605970067589554</v>
       </c>
       <c r="J21">
-        <v>184.136684529347</v>
+        <v>0.605970067589554</v>
       </c>
       <c r="K21">
-        <v>0.974406596157671</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="L21">
-        <v>0.278669520242554</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="M21">
-        <v>0.605970067589554</v>
+        <v>0.1017</v>
       </c>
       <c r="N21">
-        <v>0.605970067589554</v>
+        <v>0.2</v>
       </c>
       <c r="O21">
-        <v>0.339605685126709</v>
+        <v>0.163789618368886</v>
       </c>
       <c r="P21">
-        <v>0.339605685126709</v>
+        <v>0.798850982718373</v>
       </c>
       <c r="Q21">
-        <v>0.0125691452482009</v>
+        <v>0.1</v>
       </c>
       <c r="R21">
-        <v>0.1017</v>
+        <v>9.34</v>
       </c>
       <c r="S21">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T21">
-        <v>0.163789618368886</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>0.798850982718373</v>
+        <v>0.2</v>
       </c>
       <c r="V21">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W21">
-        <v>9.34</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X21">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y21">
-        <v>3</v>
-      </c>
-      <c r="Z21">
-        <v>0.2</v>
-      </c>
-      <c r="AA21">
-        <v>0.3</v>
-      </c>
-      <c r="AB21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>149.238</v>
@@ -2590,84 +2263,69 @@
         <v>558647.498120183</v>
       </c>
       <c r="D22">
-        <v>0.8049</v>
+        <v>0.2869515</v>
       </c>
       <c r="E22">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.695664494190989</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G22">
-        <v>0.2869515</v>
+        <v>0.810474025756747</v>
       </c>
       <c r="H22">
-        <v>0.8</v>
+        <v>0.335035312721961</v>
       </c>
       <c r="I22">
-        <v>0.0325680981399525</v>
+        <v>0.625601602025372</v>
       </c>
       <c r="J22">
-        <v>184.136684529347</v>
+        <v>0.625601602025372</v>
       </c>
       <c r="K22">
-        <v>0.810474025756747</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L22">
-        <v>0.335035312721961</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M22">
-        <v>0.625601602025372</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.625601602025372</v>
-      </c>
-      <c r="O22">
-        <v>0.403793944470449</v>
-      </c>
-      <c r="P22">
-        <v>0.403793944470449</v>
+        <v>0.2</v>
       </c>
       <c r="Q22">
-        <v>0.0315663740568657</v>
+        <v>0.111268127867627</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0.23</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
         <v>0.2</v>
       </c>
       <c r="V22">
-        <v>0.111268127867627</v>
+        <v>0.3</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X22">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y22">
-        <v>3</v>
-      </c>
-      <c r="Z22">
-        <v>0.2</v>
-      </c>
-      <c r="AA22">
-        <v>0.3</v>
-      </c>
-      <c r="AB22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>152.074</v>
@@ -2676,90 +2334,75 @@
         <v>1881962.89125995</v>
       </c>
       <c r="D23">
-        <v>0.7832</v>
+        <v>0.41163</v>
       </c>
       <c r="E23">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.603973444065942</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G23">
-        <v>0.41163</v>
+        <v>0.825875628143848</v>
       </c>
       <c r="H23">
-        <v>0.8</v>
+        <v>0.328787300919289</v>
       </c>
       <c r="I23">
-        <v>0.0325680981399525</v>
+        <v>0.61358913909323</v>
       </c>
       <c r="J23">
-        <v>184.136684529347</v>
+        <v>0.61358913909323</v>
       </c>
       <c r="K23">
-        <v>0.825875628143848</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L23">
-        <v>0.328787300919289</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M23">
-        <v>0.61358913909323</v>
+        <v>0.0897</v>
       </c>
       <c r="N23">
-        <v>0.61358913909323</v>
+        <v>0.2</v>
       </c>
       <c r="O23">
-        <v>0.403793944470449</v>
+        <v>0.196891213289496</v>
       </c>
       <c r="P23">
-        <v>0.403793944470449</v>
+        <v>0.720045104205248</v>
       </c>
       <c r="Q23">
-        <v>0.040586168913419</v>
+        <v>0.1</v>
       </c>
       <c r="R23">
-        <v>0.0897</v>
+        <v>15.36</v>
       </c>
       <c r="S23">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T23">
-        <v>0.196891213289496</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>0.720045104205248</v>
+        <v>0.2</v>
       </c>
       <c r="V23">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W23">
-        <v>15.36</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X23">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y23">
-        <v>3</v>
-      </c>
-      <c r="Z23">
-        <v>0.2</v>
-      </c>
-      <c r="AA23">
-        <v>0.3</v>
-      </c>
-      <c r="AB23">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC23">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>156.261</v>
@@ -2768,84 +2411,69 @@
         <v>85865.384952272</v>
       </c>
       <c r="D24">
-        <v>0.9034</v>
+        <v>0.5357688</v>
       </c>
       <c r="E24">
-        <v>0.312</v>
+        <v>0.854588796185936</v>
       </c>
       <c r="F24">
-        <v>0.955874241588527</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G24">
-        <v>0.5357688</v>
+        <v>0.848614171583478</v>
       </c>
       <c r="H24">
-        <v>0.854588796185936</v>
+        <v>0.31997747358586</v>
       </c>
       <c r="I24">
-        <v>0.0311973744053692</v>
+        <v>0.704419697775541</v>
       </c>
       <c r="J24">
-        <v>184.136684529347</v>
+        <v>0.704419697775541</v>
       </c>
       <c r="K24">
-        <v>0.848614171583478</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="L24">
-        <v>0.31997747358586</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="M24">
-        <v>0.704419697775541</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.704419697775541</v>
-      </c>
-      <c r="O24">
-        <v>0.330754776712315</v>
-      </c>
-      <c r="P24">
-        <v>0.330754776712315</v>
+        <v>0.2</v>
       </c>
       <c r="Q24">
-        <v>0.00590361417111155</v>
+        <v>0.1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0.23</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
         <v>0.2</v>
       </c>
       <c r="V24">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X24">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y24">
-        <v>3</v>
-      </c>
-      <c r="Z24">
-        <v>0.2</v>
-      </c>
-      <c r="AA24">
-        <v>0.3</v>
-      </c>
-      <c r="AB24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD24">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>177.386</v>
@@ -2854,90 +2482,75 @@
         <v>733558.367597268</v>
       </c>
       <c r="D25">
-        <v>0.7674</v>
+        <v>0.2776401</v>
       </c>
       <c r="E25">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F25">
-        <v>0.796323586442255</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G25">
-        <v>0.2776401</v>
+        <v>0.963338730972583</v>
       </c>
       <c r="H25">
-        <v>0.823002754820937</v>
+        <v>0.281871173598818</v>
       </c>
       <c r="I25">
-        <v>0.0443184077590071</v>
+        <v>0.593455555845053</v>
       </c>
       <c r="J25">
-        <v>184.136684529347</v>
+        <v>0.593455555845053</v>
       </c>
       <c r="K25">
-        <v>0.963338730972583</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L25">
-        <v>0.281871173598818</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M25">
-        <v>0.593455555845053</v>
+        <v>0.1211</v>
       </c>
       <c r="N25">
-        <v>0.593455555845053</v>
+        <v>0.2</v>
       </c>
       <c r="O25">
-        <v>0.432902672615501</v>
+        <v>0.213320830679287</v>
       </c>
       <c r="P25">
-        <v>0.432902672615501</v>
+        <v>0.759648181909913</v>
       </c>
       <c r="Q25">
-        <v>0.0221322310263776</v>
+        <v>0.13063852224195</v>
       </c>
       <c r="R25">
-        <v>0.1211</v>
+        <v>15.94</v>
       </c>
       <c r="S25">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T25">
-        <v>0.213320830679287</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>0.759648181909913</v>
+        <v>0.2</v>
       </c>
       <c r="V25">
-        <v>0.13063852224195</v>
+        <v>0.3</v>
       </c>
       <c r="W25">
-        <v>15.94</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X25">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y25">
-        <v>3</v>
-      </c>
-      <c r="Z25">
-        <v>0.2</v>
-      </c>
-      <c r="AA25">
-        <v>0.3</v>
-      </c>
-      <c r="AB25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>241.147</v>
@@ -2946,84 +2559,69 @@
         <v>253003.132887467</v>
       </c>
       <c r="D26">
-        <v>0.8289</v>
+        <v>0.3379586</v>
       </c>
       <c r="E26">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F26">
-        <v>0.826764600501612</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G26">
-        <v>0.3379586</v>
+        <v>1.30960867801205</v>
       </c>
       <c r="H26">
-        <v>0.8</v>
+        <v>0.207342409401734</v>
       </c>
       <c r="I26">
-        <v>0.0325680981399525</v>
+        <v>0.623269968447109</v>
       </c>
       <c r="J26">
-        <v>184.136684529347</v>
+        <v>0.623269968447109</v>
       </c>
       <c r="K26">
-        <v>1.30960867801205</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L26">
-        <v>0.207342409401734</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M26">
-        <v>0.623269968447109</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.623269968447109</v>
-      </c>
-      <c r="O26">
-        <v>0.403793944470449</v>
-      </c>
-      <c r="P26">
-        <v>0.403793944470449</v>
+        <v>0.2</v>
       </c>
       <c r="Q26">
-        <v>0.0186698474822275</v>
+        <v>0.1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0.23</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
         <v>0.2</v>
       </c>
       <c r="V26">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X26">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y26">
-        <v>3</v>
-      </c>
-      <c r="Z26">
-        <v>0.2</v>
-      </c>
-      <c r="AA26">
-        <v>0.3</v>
-      </c>
-      <c r="AB26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD26">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>282.606</v>
@@ -3032,84 +2630,69 @@
         <v>3350889.3025638</v>
       </c>
       <c r="D27">
-        <v>0.7682</v>
+        <v>0.0341172</v>
       </c>
       <c r="E27">
-        <v>0.175</v>
+        <v>1.11720698254364</v>
       </c>
       <c r="F27">
-        <v>0.868824744850041</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G27">
-        <v>0.0341172</v>
+        <v>1.53476207482686</v>
       </c>
       <c r="H27">
-        <v>1.11720698254364</v>
+        <v>0.176924764513138</v>
       </c>
       <c r="I27">
-        <v>0.0348488090058342</v>
+        <v>0.656626150696792</v>
       </c>
       <c r="J27">
-        <v>184.136684529347</v>
+        <v>0.656626150696792</v>
       </c>
       <c r="K27">
-        <v>1.53476207482686</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="L27">
-        <v>0.176924764513138</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="M27">
-        <v>0.656626150696792</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0.656626150696792</v>
-      </c>
-      <c r="O27">
-        <v>0.362780034735979</v>
-      </c>
-      <c r="P27">
-        <v>0.362780034735979</v>
+        <v>0.2</v>
       </c>
       <c r="Q27">
-        <v>0.014631400894637</v>
+        <v>0.11297762957612</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0.23</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
         <v>0.2</v>
       </c>
       <c r="V27">
-        <v>0.11297762957612</v>
+        <v>0.3</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X27">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>0.2</v>
-      </c>
-      <c r="AA27">
-        <v>0.3</v>
-      </c>
-      <c r="AB27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>207.478</v>
@@ -3118,84 +2701,69 @@
         <v>4351713.3885828</v>
       </c>
       <c r="D28">
-        <v>0.8182</v>
+        <v>0.2268828</v>
       </c>
       <c r="E28">
-        <v>0.184</v>
+        <v>0.847161572052402</v>
       </c>
       <c r="F28">
-        <v>0.943897882938979</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G28">
-        <v>0.2268828</v>
+        <v>1.1267608110264</v>
       </c>
       <c r="H28">
-        <v>0.847161572052402</v>
+        <v>0.240989406105708</v>
       </c>
       <c r="I28">
-        <v>0.034143933636835</v>
+        <v>0.510060947320871</v>
       </c>
       <c r="J28">
-        <v>184.136684529347</v>
+        <v>0.510060947320871</v>
       </c>
       <c r="K28">
-        <v>1.1267608110264</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="L28">
-        <v>0.240989406105708</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="M28">
-        <v>0.510060947320871</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0.510060947320871</v>
-      </c>
-      <c r="O28">
-        <v>0.399510616283393</v>
-      </c>
-      <c r="P28">
-        <v>0.399510616283393</v>
+        <v>0.2</v>
       </c>
       <c r="Q28">
-        <v>0.007221631039853</v>
+        <v>0.123401195342912</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0.23</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
         <v>0.2</v>
       </c>
       <c r="V28">
-        <v>0.123401195342912</v>
+        <v>0.3</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X28">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y28">
-        <v>3</v>
-      </c>
-      <c r="Z28">
-        <v>0.2</v>
-      </c>
-      <c r="AA28">
-        <v>0.3</v>
-      </c>
-      <c r="AB28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>137.747</v>
@@ -3204,84 +2772,69 @@
         <v>710843.272307041</v>
       </c>
       <c r="D29">
-        <v>0.7425</v>
+        <v>0.3670142</v>
       </c>
       <c r="E29">
-        <v>0.161</v>
+        <v>0.861990950226244</v>
       </c>
       <c r="F29">
-        <v>0.760676099622255</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G29">
-        <v>0.3670142</v>
+        <v>0.748069296197447</v>
       </c>
       <c r="H29">
-        <v>0.861990950226244</v>
+        <v>0.362984311818043</v>
       </c>
       <c r="I29">
-        <v>0.0276104470817409</v>
+        <v>0.449828573348919</v>
       </c>
       <c r="J29">
-        <v>184.136684529347</v>
+        <v>0.449828573348919</v>
       </c>
       <c r="K29">
-        <v>0.748069296197447</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="L29">
-        <v>0.362984311818043</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="M29">
-        <v>0.449828573348919</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0.449828573348919</v>
-      </c>
-      <c r="O29">
-        <v>0.327049914685371</v>
-      </c>
-      <c r="P29">
-        <v>0.327049914685371</v>
+        <v>0.2</v>
       </c>
       <c r="Q29">
-        <v>0.0249825203975228</v>
+        <v>0.1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0.23</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
         <v>0.2</v>
       </c>
       <c r="V29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X29">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y29">
-        <v>3</v>
-      </c>
-      <c r="Z29">
-        <v>0.2</v>
-      </c>
-      <c r="AA29">
-        <v>0.3</v>
-      </c>
-      <c r="AB29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>156.283</v>
@@ -3290,90 +2843,75 @@
         <v>992308.737024673</v>
       </c>
       <c r="D30">
-        <v>0.7724</v>
+        <v>0.3343261</v>
       </c>
       <c r="E30">
-        <v>0.161</v>
+        <v>0.861990950226244</v>
       </c>
       <c r="F30">
-        <v>0.771310854328471</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G30">
-        <v>0.3343261</v>
+        <v>0.848733648047693</v>
       </c>
       <c r="H30">
-        <v>0.861990950226244</v>
+        <v>0.319932430270727</v>
       </c>
       <c r="I30">
-        <v>0.0276104470817409</v>
+        <v>0.539234654715103</v>
       </c>
       <c r="J30">
-        <v>184.136684529347</v>
+        <v>0.539234654715103</v>
       </c>
       <c r="K30">
-        <v>0.848733648047693</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="L30">
-        <v>0.319932430270727</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="M30">
-        <v>0.539234654715103</v>
+        <v>0.0184</v>
       </c>
       <c r="N30">
-        <v>0.539234654715103</v>
+        <v>0.2</v>
       </c>
       <c r="O30">
-        <v>0.327049914685371</v>
+        <v>0.179598631377796</v>
       </c>
       <c r="P30">
-        <v>0.327049914685371</v>
+        <v>0.706222727083207</v>
       </c>
       <c r="Q30">
-        <v>0.0239337264435033</v>
+        <v>0.1</v>
       </c>
       <c r="R30">
-        <v>0.0184</v>
+        <v>7.9</v>
       </c>
       <c r="S30">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T30">
-        <v>0.179598631377796</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>0.706222727083207</v>
+        <v>0.2</v>
       </c>
       <c r="V30">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W30">
-        <v>7.9</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X30">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y30">
-        <v>3</v>
-      </c>
-      <c r="Z30">
-        <v>0.2</v>
-      </c>
-      <c r="AA30">
-        <v>0.3</v>
-      </c>
-      <c r="AB30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>190.398</v>
@@ -3382,84 +2920,69 @@
         <v>2410527.96165012</v>
       </c>
       <c r="D31">
-        <v>0.4642</v>
+        <v>0.2442229</v>
       </c>
       <c r="E31">
-        <v>0.161</v>
+        <v>0.861990950226244</v>
       </c>
       <c r="F31">
-        <v>0.726665375677769</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G31">
-        <v>0.2442229</v>
+        <v>1.0340036288079</v>
       </c>
       <c r="H31">
-        <v>0.861990950226244</v>
+        <v>0.262607800502106</v>
       </c>
       <c r="I31">
-        <v>0.0276104470817409</v>
+        <v>0.568224630141931</v>
       </c>
       <c r="J31">
-        <v>184.136684529347</v>
+        <v>0.568224630141931</v>
       </c>
       <c r="K31">
-        <v>1.0340036288079</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="L31">
-        <v>0.262607800502106</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="M31">
-        <v>0.568224630141931</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0.568224630141931</v>
-      </c>
-      <c r="O31">
-        <v>0.327049914685371</v>
-      </c>
-      <c r="P31">
-        <v>0.327049914685371</v>
+        <v>0.2</v>
       </c>
       <c r="Q31">
-        <v>0.0283366402272873</v>
+        <v>0.113389942290189</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0.23</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
         <v>0.2</v>
       </c>
       <c r="V31">
-        <v>0.113389942290189</v>
+        <v>0.3</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X31">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y31">
-        <v>3</v>
-      </c>
-      <c r="Z31">
-        <v>0.2</v>
-      </c>
-      <c r="AA31">
-        <v>0.3</v>
-      </c>
-      <c r="AB31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>97.289</v>
@@ -3468,158 +2991,128 @@
         <v>533220.801373149</v>
       </c>
       <c r="D32">
-        <v>0.0055</v>
+        <v>0.4578927</v>
       </c>
       <c r="E32">
-        <v>0.161</v>
+        <v>0.861990950226244</v>
       </c>
       <c r="F32">
-        <v>0.719053976730879</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G32">
-        <v>0.4578927</v>
+        <v>0.528352078504457</v>
       </c>
       <c r="H32">
-        <v>0.861990950226244</v>
+        <v>0.513932715928831</v>
       </c>
       <c r="I32">
-        <v>0.0276104470817409</v>
+        <v>0.505140012725683</v>
       </c>
       <c r="J32">
-        <v>184.136684529347</v>
+        <v>0.505140012725683</v>
       </c>
       <c r="K32">
-        <v>0.528352078504457</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="L32">
-        <v>0.513932715928831</v>
+        <v>0.327049914685371</v>
       </c>
       <c r="M32">
-        <v>0.505140012725683</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0.505140012725683</v>
-      </c>
-      <c r="O32">
-        <v>0.327049914685371</v>
-      </c>
-      <c r="P32">
-        <v>0.327049914685371</v>
+        <v>0.2</v>
       </c>
       <c r="Q32">
-        <v>0.0290872724155842</v>
+        <v>0.1</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0.23</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
         <v>0.2</v>
       </c>
       <c r="V32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X32">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y32">
-        <v>3</v>
-      </c>
-      <c r="Z32">
-        <v>0.2</v>
-      </c>
-      <c r="AA32">
-        <v>0.3</v>
-      </c>
-      <c r="AB32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD32">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>131195.356598692</v>
       </c>
       <c r="D33">
-        <v>0.7567</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.21</v>
+        <v>0.821276595744681</v>
       </c>
       <c r="F33">
-        <v>0.74052757793765</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0.821276595744681</v>
+        <v>184.136684529347</v>
       </c>
       <c r="I33">
-        <v>0.0345634443107367</v>
+        <v>0.931293981832552</v>
       </c>
       <c r="J33">
-        <v>184.136684529347</v>
+        <v>0.931293981832552</v>
+      </c>
+      <c r="K33">
+        <v>0.388003116567215</v>
+      </c>
+      <c r="L33">
+        <v>0.388003116567215</v>
       </c>
       <c r="M33">
-        <v>0.931293981832552</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0.931293981832552</v>
-      </c>
-      <c r="O33">
-        <v>0.388003116567215</v>
-      </c>
-      <c r="P33">
-        <v>0.388003116567215</v>
+        <v>0.2</v>
       </c>
       <c r="Q33">
-        <v>0.0272270013912657</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
+        <v>0.191428783823967</v>
       </c>
       <c r="S33">
+        <v>0.23</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
         <v>0.2</v>
       </c>
       <c r="V33">
-        <v>0.191428783823967</v>
+        <v>0.3</v>
+      </c>
+      <c r="W33">
+        <v>0.333333333333333</v>
       </c>
       <c r="X33">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y33">
-        <v>3</v>
-      </c>
-      <c r="Z33">
-        <v>0.2</v>
-      </c>
-      <c r="AA33">
-        <v>0.3</v>
-      </c>
-      <c r="AB33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD33">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>130.115</v>
@@ -3628,84 +3121,69 @@
         <v>440354.934932028</v>
       </c>
       <c r="D34">
-        <v>0.7044</v>
+        <v>0.6370257</v>
       </c>
       <c r="E34">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F34">
-        <v>0.82585459312292</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G34">
-        <v>0.6370257</v>
+        <v>0.706621824611286</v>
       </c>
       <c r="H34">
-        <v>0.704046242774567</v>
+        <v>0.384275448641586</v>
       </c>
       <c r="I34">
-        <v>0.0402754470227417</v>
+        <v>0.5052488202008</v>
       </c>
       <c r="J34">
-        <v>184.136684529347</v>
+        <v>0.5052488202008</v>
       </c>
       <c r="K34">
-        <v>0.706621824611286</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L34">
-        <v>0.384275448641586</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M34">
-        <v>0.5052488202008</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0.5052488202008</v>
-      </c>
-      <c r="O34">
-        <v>0.41525155702608</v>
-      </c>
-      <c r="P34">
-        <v>0.41525155702608</v>
+        <v>0.2</v>
       </c>
       <c r="Q34">
-        <v>0.0190776238333985</v>
+        <v>0.1</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0.23</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>0.2</v>
       </c>
       <c r="V34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X34">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y34">
-        <v>3</v>
-      </c>
-      <c r="Z34">
-        <v>0.2</v>
-      </c>
-      <c r="AA34">
-        <v>0.3</v>
-      </c>
-      <c r="AB34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD34">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <v>162.895</v>
@@ -3714,84 +3192,69 @@
         <v>167618.61939646</v>
       </c>
       <c r="D35">
-        <v>0.9701</v>
+        <v>0.2519621</v>
       </c>
       <c r="E35">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F35">
-        <v>0.698397280233123</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G35">
-        <v>0.2519621</v>
+        <v>0.884641756292937</v>
       </c>
       <c r="H35">
-        <v>0.823002754820937</v>
+        <v>0.306946192332484</v>
       </c>
       <c r="I35">
-        <v>0.0443184077590071</v>
+        <v>0.437850462431834</v>
       </c>
       <c r="J35">
-        <v>184.136684529347</v>
+        <v>0.437850462431834</v>
       </c>
       <c r="K35">
-        <v>0.884641756292937</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L35">
-        <v>0.306946192332484</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M35">
-        <v>0.437850462431834</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0.437850462431834</v>
-      </c>
-      <c r="O35">
-        <v>0.432902672615501</v>
-      </c>
-      <c r="P35">
-        <v>0.432902672615501</v>
+        <v>0.2</v>
       </c>
       <c r="Q35">
-        <v>0.0317078647488454</v>
+        <v>0.134735860125326</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0.23</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>0.2</v>
       </c>
       <c r="V35">
-        <v>0.134735860125326</v>
+        <v>0.3</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X35">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y35">
-        <v>3</v>
-      </c>
-      <c r="Z35">
-        <v>0.2</v>
-      </c>
-      <c r="AA35">
-        <v>0.3</v>
-      </c>
-      <c r="AB35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD35">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>149.062</v>
@@ -3800,90 +3263,75 @@
         <v>197584.190285786</v>
       </c>
       <c r="D36">
-        <v>0.7855</v>
+        <v>0.4244743</v>
       </c>
       <c r="E36">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F36">
-        <v>0.852892102335929</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G36">
-        <v>0.4244743</v>
+        <v>0.80951821404302</v>
       </c>
       <c r="H36">
-        <v>0.953416149068323</v>
+        <v>0.33543089452711</v>
       </c>
       <c r="I36">
-        <v>0.0314139693356048</v>
+        <v>0.499190243762243</v>
       </c>
       <c r="J36">
-        <v>184.136684529347</v>
+        <v>0.499190243762243</v>
       </c>
       <c r="K36">
-        <v>0.80951821404302</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L36">
-        <v>0.33543089452711</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M36">
-        <v>0.499190243762243</v>
+        <v>0.0571</v>
       </c>
       <c r="N36">
-        <v>0.499190243762243</v>
+        <v>0.2</v>
       </c>
       <c r="O36">
-        <v>0.40868266233886</v>
+        <v>0.119179611300511</v>
       </c>
       <c r="P36">
-        <v>0.40868266233886</v>
+        <v>0.226508132799018</v>
       </c>
       <c r="Q36">
-        <v>0.0160504260838751</v>
+        <v>0.1</v>
       </c>
       <c r="R36">
-        <v>0.0571</v>
+        <v>10.64</v>
       </c>
       <c r="S36">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T36">
-        <v>0.119179611300511</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>0.226508132799018</v>
+        <v>0.2</v>
       </c>
       <c r="V36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W36">
-        <v>10.64</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X36">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y36">
-        <v>3</v>
-      </c>
-      <c r="Z36">
-        <v>0.2</v>
-      </c>
-      <c r="AA36">
-        <v>0.3</v>
-      </c>
-      <c r="AB36">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC36">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD36">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>192.382</v>
@@ -3892,90 +3340,75 @@
         <v>579429.044110523</v>
       </c>
       <c r="D37">
-        <v>0.9383</v>
+        <v>0.0988187</v>
       </c>
       <c r="E37">
-        <v>0.206</v>
+        <v>0.886567164179105</v>
       </c>
       <c r="F37">
-        <v>0.985168400453188</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G37">
-        <v>0.0988187</v>
+        <v>1.04477823358082</v>
       </c>
       <c r="H37">
-        <v>0.886567164179105</v>
+        <v>0.259899574804296</v>
       </c>
       <c r="I37">
-        <v>0.032202580028667</v>
+        <v>0.614787928154712</v>
       </c>
       <c r="J37">
-        <v>184.136684529347</v>
+        <v>0.614787928154712</v>
       </c>
       <c r="K37">
-        <v>1.04477823358082</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="L37">
-        <v>0.259899574804296</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="M37">
-        <v>0.614787928154712</v>
+        <v>0.0599</v>
       </c>
       <c r="N37">
-        <v>0.614787928154712</v>
+        <v>0.2</v>
       </c>
       <c r="O37">
-        <v>0.446950440736166</v>
+        <v>0.190727718841027</v>
       </c>
       <c r="P37">
-        <v>0.446950440736166</v>
+        <v>0.973988254988496</v>
       </c>
       <c r="Q37">
-        <v>0.00306940816754661</v>
+        <v>0.11069009836215</v>
       </c>
       <c r="R37">
-        <v>0.0599</v>
+        <v>48.14</v>
       </c>
       <c r="S37">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T37">
-        <v>0.190727718841027</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>0.973988254988496</v>
+        <v>0.2</v>
       </c>
       <c r="V37">
-        <v>0.11069009836215</v>
+        <v>0.3</v>
       </c>
       <c r="W37">
-        <v>48.14</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X37">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y37">
-        <v>3</v>
-      </c>
-      <c r="Z37">
-        <v>0.2</v>
-      </c>
-      <c r="AA37">
-        <v>0.3</v>
-      </c>
-      <c r="AB37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD37">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>175.91</v>
@@ -3984,90 +3417,75 @@
         <v>672277.192943119</v>
       </c>
       <c r="D38">
-        <v>0.8686</v>
+        <v>0.1728976</v>
       </c>
       <c r="E38">
-        <v>0.206</v>
+        <v>0.886567164179105</v>
       </c>
       <c r="F38">
-        <v>0.975518185373485</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G38">
-        <v>0.1728976</v>
+        <v>0.955322946373372</v>
       </c>
       <c r="H38">
-        <v>0.886567164179105</v>
+        <v>0.284236257176965</v>
       </c>
       <c r="I38">
-        <v>0.032202580028667</v>
+        <v>0.643920540702937</v>
       </c>
       <c r="J38">
-        <v>184.136684529347</v>
+        <v>0.643920540702937</v>
       </c>
       <c r="K38">
-        <v>0.955322946373372</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="L38">
-        <v>0.284236257176965</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="M38">
-        <v>0.643920540702937</v>
+        <v>0.0413</v>
       </c>
       <c r="N38">
-        <v>0.643920540702937</v>
+        <v>0.2</v>
       </c>
       <c r="O38">
-        <v>0.446950440736166</v>
+        <v>0.170994571605574</v>
       </c>
       <c r="P38">
-        <v>0.446950440736166</v>
+        <v>0.834842059974893</v>
       </c>
       <c r="Q38">
-        <v>0.00401889158434703</v>
+        <v>0.1</v>
       </c>
       <c r="R38">
-        <v>0.0413</v>
+        <v>27.75</v>
       </c>
       <c r="S38">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T38">
-        <v>0.170994571605574</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>0.834842059974893</v>
+        <v>0.2</v>
       </c>
       <c r="V38">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W38">
-        <v>27.75</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X38">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y38">
-        <v>3</v>
-      </c>
-      <c r="Z38">
-        <v>0.2</v>
-      </c>
-      <c r="AA38">
-        <v>0.3</v>
-      </c>
-      <c r="AB38">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC38">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD38">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>187.023</v>
@@ -4076,84 +3494,69 @@
         <v>2296674.28518162</v>
       </c>
       <c r="D39">
-        <v>0.8172</v>
+        <v>0.2620953</v>
       </c>
       <c r="E39">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F39">
-        <v>0.87649893286981</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G39">
-        <v>0.2620953</v>
+        <v>1.01567485304751</v>
       </c>
       <c r="H39">
-        <v>0.823002754820937</v>
+        <v>0.267346796918026</v>
       </c>
       <c r="I39">
-        <v>0.0443184077590071</v>
+        <v>0.54518290933124</v>
       </c>
       <c r="J39">
-        <v>184.136684529347</v>
+        <v>0.54518290933124</v>
       </c>
       <c r="K39">
-        <v>1.01567485304751</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L39">
-        <v>0.267346796918026</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M39">
-        <v>0.54518290933124</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.54518290933124</v>
-      </c>
-      <c r="O39">
-        <v>0.432902672615501</v>
-      </c>
-      <c r="P39">
-        <v>0.432902672615501</v>
+        <v>0.2</v>
       </c>
       <c r="Q39">
-        <v>0.0142923585683819</v>
+        <v>0.133153007241779</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0.23</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
         <v>0.2</v>
       </c>
       <c r="V39">
-        <v>0.133153007241779</v>
+        <v>0.3</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X39">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y39">
-        <v>3</v>
-      </c>
-      <c r="Z39">
-        <v>0.2</v>
-      </c>
-      <c r="AA39">
-        <v>0.3</v>
-      </c>
-      <c r="AB39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD39">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>169.871</v>
@@ -4162,90 +3565,75 @@
         <v>1533715.59215201</v>
       </c>
       <c r="D40">
-        <v>0.8583</v>
+        <v>0.2437012</v>
       </c>
       <c r="E40">
-        <v>0.121</v>
+        <v>0.895865237366003</v>
       </c>
       <c r="F40">
-        <v>0.916680693485945</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G40">
-        <v>0.2437012</v>
+        <v>0.922526656946115</v>
       </c>
       <c r="H40">
-        <v>0.895865237366003</v>
+        <v>0.294340999935245</v>
       </c>
       <c r="I40">
-        <v>0.0265938129353891</v>
+        <v>0.600693080642694</v>
       </c>
       <c r="J40">
-        <v>184.136684529347</v>
+        <v>0.600693080642694</v>
       </c>
       <c r="K40">
-        <v>0.922526656946115</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="L40">
-        <v>0.294340999935245</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="M40">
-        <v>0.600693080642694</v>
+        <v>0.0859</v>
       </c>
       <c r="N40">
-        <v>0.600693080642694</v>
+        <v>0.2</v>
       </c>
       <c r="O40">
-        <v>0.339605685126709</v>
+        <v>0.154860991439121</v>
       </c>
       <c r="P40">
-        <v>0.339605685126709</v>
+        <v>0.662145562004368</v>
       </c>
       <c r="Q40">
-        <v>0.00955083239560788</v>
+        <v>0.1</v>
       </c>
       <c r="R40">
-        <v>0.0859</v>
+        <v>10.29</v>
       </c>
       <c r="S40">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T40">
-        <v>0.154860991439121</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>0.662145562004368</v>
+        <v>0.2</v>
       </c>
       <c r="V40">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W40">
-        <v>10.29</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X40">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y40">
-        <v>3</v>
-      </c>
-      <c r="Z40">
-        <v>0.2</v>
-      </c>
-      <c r="AA40">
-        <v>0.3</v>
-      </c>
-      <c r="AB40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>170.385</v>
@@ -4254,90 +3642,75 @@
         <v>207635.165378523</v>
       </c>
       <c r="D41">
-        <v>0.6841</v>
+        <v>0.267678</v>
       </c>
       <c r="E41">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F41">
-        <v>0.939818631492168</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G41">
-        <v>0.267678</v>
+        <v>0.925318061610068</v>
       </c>
       <c r="H41">
-        <v>0.953416149068323</v>
+        <v>0.293453062182704</v>
       </c>
       <c r="I41">
-        <v>0.0314139693356048</v>
+        <v>0.607822777429657</v>
       </c>
       <c r="J41">
-        <v>184.136684529347</v>
+        <v>0.607822777429657</v>
       </c>
       <c r="K41">
-        <v>0.925318061610068</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L41">
-        <v>0.293453062182704</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M41">
-        <v>0.607822777429657</v>
+        <v>0.0658</v>
       </c>
       <c r="N41">
-        <v>0.607822777429657</v>
+        <v>0.2</v>
       </c>
       <c r="O41">
-        <v>0.40868266233886</v>
+        <v>0.12560453410512</v>
       </c>
       <c r="P41">
-        <v>0.40868266233886</v>
+        <v>0.379108689384981</v>
       </c>
       <c r="Q41">
-        <v>0.00749430853431944</v>
+        <v>0.1</v>
       </c>
       <c r="R41">
-        <v>0.0658</v>
+        <v>7.5</v>
       </c>
       <c r="S41">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T41">
-        <v>0.12560453410512</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>0.379108689384981</v>
+        <v>0.2</v>
       </c>
       <c r="V41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W41">
-        <v>7.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X41">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y41">
-        <v>3</v>
-      </c>
-      <c r="Z41">
-        <v>0.2</v>
-      </c>
-      <c r="AA41">
-        <v>0.3</v>
-      </c>
-      <c r="AB41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD41">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>206.399</v>
@@ -4346,90 +3719,75 @@
         <v>759942.515079343</v>
       </c>
       <c r="D42">
-        <v>0.8231</v>
+        <v>0.1849658</v>
       </c>
       <c r="E42">
-        <v>0.206</v>
+        <v>0.886567164179105</v>
       </c>
       <c r="F42">
-        <v>0.949601300611597</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G42">
-        <v>0.1849658</v>
+        <v>1.12090103353145</v>
       </c>
       <c r="H42">
-        <v>0.886567164179105</v>
+        <v>0.242249235703661</v>
       </c>
       <c r="I42">
-        <v>0.032202580028667</v>
+        <v>0.581058264319275</v>
       </c>
       <c r="J42">
-        <v>184.136684529347</v>
+        <v>0.581058264319275</v>
       </c>
       <c r="K42">
-        <v>1.12090103353145</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="L42">
-        <v>0.242249235703661</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="M42">
-        <v>0.581058264319275</v>
+        <v>0.0183</v>
       </c>
       <c r="N42">
-        <v>0.581058264319275</v>
+        <v>0.2</v>
       </c>
       <c r="O42">
-        <v>0.446950440736166</v>
+        <v>0.157277107693199</v>
       </c>
       <c r="P42">
-        <v>0.446950440736166</v>
+        <v>0.906201882305776</v>
       </c>
       <c r="Q42">
-        <v>0.00656885053275386</v>
+        <v>0.1</v>
       </c>
       <c r="R42">
-        <v>0.0183</v>
+        <v>23.79</v>
       </c>
       <c r="S42">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T42">
-        <v>0.157277107693199</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>0.906201882305776</v>
+        <v>0.2</v>
       </c>
       <c r="V42">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W42">
-        <v>23.79</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X42">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y42">
-        <v>3</v>
-      </c>
-      <c r="Z42">
-        <v>0.2</v>
-      </c>
-      <c r="AA42">
-        <v>0.3</v>
-      </c>
-      <c r="AB42">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC42">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD42">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>249.092</v>
@@ -4438,90 +3796,75 @@
         <v>2838393.48641403</v>
       </c>
       <c r="D43">
-        <v>0.8424</v>
+        <v>0.0639343</v>
       </c>
       <c r="E43">
-        <v>0.175</v>
+        <v>1.11720698254364</v>
       </c>
       <c r="F43">
-        <v>0.924050417305399</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G43">
-        <v>0.0639343</v>
+        <v>1.3527559738391</v>
       </c>
       <c r="H43">
-        <v>1.11720698254364</v>
+        <v>0.20072904790198</v>
       </c>
       <c r="I43">
-        <v>0.0348488090058342</v>
+        <v>0.592091447554131</v>
       </c>
       <c r="J43">
-        <v>184.136684529347</v>
+        <v>0.592091447554131</v>
       </c>
       <c r="K43">
-        <v>1.3527559738391</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="L43">
-        <v>0.20072904790198</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="M43">
-        <v>0.592091447554131</v>
+        <v>0.0031</v>
       </c>
       <c r="N43">
-        <v>0.592091447554131</v>
+        <v>0.2</v>
       </c>
       <c r="O43">
-        <v>0.362780034735979</v>
+        <v>0.17494307609482</v>
       </c>
       <c r="P43">
-        <v>0.362780034735979</v>
+        <v>1.29033190993967</v>
       </c>
       <c r="Q43">
-        <v>0.00920506109468192</v>
+        <v>0.105971668934738</v>
       </c>
       <c r="R43">
-        <v>0.0031</v>
+        <v>8.78</v>
       </c>
       <c r="S43">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T43">
-        <v>0.17494307609482</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.29033190993967</v>
+        <v>0.2</v>
       </c>
       <c r="V43">
-        <v>0.105971668934738</v>
+        <v>0.3</v>
       </c>
       <c r="W43">
-        <v>8.78</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X43">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y43">
-        <v>3</v>
-      </c>
-      <c r="Z43">
-        <v>0.2</v>
-      </c>
-      <c r="AA43">
-        <v>0.3</v>
-      </c>
-      <c r="AB43">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC43">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD43">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>164.672</v>
@@ -4530,90 +3873,75 @@
         <v>969716.979767905</v>
       </c>
       <c r="D44">
-        <v>0.561</v>
+        <v>0.4906101</v>
       </c>
       <c r="E44">
-        <v>0.312</v>
+        <v>0.854588796185936</v>
       </c>
       <c r="F44">
-        <v>0.80891303459826</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G44">
-        <v>0.4906101</v>
+        <v>0.894292196152555</v>
       </c>
       <c r="H44">
-        <v>0.854588796185936</v>
+        <v>0.303633890400311</v>
       </c>
       <c r="I44">
-        <v>0.0311973744053692</v>
+        <v>0.556690327994871</v>
       </c>
       <c r="J44">
-        <v>184.136684529347</v>
+        <v>0.556690327994871</v>
       </c>
       <c r="K44">
-        <v>0.894292196152555</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="L44">
-        <v>0.303633890400311</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="M44">
-        <v>0.556690327994871</v>
+        <v>0.0106</v>
       </c>
       <c r="N44">
-        <v>0.556690327994871</v>
+        <v>0.2</v>
       </c>
       <c r="O44">
-        <v>0.330754776712315</v>
+        <v>0.147794884761301</v>
       </c>
       <c r="P44">
-        <v>0.330754776712315</v>
+        <v>0.499002377832455</v>
       </c>
       <c r="Q44">
-        <v>0.0203704946802613</v>
+        <v>0.1</v>
       </c>
       <c r="R44">
-        <v>0.0106</v>
+        <v>8.09</v>
       </c>
       <c r="S44">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T44">
-        <v>0.147794884761301</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>0.499002377832455</v>
+        <v>0.2</v>
       </c>
       <c r="V44">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W44">
-        <v>8.09</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X44">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y44">
-        <v>3</v>
-      </c>
-      <c r="Z44">
-        <v>0.2</v>
-      </c>
-      <c r="AA44">
-        <v>0.3</v>
-      </c>
-      <c r="AB44">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC44">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD44">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>131.981</v>
@@ -4622,90 +3950,75 @@
         <v>962426.556333156</v>
       </c>
       <c r="D45">
-        <v>0.2035</v>
+        <v>0.7376792</v>
       </c>
       <c r="E45">
-        <v>0.124</v>
+        <v>0.66199649737303</v>
       </c>
       <c r="F45">
-        <v>0.728467598032815</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G45">
-        <v>0.7376792</v>
+        <v>0.716755601076142</v>
       </c>
       <c r="H45">
-        <v>0.66199649737303</v>
+        <v>0.378842409134648</v>
       </c>
       <c r="I45">
-        <v>0.00891809076634602</v>
+        <v>0.39129314485286</v>
       </c>
       <c r="J45">
-        <v>184.136684529347</v>
+        <v>0.39129314485286</v>
       </c>
       <c r="K45">
-        <v>0.716755601076142</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="L45">
-        <v>0.378842409134648</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="M45">
-        <v>0.39129314485286</v>
+        <v>0.0506</v>
       </c>
       <c r="N45">
-        <v>0.39129314485286</v>
+        <v>0.2</v>
       </c>
       <c r="O45">
-        <v>0.238984286945568</v>
+        <v>0.190609444875137</v>
       </c>
       <c r="P45">
-        <v>0.238984286945568</v>
+        <v>0.284212564507382</v>
       </c>
       <c r="Q45">
-        <v>0.0274780672046984</v>
+        <v>0.1</v>
       </c>
       <c r="R45">
-        <v>0.0506</v>
+        <v>10.34</v>
       </c>
       <c r="S45">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T45">
-        <v>0.190609444875137</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>0.284212564507382</v>
+        <v>0.2</v>
       </c>
       <c r="V45">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W45">
-        <v>10.34</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X45">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y45">
-        <v>3</v>
-      </c>
-      <c r="Z45">
-        <v>0.2</v>
-      </c>
-      <c r="AA45">
-        <v>0.3</v>
-      </c>
-      <c r="AB45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD45">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>178.397</v>
@@ -4714,84 +4027,69 @@
         <v>1831350.58211375</v>
       </c>
       <c r="D46">
-        <v>0.7799</v>
+        <v>0.3924264</v>
       </c>
       <c r="E46">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F46">
-        <v>0.865346892422052</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G46">
-        <v>0.3924264</v>
+        <v>0.968829217578139</v>
       </c>
       <c r="H46">
-        <v>0.704046242774567</v>
+        <v>0.280273771419923</v>
       </c>
       <c r="I46">
-        <v>0.0402754470227417</v>
+        <v>0.533733685257792</v>
       </c>
       <c r="J46">
-        <v>184.136684529347</v>
+        <v>0.533733685257792</v>
       </c>
       <c r="K46">
-        <v>0.968829217578139</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L46">
-        <v>0.280273771419923</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M46">
-        <v>0.533733685257792</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>0.533733685257792</v>
-      </c>
-      <c r="O46">
-        <v>0.41525155702608</v>
-      </c>
-      <c r="P46">
-        <v>0.41525155702608</v>
+        <v>0.2</v>
       </c>
       <c r="Q46">
-        <v>0.0152079224038967</v>
+        <v>0.1</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
+        <v>0.23</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
         <v>0.2</v>
       </c>
       <c r="V46">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X46">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y46">
-        <v>3</v>
-      </c>
-      <c r="Z46">
-        <v>0.2</v>
-      </c>
-      <c r="AA46">
-        <v>0.3</v>
-      </c>
-      <c r="AB46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD46">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>140.218</v>
@@ -4800,90 +4098,75 @@
         <v>1274192.94879532</v>
       </c>
       <c r="D47">
-        <v>0.3038</v>
+        <v>0.589185995648955</v>
       </c>
       <c r="E47">
-        <v>0.124</v>
+        <v>0.66199649737303</v>
       </c>
       <c r="F47">
-        <v>0.550515907136715</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G47">
-        <v>0.589185995648955</v>
+        <v>0.761488675428239</v>
       </c>
       <c r="H47">
-        <v>0.66199649737303</v>
+        <v>0.356587599309646</v>
       </c>
       <c r="I47">
-        <v>0.00891809076634602</v>
+        <v>0.39129314485286</v>
       </c>
       <c r="J47">
-        <v>184.136684529347</v>
+        <v>0.39129314485286</v>
       </c>
       <c r="K47">
-        <v>0.761488675428239</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="L47">
-        <v>0.356587599309646</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="M47">
-        <v>0.39129314485286</v>
+        <v>0.0757</v>
       </c>
       <c r="N47">
-        <v>0.39129314485286</v>
+        <v>0.2</v>
       </c>
       <c r="O47">
-        <v>0.238984286945568</v>
+        <v>0.187472822849751</v>
       </c>
       <c r="P47">
-        <v>0.238984286945568</v>
+        <v>0.500339473168788</v>
       </c>
       <c r="Q47">
-        <v>0.0451938868277366</v>
+        <v>0.1</v>
       </c>
       <c r="R47">
-        <v>0.0757</v>
+        <v>7.23</v>
       </c>
       <c r="S47">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T47">
-        <v>0.187472822849751</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>0.500339473168788</v>
+        <v>0.2</v>
       </c>
       <c r="V47">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W47">
-        <v>7.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X47">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y47">
-        <v>3</v>
-      </c>
-      <c r="Z47">
-        <v>0.2</v>
-      </c>
-      <c r="AA47">
-        <v>0.3</v>
-      </c>
-      <c r="AB47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD47">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>151.717</v>
@@ -4892,84 +4175,69 @@
         <v>229974.564772054</v>
       </c>
       <c r="D48">
-        <v>0.8551</v>
+        <v>0.3291193</v>
       </c>
       <c r="E48">
-        <v>0.24</v>
+        <v>0.791525423728814</v>
       </c>
       <c r="F48">
-        <v>0.837303275202042</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G48">
-        <v>0.3291193</v>
+        <v>0.823936850974527</v>
       </c>
       <c r="H48">
-        <v>0.791525423728814</v>
+        <v>0.329560958890566</v>
       </c>
       <c r="I48">
-        <v>0.0293511534383066</v>
+        <v>0.731612824879396</v>
       </c>
       <c r="J48">
-        <v>184.136684529347</v>
+        <v>0.731612824879396</v>
       </c>
       <c r="K48">
-        <v>0.823936850974527</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="L48">
-        <v>0.329560958890566</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="M48">
-        <v>0.731612824879396</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.731612824879396</v>
-      </c>
-      <c r="O48">
-        <v>0.407281090129695</v>
-      </c>
-      <c r="P48">
-        <v>0.407281090129695</v>
+        <v>0.2</v>
       </c>
       <c r="Q48">
-        <v>0.0174984633250384</v>
+        <v>0.130312981091365</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
+        <v>0.23</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
         <v>0.2</v>
       </c>
       <c r="V48">
-        <v>0.130312981091365</v>
+        <v>0.3</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X48">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y48">
-        <v>3</v>
-      </c>
-      <c r="Z48">
-        <v>0.2</v>
-      </c>
-      <c r="AA48">
-        <v>0.3</v>
-      </c>
-      <c r="AB48">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC48">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD48">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>126.563</v>
@@ -4978,84 +4246,69 @@
         <v>862659.413376048</v>
       </c>
       <c r="D49">
-        <v>0.6896</v>
+        <v>0.5132306</v>
       </c>
       <c r="E49">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F49">
-        <v>0.700621426795923</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G49">
-        <v>0.5132306</v>
+        <v>0.687331806388796</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.395060167663535</v>
       </c>
       <c r="I49">
-        <v>0.0325680981399525</v>
+        <v>0.55283948979472</v>
       </c>
       <c r="J49">
-        <v>184.136684529347</v>
+        <v>0.55283948979472</v>
       </c>
       <c r="K49">
-        <v>0.687331806388796</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L49">
-        <v>0.395060167663535</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M49">
-        <v>0.55283948979472</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.55283948979472</v>
-      </c>
-      <c r="O49">
-        <v>0.403793944470449</v>
-      </c>
-      <c r="P49">
-        <v>0.403793944470449</v>
+        <v>0.2</v>
       </c>
       <c r="Q49">
-        <v>0.0310787526897498</v>
+        <v>0.1</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0.23</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
         <v>0.2</v>
       </c>
       <c r="V49">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X49">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y49">
-        <v>3</v>
-      </c>
-      <c r="Z49">
-        <v>0.2</v>
-      </c>
-      <c r="AA49">
-        <v>0.3</v>
-      </c>
-      <c r="AB49">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC49">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD49">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B50">
         <v>116.277</v>
@@ -5064,87 +4317,72 @@
         <v>585373.492033969</v>
       </c>
       <c r="D50">
-        <v>0.7679</v>
+        <v>0.4278528</v>
       </c>
       <c r="E50">
-        <v>0.312</v>
+        <v>0.854588796185936</v>
       </c>
       <c r="F50">
-        <v>0.875828241975734</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G50">
-        <v>0.4278528</v>
+        <v>0.631471128619502</v>
       </c>
       <c r="H50">
-        <v>0.854588796185936</v>
+        <v>0.430007654136244</v>
       </c>
       <c r="I50">
-        <v>0.0311973744053692</v>
+        <v>0.647841827821625</v>
       </c>
       <c r="J50">
-        <v>184.136684529347</v>
+        <v>0.647841827821625</v>
       </c>
       <c r="K50">
-        <v>0.631471128619502</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="L50">
-        <v>0.430007654136244</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="M50">
-        <v>0.647841827821625</v>
+        <v>0.0021</v>
       </c>
       <c r="N50">
-        <v>0.647841827821625</v>
+        <v>0.2</v>
       </c>
       <c r="O50">
-        <v>0.330754776712315</v>
+        <v>0.171863639942173</v>
       </c>
       <c r="P50">
-        <v>0.330754776712315</v>
+        <v>0.392807955566786</v>
       </c>
       <c r="Q50">
-        <v>0.0137833528814123</v>
-      </c>
-      <c r="R50">
-        <v>0.0021</v>
+        <v>0.1</v>
       </c>
       <c r="S50">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T50">
-        <v>0.171863639942173</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>0.392807955566786</v>
+        <v>0.2</v>
       </c>
       <c r="V50">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="W50">
+        <v>0.333333333333333</v>
       </c>
       <c r="X50">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y50">
-        <v>3</v>
-      </c>
-      <c r="Z50">
-        <v>0.2</v>
-      </c>
-      <c r="AA50">
-        <v>0.3</v>
-      </c>
-      <c r="AB50">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC50">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD50">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B51">
         <v>205.538</v>
@@ -5153,84 +4391,69 @@
         <v>1482282.67149162</v>
       </c>
       <c r="D51">
-        <v>0.5223</v>
+        <v>0.2343803</v>
       </c>
       <c r="E51">
-        <v>0.312</v>
+        <v>0.854588796185936</v>
       </c>
       <c r="F51">
-        <v>0.874129213483146</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G51">
-        <v>0.2343803</v>
+        <v>1.11622515918191</v>
       </c>
       <c r="H51">
-        <v>0.854588796185936</v>
+        <v>0.243264019305433</v>
       </c>
       <c r="I51">
-        <v>0.0311973744053692</v>
+        <v>0.543458672242409</v>
       </c>
       <c r="J51">
-        <v>184.136684529347</v>
+        <v>0.543458672242409</v>
       </c>
       <c r="K51">
-        <v>1.11622515918191</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="L51">
-        <v>0.243264019305433</v>
+        <v>0.330754776712315</v>
       </c>
       <c r="M51">
-        <v>0.543458672242409</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0.543458672242409</v>
-      </c>
-      <c r="O51">
-        <v>0.330754776712315</v>
-      </c>
-      <c r="P51">
-        <v>0.330754776712315</v>
+        <v>0.2</v>
       </c>
       <c r="Q51">
-        <v>0.0139506054692706</v>
+        <v>0.101052833089455</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51">
+        <v>0.23</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
         <v>0.2</v>
       </c>
       <c r="V51">
-        <v>0.101052833089455</v>
+        <v>0.3</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X51">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y51">
-        <v>3</v>
-      </c>
-      <c r="Z51">
-        <v>0.2</v>
-      </c>
-      <c r="AA51">
-        <v>0.3</v>
-      </c>
-      <c r="AB51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD51">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B52">
         <v>122.076</v>
@@ -5239,84 +4462,69 @@
         <v>157051.141451002</v>
       </c>
       <c r="D52">
-        <v>0.7722</v>
+        <v>0.3763485</v>
       </c>
       <c r="E52">
-        <v>0.165</v>
+        <v>0.953416149068323</v>
       </c>
       <c r="F52">
-        <v>0.82328190743338</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G52">
-        <v>0.3763485</v>
+        <v>0.662964038437132</v>
       </c>
       <c r="H52">
-        <v>0.953416149068323</v>
+        <v>0.409580916805924</v>
       </c>
       <c r="I52">
-        <v>0.0314139693356048</v>
+        <v>0.637626431996089</v>
       </c>
       <c r="J52">
-        <v>184.136684529347</v>
+        <v>0.637626431996089</v>
       </c>
       <c r="K52">
-        <v>0.662964038437132</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="L52">
-        <v>0.409580916805924</v>
+        <v>0.40868266233886</v>
       </c>
       <c r="M52">
-        <v>0.637626431996089</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>0.637626431996089</v>
-      </c>
-      <c r="O52">
-        <v>0.40868266233886</v>
-      </c>
-      <c r="P52">
-        <v>0.40868266233886</v>
+        <v>0.2</v>
       </c>
       <c r="Q52">
-        <v>0.0189649368863955</v>
+        <v>0.1</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
+        <v>0.23</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
         <v>0.2</v>
       </c>
       <c r="V52">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X52">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y52">
-        <v>3</v>
-      </c>
-      <c r="Z52">
-        <v>0.2</v>
-      </c>
-      <c r="AA52">
-        <v>0.3</v>
-      </c>
-      <c r="AB52">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC52">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD52">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>145.959</v>
@@ -5325,90 +4533,75 @@
         <v>2981577.20469059</v>
       </c>
       <c r="D53">
-        <v>0.7366</v>
+        <v>0.323328</v>
       </c>
       <c r="E53">
-        <v>0.188</v>
+        <v>0.823002754820937</v>
       </c>
       <c r="F53">
-        <v>0.86910581253869</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G53">
-        <v>0.323328</v>
+        <v>0.792666601840208</v>
       </c>
       <c r="H53">
-        <v>0.823002754820937</v>
+        <v>0.342561952329079</v>
       </c>
       <c r="I53">
-        <v>0.0443184077590071</v>
+        <v>0.584921770775726</v>
       </c>
       <c r="J53">
-        <v>184.136684529347</v>
+        <v>0.584921770775726</v>
       </c>
       <c r="K53">
-        <v>0.792666601840208</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="L53">
-        <v>0.342561952329079</v>
+        <v>0.432902672615501</v>
       </c>
       <c r="M53">
-        <v>0.584921770775726</v>
+        <v>0.0372</v>
       </c>
       <c r="N53">
-        <v>0.584921770775726</v>
+        <v>0.2</v>
       </c>
       <c r="O53">
-        <v>0.432902672615501</v>
+        <v>0.218666401622943</v>
       </c>
       <c r="P53">
-        <v>0.432902672615501</v>
+        <v>0.635615905679197</v>
       </c>
       <c r="Q53">
-        <v>0.0150152880354217</v>
+        <v>0.122579410501458</v>
       </c>
       <c r="R53">
-        <v>0.0372</v>
+        <v>14.13</v>
       </c>
       <c r="S53">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T53">
-        <v>0.218666401622943</v>
+        <v>3</v>
       </c>
       <c r="U53">
-        <v>0.635615905679197</v>
+        <v>0.2</v>
       </c>
       <c r="V53">
-        <v>0.122579410501458</v>
+        <v>0.3</v>
       </c>
       <c r="W53">
-        <v>14.13</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X53">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y53">
-        <v>3</v>
-      </c>
-      <c r="Z53">
-        <v>0.2</v>
-      </c>
-      <c r="AA53">
-        <v>0.3</v>
-      </c>
-      <c r="AB53">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC53">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD53">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <v>146.286</v>
@@ -5417,87 +4610,72 @@
         <v>1320494.31934513</v>
       </c>
       <c r="D54">
-        <v>0.7493</v>
+        <v>0.5006161</v>
       </c>
       <c r="E54">
-        <v>0.184</v>
+        <v>0.847161572052402</v>
       </c>
       <c r="F54">
-        <v>0.756526183362164</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G54">
-        <v>0.5006161</v>
+        <v>0.794442456558326</v>
       </c>
       <c r="H54">
-        <v>0.847161572052402</v>
+        <v>0.341796207429282</v>
       </c>
       <c r="I54">
-        <v>0.034143933636835</v>
+        <v>0.559499847441382</v>
       </c>
       <c r="J54">
-        <v>184.136684529347</v>
+        <v>0.559499847441382</v>
       </c>
       <c r="K54">
-        <v>0.794442456558326</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="L54">
-        <v>0.341796207429282</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="M54">
-        <v>0.559499847441382</v>
+        <v>0.002</v>
       </c>
       <c r="N54">
-        <v>0.559499847441382</v>
+        <v>0.2</v>
       </c>
       <c r="O54">
-        <v>0.399510616283393</v>
+        <v>0.168811720165914</v>
       </c>
       <c r="P54">
-        <v>0.399510616283393</v>
+        <v>0.522990402947535</v>
       </c>
       <c r="Q54">
-        <v>0.0256389206537459</v>
-      </c>
-      <c r="R54">
-        <v>0.002</v>
+        <v>0.1</v>
       </c>
       <c r="S54">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T54">
-        <v>0.168811720165914</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>0.522990402947535</v>
+        <v>0.2</v>
       </c>
       <c r="V54">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="W54">
+        <v>0.333333333333333</v>
       </c>
       <c r="X54">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y54">
-        <v>3</v>
-      </c>
-      <c r="Z54">
-        <v>0.2</v>
-      </c>
-      <c r="AA54">
-        <v>0.3</v>
-      </c>
-      <c r="AB54">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC54">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD54">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B55">
         <v>136.889</v>
@@ -5506,90 +4684,75 @@
         <v>1288466.35114615</v>
       </c>
       <c r="D55">
-        <v>0.6389</v>
+        <v>0.5235602</v>
       </c>
       <c r="E55">
-        <v>0.221</v>
+        <v>0.881398252184769</v>
       </c>
       <c r="F55">
-        <v>0.704441493286115</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G55">
-        <v>0.5235602</v>
+        <v>0.743409714093028</v>
       </c>
       <c r="H55">
-        <v>0.881398252184769</v>
+        <v>0.365259443782919</v>
       </c>
       <c r="I55">
-        <v>0.0421751327200714</v>
+        <v>0.473517553705807</v>
       </c>
       <c r="J55">
-        <v>184.136684529347</v>
+        <v>0.473517553705807</v>
       </c>
       <c r="K55">
-        <v>0.743409714093028</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="L55">
-        <v>0.365259443782919</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="M55">
-        <v>0.473517553705807</v>
+        <v>0.1015</v>
       </c>
       <c r="N55">
-        <v>0.473517553705807</v>
+        <v>0.2</v>
       </c>
       <c r="O55">
-        <v>0.348469006721434</v>
+        <v>0.188434159310574</v>
       </c>
       <c r="P55">
-        <v>0.348469006721434</v>
+        <v>0.530262514371522</v>
       </c>
       <c r="Q55">
-        <v>0.0310413463450319</v>
+        <v>0.1</v>
       </c>
       <c r="R55">
-        <v>0.1015</v>
+        <v>8.5</v>
       </c>
       <c r="S55">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T55">
-        <v>0.188434159310574</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>0.530262514371522</v>
+        <v>0.2</v>
       </c>
       <c r="V55">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W55">
-        <v>8.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X55">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y55">
-        <v>3</v>
-      </c>
-      <c r="Z55">
-        <v>0.2</v>
-      </c>
-      <c r="AA55">
-        <v>0.3</v>
-      </c>
-      <c r="AB55">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC55">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD55">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <v>137.606</v>
@@ -5598,84 +4761,69 @@
         <v>608478.055899388</v>
       </c>
       <c r="D56">
-        <v>0.6801</v>
+        <v>0.5019001</v>
       </c>
       <c r="E56">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F56">
-        <v>0.605976757055894</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G56">
-        <v>0.5019001</v>
+        <v>0.747303560676791</v>
       </c>
       <c r="H56">
-        <v>0.704046242774567</v>
+        <v>0.36335624900077</v>
       </c>
       <c r="I56">
-        <v>0.0402754470227417</v>
+        <v>0.472971887518146</v>
       </c>
       <c r="J56">
-        <v>184.136684529347</v>
+        <v>0.472971887518146</v>
       </c>
       <c r="K56">
-        <v>0.747303560676791</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L56">
-        <v>0.36335624900077</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M56">
-        <v>0.472971887518146</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>0.472971887518146</v>
-      </c>
-      <c r="O56">
-        <v>0.41525155702608</v>
-      </c>
-      <c r="P56">
-        <v>0.41525155702608</v>
+        <v>0.2</v>
       </c>
       <c r="Q56">
-        <v>0.0406226235332015</v>
+        <v>0.1</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
+        <v>0.23</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
         <v>0.2</v>
       </c>
       <c r="V56">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X56">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y56">
-        <v>3</v>
-      </c>
-      <c r="Z56">
-        <v>0.2</v>
-      </c>
-      <c r="AA56">
-        <v>0.3</v>
-      </c>
-      <c r="AB56">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC56">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD56">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B57">
         <v>169.592</v>
@@ -5684,90 +4832,75 @@
         <v>2020505.5211558</v>
       </c>
       <c r="D57">
-        <v>0.7982</v>
+        <v>0.251958</v>
       </c>
       <c r="E57">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F57">
-        <v>0.938735923271728</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G57">
-        <v>0.251958</v>
+        <v>0.921011478149923</v>
       </c>
       <c r="H57">
-        <v>1.0034516765286</v>
+        <v>0.294825227605076</v>
       </c>
       <c r="I57">
-        <v>0.0392761289644462</v>
+        <v>0.66171307823978</v>
       </c>
       <c r="J57">
-        <v>184.136684529347</v>
+        <v>0.66171307823978</v>
       </c>
       <c r="K57">
-        <v>0.921011478149923</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L57">
-        <v>0.294825227605076</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M57">
-        <v>0.66171307823978</v>
+        <v>0.1536</v>
       </c>
       <c r="N57">
-        <v>0.66171307823978</v>
+        <v>0.2</v>
       </c>
       <c r="O57">
-        <v>0.382118437118437</v>
+        <v>0.137990459180758</v>
       </c>
       <c r="P57">
-        <v>0.382118437118437</v>
+        <v>0.511785793579998</v>
       </c>
       <c r="Q57">
-        <v>0.00796990333212614</v>
+        <v>0.1</v>
       </c>
       <c r="R57">
-        <v>0.1536</v>
+        <v>9.92</v>
       </c>
       <c r="S57">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T57">
-        <v>0.137990459180758</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>0.511785793579998</v>
+        <v>0.2</v>
       </c>
       <c r="V57">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W57">
-        <v>9.92</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X57">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y57">
-        <v>3</v>
-      </c>
-      <c r="Z57">
-        <v>0.2</v>
-      </c>
-      <c r="AA57">
-        <v>0.3</v>
-      </c>
-      <c r="AB57">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC57">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD57">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <v>214.169</v>
@@ -5776,90 +4909,75 @@
         <v>433165.204738251</v>
       </c>
       <c r="D58">
-        <v>0.7529</v>
+        <v>0.2067043</v>
       </c>
       <c r="E58">
-        <v>0.121</v>
+        <v>0.895865237366003</v>
       </c>
       <c r="F58">
-        <v>0.865438596491228</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G58">
-        <v>0.2067043</v>
+        <v>1.16309794839315</v>
       </c>
       <c r="H58">
-        <v>0.895865237366003</v>
+        <v>0.233460491481027</v>
       </c>
       <c r="I58">
-        <v>0.0265938129353891</v>
+        <v>0.594974157700887</v>
       </c>
       <c r="J58">
-        <v>184.136684529347</v>
+        <v>0.594974157700887</v>
       </c>
       <c r="K58">
-        <v>1.16309794839315</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="L58">
-        <v>0.233460491481027</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="M58">
-        <v>0.594974157700887</v>
+        <v>0.1914</v>
       </c>
       <c r="N58">
-        <v>0.594974157700887</v>
+        <v>0.2</v>
       </c>
       <c r="O58">
-        <v>0.339605685126709</v>
+        <v>0.151640680968814</v>
       </c>
       <c r="P58">
-        <v>0.339605685126709</v>
+        <v>0.883227933181237</v>
       </c>
       <c r="Q58">
-        <v>0.0146069059579849</v>
+        <v>0.1</v>
       </c>
       <c r="R58">
-        <v>0.1914</v>
+        <v>14.25</v>
       </c>
       <c r="S58">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T58">
-        <v>0.151640680968814</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>0.883227933181237</v>
+        <v>0.2</v>
       </c>
       <c r="V58">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W58">
-        <v>14.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X58">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y58">
-        <v>3</v>
-      </c>
-      <c r="Z58">
-        <v>0.2</v>
-      </c>
-      <c r="AA58">
-        <v>0.3</v>
-      </c>
-      <c r="AB58">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC58">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD58">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B59">
         <v>166.109</v>
@@ -5868,84 +4986,69 @@
         <v>469105.617677937</v>
       </c>
       <c r="D59">
-        <v>0.7041</v>
+        <v>0.3809529</v>
       </c>
       <c r="E59">
-        <v>0.24</v>
+        <v>0.791525423728814</v>
       </c>
       <c r="F59">
-        <v>0.56153481762198</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G59">
-        <v>0.3809529</v>
+        <v>0.902096181565201</v>
       </c>
       <c r="H59">
-        <v>0.791525423728814</v>
+        <v>0.301007169990789</v>
       </c>
       <c r="I59">
-        <v>0.0293511534383066</v>
+        <v>0.686160742512875</v>
       </c>
       <c r="J59">
-        <v>184.136684529347</v>
+        <v>0.686160742512875</v>
       </c>
       <c r="K59">
-        <v>0.902096181565201</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="L59">
-        <v>0.301007169990789</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="M59">
-        <v>0.686160742512875</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0.686160742512875</v>
-      </c>
-      <c r="O59">
-        <v>0.407281090129695</v>
-      </c>
-      <c r="P59">
-        <v>0.407281090129695</v>
+        <v>0.2</v>
       </c>
       <c r="Q59">
-        <v>0.0446706029674507</v>
+        <v>0.117624572017593</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
+        <v>0.23</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
         <v>0.2</v>
       </c>
       <c r="V59">
-        <v>0.117624572017593</v>
+        <v>0.3</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X59">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y59">
-        <v>3</v>
-      </c>
-      <c r="Z59">
-        <v>0.2</v>
-      </c>
-      <c r="AA59">
-        <v>0.3</v>
-      </c>
-      <c r="AB59">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC59">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD59">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B60">
         <v>142.899</v>
@@ -5954,84 +5057,69 @@
         <v>808182.428935386</v>
       </c>
       <c r="D60">
-        <v>0.761</v>
+        <v>0.2932625</v>
       </c>
       <c r="E60">
-        <v>0.24</v>
+        <v>0.791525423728814</v>
       </c>
       <c r="F60">
-        <v>0.730339042292905</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G60">
-        <v>0.2932625</v>
+        <v>0.776048511817455</v>
       </c>
       <c r="H60">
-        <v>0.791525423728814</v>
+        <v>0.349897480038349</v>
       </c>
       <c r="I60">
-        <v>0.0293511534383066</v>
+        <v>0.628316940328756</v>
       </c>
       <c r="J60">
-        <v>184.136684529347</v>
+        <v>0.628316940328756</v>
       </c>
       <c r="K60">
-        <v>0.776048511817455</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="L60">
-        <v>0.349897480038349</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="M60">
-        <v>0.628316940328756</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0.628316940328756</v>
-      </c>
-      <c r="O60">
-        <v>0.407281090129695</v>
-      </c>
-      <c r="P60">
-        <v>0.407281090129695</v>
+        <v>0.2</v>
       </c>
       <c r="Q60">
-        <v>0.0280379104353258</v>
+        <v>0.143995732465961</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
+        <v>0.23</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
         <v>0.2</v>
       </c>
       <c r="V60">
-        <v>0.143995732465961</v>
+        <v>0.3</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X60">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y60">
-        <v>3</v>
-      </c>
-      <c r="Z60">
-        <v>0.2</v>
-      </c>
-      <c r="AA60">
-        <v>0.3</v>
-      </c>
-      <c r="AB60">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC60">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD60">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <v>132.64</v>
@@ -6040,84 +5128,69 @@
         <v>1050521.91485667</v>
       </c>
       <c r="D61">
-        <v>0.7206</v>
+        <v>0.2638115</v>
       </c>
       <c r="E61">
-        <v>0.24</v>
+        <v>0.791525423728814</v>
       </c>
       <c r="F61">
-        <v>0.584614041215508</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G61">
-        <v>0.2638115</v>
+        <v>0.720334464254244</v>
       </c>
       <c r="H61">
-        <v>0.791525423728814</v>
+        <v>0.376960193003619</v>
       </c>
       <c r="I61">
-        <v>0.0293511534383066</v>
+        <v>0.593796075486402</v>
       </c>
       <c r="J61">
-        <v>184.136684529347</v>
+        <v>0.593796075486402</v>
       </c>
       <c r="K61">
-        <v>0.720334464254244</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="L61">
-        <v>0.376960193003619</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="M61">
-        <v>0.593796075486402</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>0.593796075486402</v>
-      </c>
-      <c r="O61">
-        <v>0.407281090129695</v>
-      </c>
-      <c r="P61">
-        <v>0.407281090129695</v>
+        <v>0.2</v>
       </c>
       <c r="Q61">
-        <v>0.0423965506997444</v>
+        <v>0.154237106357491</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
+        <v>0.23</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
         <v>0.2</v>
       </c>
       <c r="V61">
-        <v>0.154237106357491</v>
+        <v>0.3</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X61">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y61">
-        <v>3</v>
-      </c>
-      <c r="Z61">
-        <v>0.2</v>
-      </c>
-      <c r="AA61">
-        <v>0.3</v>
-      </c>
-      <c r="AB61">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC61">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD61">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B62">
         <v>235.621</v>
@@ -6126,90 +5199,75 @@
         <v>2444446.17134412</v>
       </c>
       <c r="D62">
-        <v>0.838</v>
+        <v>0.0758104</v>
       </c>
       <c r="E62">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F62">
-        <v>0.943041497975708</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G62">
-        <v>0.0758104</v>
+        <v>1.27959836250037</v>
       </c>
       <c r="H62">
-        <v>1.0034516765286</v>
+        <v>0.212205193934327</v>
       </c>
       <c r="I62">
-        <v>0.0392761289644462</v>
+        <v>0.58379321753871</v>
       </c>
       <c r="J62">
-        <v>184.136684529347</v>
+        <v>0.58379321753871</v>
       </c>
       <c r="K62">
-        <v>1.27959836250037</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L62">
-        <v>0.212205193934327</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M62">
-        <v>0.58379321753871</v>
+        <v>0.1074</v>
       </c>
       <c r="N62">
-        <v>0.58379321753871</v>
+        <v>0.2</v>
       </c>
       <c r="O62">
-        <v>0.382118437118437</v>
+        <v>0.180309637494649</v>
       </c>
       <c r="P62">
-        <v>0.382118437118437</v>
+        <v>1.28836955320177</v>
       </c>
       <c r="Q62">
-        <v>0.00754780117709507</v>
+        <v>0.103966925918505</v>
       </c>
       <c r="R62">
-        <v>0.1074</v>
+        <v>8.49</v>
       </c>
       <c r="S62">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T62">
-        <v>0.180309637494649</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.28836955320177</v>
+        <v>0.2</v>
       </c>
       <c r="V62">
-        <v>0.103966925918505</v>
+        <v>0.3</v>
       </c>
       <c r="W62">
-        <v>8.49</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X62">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y62">
-        <v>3</v>
-      </c>
-      <c r="Z62">
-        <v>0.2</v>
-      </c>
-      <c r="AA62">
-        <v>0.3</v>
-      </c>
-      <c r="AB62">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC62">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B63">
         <v>182.388</v>
@@ -6218,90 +5276,75 @@
         <v>2854701.4824351</v>
       </c>
       <c r="D63">
-        <v>0.8558</v>
+        <v>0.2037179</v>
       </c>
       <c r="E63">
-        <v>0.206</v>
+        <v>0.886567164179105</v>
       </c>
       <c r="F63">
-        <v>0.925575349237445</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G63">
-        <v>0.2037179</v>
+        <v>0.990503334336574</v>
       </c>
       <c r="H63">
-        <v>0.886567164179105</v>
+        <v>0.274140842599294</v>
       </c>
       <c r="I63">
-        <v>0.032202580028667</v>
+        <v>0.635505299806107</v>
       </c>
       <c r="J63">
-        <v>184.136684529347</v>
+        <v>0.635505299806107</v>
       </c>
       <c r="K63">
-        <v>0.990503334336574</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="L63">
-        <v>0.274140842599294</v>
+        <v>0.446950440736166</v>
       </c>
       <c r="M63">
-        <v>0.635505299806107</v>
+        <v>0.1488</v>
       </c>
       <c r="N63">
-        <v>0.635505299806107</v>
+        <v>0.2</v>
       </c>
       <c r="O63">
-        <v>0.446950440736166</v>
+        <v>0.15864112064591</v>
       </c>
       <c r="P63">
-        <v>0.446950440736166</v>
+        <v>0.77387981822071</v>
       </c>
       <c r="Q63">
-        <v>0.00893276078907452</v>
+        <v>0.1</v>
       </c>
       <c r="R63">
-        <v>0.1488</v>
+        <v>17.58</v>
       </c>
       <c r="S63">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T63">
-        <v>0.15864112064591</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>0.77387981822071</v>
+        <v>0.2</v>
       </c>
       <c r="V63">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W63">
-        <v>17.58</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X63">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y63">
-        <v>3</v>
-      </c>
-      <c r="Z63">
-        <v>0.2</v>
-      </c>
-      <c r="AA63">
-        <v>0.3</v>
-      </c>
-      <c r="AB63">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC63">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD63">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B64">
         <v>179.092</v>
@@ -6310,90 +5353,75 @@
         <v>2055103.11595472</v>
       </c>
       <c r="D64">
-        <v>0.798</v>
+        <v>0.275423</v>
       </c>
       <c r="E64">
-        <v>0.175</v>
+        <v>1.11720698254364</v>
       </c>
       <c r="F64">
-        <v>0.742538846330442</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G64">
-        <v>0.275423</v>
+        <v>0.972603587697687</v>
       </c>
       <c r="H64">
-        <v>1.11720698254364</v>
+        <v>0.279186116632792</v>
       </c>
       <c r="I64">
-        <v>0.0348488090058342</v>
+        <v>0.589964760829172</v>
       </c>
       <c r="J64">
-        <v>184.136684529347</v>
+        <v>0.589964760829172</v>
       </c>
       <c r="K64">
-        <v>0.972603587697687</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="L64">
-        <v>0.279186116632792</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="M64">
-        <v>0.589964760829172</v>
+        <v>0.0128</v>
       </c>
       <c r="N64">
-        <v>0.589964760829172</v>
+        <v>0.2</v>
       </c>
       <c r="O64">
-        <v>0.362780034735979</v>
+        <v>0.130151706655587</v>
       </c>
       <c r="P64">
-        <v>0.362780034735979</v>
+        <v>0.460544094642627</v>
       </c>
       <c r="Q64">
-        <v>0.0270399450887149</v>
+        <v>0.1</v>
       </c>
       <c r="R64">
-        <v>0.0128</v>
+        <v>17.61</v>
       </c>
       <c r="S64">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T64">
-        <v>0.130151706655587</v>
+        <v>3</v>
       </c>
       <c r="U64">
-        <v>0.460544094642627</v>
+        <v>0.2</v>
       </c>
       <c r="V64">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W64">
-        <v>17.61</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X64">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y64">
-        <v>3</v>
-      </c>
-      <c r="Z64">
-        <v>0.2</v>
-      </c>
-      <c r="AA64">
-        <v>0.3</v>
-      </c>
-      <c r="AB64">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC64">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD64">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B65">
         <v>199.391</v>
@@ -6402,84 +5430,69 @@
         <v>183040.964516342</v>
       </c>
       <c r="D65">
-        <v>0.7282</v>
+        <v>0.212089</v>
       </c>
       <c r="E65">
-        <v>0.121</v>
+        <v>0.895865237366003</v>
       </c>
       <c r="F65">
-        <v>0.809234507897934</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G65">
-        <v>0.212089</v>
+        <v>1.08284234893032</v>
       </c>
       <c r="H65">
-        <v>0.895865237366003</v>
+        <v>0.250763575086137</v>
       </c>
       <c r="I65">
-        <v>0.0265938129353891</v>
+        <v>0.506628945908215</v>
       </c>
       <c r="J65">
-        <v>184.136684529347</v>
+        <v>0.506628945908215</v>
       </c>
       <c r="K65">
-        <v>1.08284234893032</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="L65">
-        <v>0.250763575086137</v>
+        <v>0.339605685126709</v>
       </c>
       <c r="M65">
-        <v>0.506628945908215</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>0.506628945908215</v>
-      </c>
-      <c r="O65">
-        <v>0.339605685126709</v>
-      </c>
-      <c r="P65">
-        <v>0.339605685126709</v>
+        <v>0.2</v>
       </c>
       <c r="Q65">
-        <v>0.0201525807664015</v>
+        <v>0.1</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65">
+        <v>0.23</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
         <v>0.2</v>
       </c>
       <c r="V65">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X65">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y65">
-        <v>3</v>
-      </c>
-      <c r="Z65">
-        <v>0.2</v>
-      </c>
-      <c r="AA65">
-        <v>0.3</v>
-      </c>
-      <c r="AB65">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC65">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD65">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B66">
         <v>294.404</v>
@@ -6488,90 +5501,75 @@
         <v>2678553.46348061</v>
       </c>
       <c r="D66">
-        <v>0.8621</v>
+        <v>0.060974</v>
       </c>
       <c r="E66">
-        <v>0.175</v>
+        <v>1.11720698254364</v>
       </c>
       <c r="F66">
-        <v>0.853228411042473</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G66">
-        <v>0.060974</v>
+        <v>1.59883404413681</v>
       </c>
       <c r="H66">
-        <v>1.11720698254364</v>
+        <v>0.169834648985747</v>
       </c>
       <c r="I66">
-        <v>0.0348488090058342</v>
+        <v>0.548077987002169</v>
       </c>
       <c r="J66">
-        <v>184.136684529347</v>
+        <v>0.548077987002169</v>
       </c>
       <c r="K66">
-        <v>1.59883404413681</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="L66">
-        <v>0.169834648985747</v>
+        <v>0.362780034735979</v>
       </c>
       <c r="M66">
-        <v>0.548077987002169</v>
+        <v>0.0222</v>
       </c>
       <c r="N66">
-        <v>0.548077987002169</v>
+        <v>0.2</v>
       </c>
       <c r="O66">
-        <v>0.362780034735979</v>
+        <v>0.166492927866418</v>
       </c>
       <c r="P66">
-        <v>0.362780034735979</v>
+        <v>1.45051335229715</v>
       </c>
       <c r="Q66">
-        <v>0.0161638585924912</v>
+        <v>0.106425721398091</v>
       </c>
       <c r="R66">
-        <v>0.0222</v>
+        <v>16.23</v>
       </c>
       <c r="S66">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T66">
-        <v>0.166492927866418</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.45051335229715</v>
+        <v>0.2</v>
       </c>
       <c r="V66">
-        <v>0.106425721398091</v>
+        <v>0.3</v>
       </c>
       <c r="W66">
-        <v>16.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X66">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y66">
-        <v>3</v>
-      </c>
-      <c r="Z66">
-        <v>0.2</v>
-      </c>
-      <c r="AA66">
-        <v>0.3</v>
-      </c>
-      <c r="AB66">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC66">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD66">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B67">
         <v>121.06</v>
@@ -6580,84 +5578,69 @@
         <v>288015.178598222</v>
       </c>
       <c r="D67">
-        <v>0.781</v>
+        <v>0.404718</v>
       </c>
       <c r="E67">
-        <v>0.24</v>
+        <v>0.791525423728814</v>
       </c>
       <c r="F67">
-        <v>0.925025329280648</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G67">
-        <v>0.404718</v>
+        <v>0.657446398089708</v>
       </c>
       <c r="H67">
-        <v>0.791525423728814</v>
+        <v>0.413018338014208</v>
       </c>
       <c r="I67">
-        <v>0.0293511534383066</v>
+        <v>0.523882135324561</v>
       </c>
       <c r="J67">
-        <v>184.136684529347</v>
+        <v>0.523882135324561</v>
       </c>
       <c r="K67">
-        <v>0.657446398089708</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="L67">
-        <v>0.413018338014208</v>
+        <v>0.407281090129695</v>
       </c>
       <c r="M67">
-        <v>0.523882135324561</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0.523882135324561</v>
-      </c>
-      <c r="O67">
-        <v>0.407281090129695</v>
-      </c>
-      <c r="P67">
-        <v>0.407281090129695</v>
+        <v>0.2</v>
       </c>
       <c r="Q67">
-        <v>0.00885499509063698</v>
+        <v>0.112339824144241</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67">
+        <v>0.23</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
         <v>0.2</v>
       </c>
       <c r="V67">
-        <v>0.112339824144241</v>
+        <v>0.3</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X67">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y67">
-        <v>3</v>
-      </c>
-      <c r="Z67">
-        <v>0.2</v>
-      </c>
-      <c r="AA67">
-        <v>0.3</v>
-      </c>
-      <c r="AB67">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC67">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD67">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B68">
         <v>134.968</v>
@@ -6666,90 +5649,75 @@
         <v>753363.084895201</v>
       </c>
       <c r="D68">
-        <v>0.6776</v>
+        <v>0.5002708</v>
       </c>
       <c r="E68">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F68">
-        <v>0.638461538461538</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G68">
-        <v>0.5002708</v>
+        <v>0.732977246467633</v>
       </c>
       <c r="H68">
-        <v>0.704046242774567</v>
+        <v>0.370458182680339</v>
       </c>
       <c r="I68">
-        <v>0.0402754470227417</v>
+        <v>0.59513193838165</v>
       </c>
       <c r="J68">
-        <v>184.136684529347</v>
+        <v>0.59513193838165</v>
       </c>
       <c r="K68">
-        <v>0.732977246467633</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L68">
-        <v>0.370458182680339</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M68">
-        <v>0.59513193838165</v>
+        <v>0.0794</v>
       </c>
       <c r="N68">
-        <v>0.59513193838165</v>
+        <v>0.2</v>
       </c>
       <c r="O68">
-        <v>0.41525155702608</v>
+        <v>0.189102127960899</v>
       </c>
       <c r="P68">
-        <v>0.41525155702608</v>
+        <v>0.533664244364233</v>
       </c>
       <c r="Q68">
-        <v>0.0374395623472645</v>
+        <v>0.1</v>
       </c>
       <c r="R68">
-        <v>0.0794</v>
+        <v>11.87</v>
       </c>
       <c r="S68">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T68">
-        <v>0.189102127960899</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>0.533664244364233</v>
+        <v>0.2</v>
       </c>
       <c r="V68">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W68">
-        <v>11.87</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X68">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y68">
-        <v>3</v>
-      </c>
-      <c r="Z68">
-        <v>0.2</v>
-      </c>
-      <c r="AA68">
-        <v>0.3</v>
-      </c>
-      <c r="AB68">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC68">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD68">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B69">
         <v>107.685</v>
@@ -6758,90 +5726,75 @@
         <v>518718.742502788</v>
       </c>
       <c r="D69">
-        <v>0.5699</v>
+        <v>0.5315033</v>
       </c>
       <c r="E69">
-        <v>0.221</v>
+        <v>0.881398252184769</v>
       </c>
       <c r="F69">
-        <v>0.640950302216252</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G69">
-        <v>0.5315033</v>
+        <v>0.58481013859483</v>
       </c>
       <c r="H69">
-        <v>0.881398252184769</v>
+        <v>0.464317221525746</v>
       </c>
       <c r="I69">
-        <v>0.0421751327200714</v>
+        <v>0.492333585156966</v>
       </c>
       <c r="J69">
-        <v>184.136684529347</v>
+        <v>0.492333585156966</v>
       </c>
       <c r="K69">
-        <v>0.58481013859483</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="L69">
-        <v>0.464317221525746</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="M69">
-        <v>0.492333585156966</v>
+        <v>0.0005</v>
       </c>
       <c r="N69">
-        <v>0.492333585156966</v>
+        <v>0.2</v>
       </c>
       <c r="O69">
-        <v>0.348469006721434</v>
+        <v>0.206431281028406</v>
       </c>
       <c r="P69">
-        <v>0.348469006721434</v>
+        <v>0.383215079286533</v>
       </c>
       <c r="Q69">
-        <v>0.0372565779815218</v>
+        <v>0.1</v>
       </c>
       <c r="R69">
-        <v>0.0005</v>
+        <v>23.94</v>
       </c>
       <c r="S69">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T69">
-        <v>0.206431281028406</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>0.383215079286533</v>
+        <v>0.2</v>
       </c>
       <c r="V69">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W69">
-        <v>23.94</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X69">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y69">
-        <v>3</v>
-      </c>
-      <c r="Z69">
-        <v>0.2</v>
-      </c>
-      <c r="AA69">
-        <v>0.3</v>
-      </c>
-      <c r="AB69">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC69">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD69">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B70">
         <v>106.487</v>
@@ -6850,81 +5803,66 @@
         <v>93087.5521866449</v>
       </c>
       <c r="D70">
-        <v>0.9238</v>
+        <v>0.3257474</v>
       </c>
       <c r="E70">
-        <v>0.184</v>
+        <v>0.847161572052402</v>
       </c>
       <c r="F70">
-        <v>0.995921142080218</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G70">
-        <v>0.3257474</v>
+        <v>0.578304102043439</v>
       </c>
       <c r="H70">
-        <v>0.847161572052402</v>
+        <v>0.469540882924676</v>
       </c>
       <c r="I70">
-        <v>0.034143933636835</v>
+        <v>0.566535444651524</v>
       </c>
       <c r="J70">
-        <v>184.136684529347</v>
+        <v>0.566535444651524</v>
       </c>
       <c r="K70">
-        <v>0.578304102043439</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="L70">
-        <v>0.469540882924676</v>
+        <v>0.399510616283393</v>
       </c>
       <c r="M70">
-        <v>0.566535444651524</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>0.566535444651524</v>
-      </c>
-      <c r="O70">
-        <v>0.399510616283393</v>
-      </c>
-      <c r="P70">
-        <v>0.399510616283393</v>
+        <v>0.2</v>
       </c>
       <c r="Q70">
-        <v>0.00210811906111364</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
+        <v>0.104838211406474</v>
       </c>
       <c r="S70">
+        <v>0.23</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
         <v>0.2</v>
       </c>
       <c r="V70">
-        <v>0.104838211406474</v>
+        <v>0.3</v>
+      </c>
+      <c r="W70">
+        <v>0.333333333333333</v>
       </c>
       <c r="X70">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y70">
-        <v>3</v>
-      </c>
-      <c r="Z70">
-        <v>0.2</v>
-      </c>
-      <c r="AA70">
-        <v>0.3</v>
-      </c>
-      <c r="AB70">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC70">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD70">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B71">
         <v>142.671</v>
@@ -6933,84 +5871,69 @@
         <v>760233.378851882</v>
       </c>
       <c r="D71">
-        <v>0.7866</v>
+        <v>0.4067276</v>
       </c>
       <c r="E71">
-        <v>0.346</v>
+        <v>0.8</v>
       </c>
       <c r="F71">
-        <v>0.923472474289171</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G71">
-        <v>0.4067276</v>
+        <v>0.774810301188309</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>0.350456645008446</v>
       </c>
       <c r="I71">
-        <v>0.0325680981399525</v>
+        <v>0.603894799228239</v>
       </c>
       <c r="J71">
-        <v>184.136684529347</v>
+        <v>0.603894799228239</v>
       </c>
       <c r="K71">
-        <v>0.774810301188309</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="L71">
-        <v>0.350456645008446</v>
+        <v>0.403793944470449</v>
       </c>
       <c r="M71">
-        <v>0.603894799228239</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>0.603894799228239</v>
-      </c>
-      <c r="O71">
-        <v>0.403793944470449</v>
-      </c>
-      <c r="P71">
-        <v>0.403793944470449</v>
+        <v>0.2</v>
       </c>
       <c r="Q71">
-        <v>0.00915653967969259</v>
+        <v>0.1</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
+        <v>0.23</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
         <v>0.2</v>
       </c>
       <c r="V71">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W71">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X71">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y71">
-        <v>3</v>
-      </c>
-      <c r="Z71">
-        <v>0.2</v>
-      </c>
-      <c r="AA71">
-        <v>0.3</v>
-      </c>
-      <c r="AB71">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC71">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD71">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B72">
         <v>191.36</v>
@@ -7019,90 +5942,75 @@
         <v>1424914.17073343</v>
       </c>
       <c r="D72">
-        <v>0.6623</v>
+        <v>0.3198151</v>
       </c>
       <c r="E72">
-        <v>0.221</v>
+        <v>0.881398252184769</v>
       </c>
       <c r="F72">
-        <v>0.796332987388747</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G72">
-        <v>0.3198151</v>
+        <v>1.03922800874316</v>
       </c>
       <c r="H72">
-        <v>0.881398252184769</v>
+        <v>0.26128762541806</v>
       </c>
       <c r="I72">
-        <v>0.0421751327200714</v>
+        <v>0.554653565394186</v>
       </c>
       <c r="J72">
-        <v>184.136684529347</v>
+        <v>0.554653565394186</v>
       </c>
       <c r="K72">
-        <v>1.03922800874316</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="L72">
-        <v>0.26128762541806</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="M72">
-        <v>0.554653565394186</v>
+        <v>0.01</v>
       </c>
       <c r="N72">
-        <v>0.554653565394186</v>
+        <v>0.2</v>
       </c>
       <c r="O72">
-        <v>0.348469006721434</v>
+        <v>0.198441372337534</v>
       </c>
       <c r="P72">
-        <v>0.348469006721434</v>
+        <v>0.762152597581064</v>
       </c>
       <c r="Q72">
-        <v>0.0220459737327498</v>
+        <v>0.127583396548576</v>
       </c>
       <c r="R72">
-        <v>0.01</v>
+        <v>6.51</v>
       </c>
       <c r="S72">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T72">
-        <v>0.198441372337534</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>0.762152597581064</v>
+        <v>0.2</v>
       </c>
       <c r="V72">
-        <v>0.127583396548576</v>
+        <v>0.3</v>
       </c>
       <c r="W72">
-        <v>6.51</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X72">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y72">
-        <v>3</v>
-      </c>
-      <c r="Z72">
-        <v>0.2</v>
-      </c>
-      <c r="AA72">
-        <v>0.3</v>
-      </c>
-      <c r="AB72">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC72">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD72">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B73">
         <v>141.614</v>
@@ -7111,84 +6019,69 @@
         <v>407424.6404592</v>
       </c>
       <c r="D73">
-        <v>0.9116</v>
+        <v>0.4327932</v>
       </c>
       <c r="E73">
-        <v>0.251</v>
+        <v>0.704046242774567</v>
       </c>
       <c r="F73">
-        <v>0.926998670016255</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G73">
-        <v>0.4327932</v>
+        <v>0.769070000157574</v>
       </c>
       <c r="H73">
-        <v>0.704046242774567</v>
+        <v>0.35307243634104</v>
       </c>
       <c r="I73">
-        <v>0.0402754470227417</v>
+        <v>0.612978966276617</v>
       </c>
       <c r="J73">
-        <v>184.136684529347</v>
+        <v>0.612978966276617</v>
       </c>
       <c r="K73">
-        <v>0.769070000157574</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="L73">
-        <v>0.35307243634104</v>
+        <v>0.41525155702608</v>
       </c>
       <c r="M73">
-        <v>0.612978966276617</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>0.612978966276617</v>
-      </c>
-      <c r="O73">
-        <v>0.41525155702608</v>
-      </c>
-      <c r="P73">
-        <v>0.41525155702608</v>
+        <v>0.2</v>
       </c>
       <c r="Q73">
-        <v>0.00916689728959405</v>
+        <v>0.1</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73">
+        <v>0.23</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
         <v>0.2</v>
       </c>
       <c r="V73">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X73">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y73">
-        <v>3</v>
-      </c>
-      <c r="Z73">
-        <v>0.2</v>
-      </c>
-      <c r="AA73">
-        <v>0.3</v>
-      </c>
-      <c r="AB73">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC73">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD73">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B74">
         <v>113.736</v>
@@ -7197,90 +6090,75 @@
         <v>784135.419521753</v>
       </c>
       <c r="D74">
-        <v>0.5848</v>
+        <v>0.4847439</v>
       </c>
       <c r="E74">
-        <v>0.221</v>
+        <v>0.881398252184769</v>
       </c>
       <c r="F74">
-        <v>0.762667607621736</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G74">
-        <v>0.4847439</v>
+        <v>0.617671597002569</v>
       </c>
       <c r="H74">
-        <v>0.881398252184769</v>
+        <v>0.439614545966097</v>
       </c>
       <c r="I74">
-        <v>0.0421751327200714</v>
+        <v>0.595014685694195</v>
       </c>
       <c r="J74">
-        <v>184.136684529347</v>
+        <v>0.595014685694195</v>
       </c>
       <c r="K74">
-        <v>0.617671597002569</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="L74">
-        <v>0.439614545966097</v>
+        <v>0.348469006721434</v>
       </c>
       <c r="M74">
-        <v>0.595014685694195</v>
+        <v>0.0746</v>
       </c>
       <c r="N74">
-        <v>0.595014685694195</v>
+        <v>0.2</v>
       </c>
       <c r="O74">
-        <v>0.348469006721434</v>
+        <v>0.209233755484781</v>
       </c>
       <c r="P74">
-        <v>0.348469006721434</v>
+        <v>0.450226435120077</v>
       </c>
       <c r="Q74">
-        <v>0.0253415196164637</v>
+        <v>0.1</v>
       </c>
       <c r="R74">
-        <v>0.0746</v>
+        <v>7.14</v>
       </c>
       <c r="S74">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T74">
-        <v>0.209233755484781</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>0.450226435120077</v>
+        <v>0.2</v>
       </c>
       <c r="V74">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W74">
-        <v>7.14</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X74">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y74">
-        <v>3</v>
-      </c>
-      <c r="Z74">
-        <v>0.2</v>
-      </c>
-      <c r="AA74">
-        <v>0.3</v>
-      </c>
-      <c r="AB74">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC74">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD74">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B75">
         <v>109.666</v>
@@ -7289,84 +6167,69 @@
         <v>739823.241271958</v>
       </c>
       <c r="D75">
-        <v>0.3354</v>
+        <v>0.4582355</v>
       </c>
       <c r="E75">
-        <v>0.124</v>
+        <v>0.66199649737303</v>
       </c>
       <c r="F75">
-        <v>0.166082164328657</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G75">
-        <v>0.4582355</v>
+        <v>0.595568451122632</v>
       </c>
       <c r="H75">
-        <v>0.66199649737303</v>
+        <v>0.455929823281601</v>
       </c>
       <c r="I75">
-        <v>0.00891809076634602</v>
+        <v>0.62421925110961</v>
       </c>
       <c r="J75">
-        <v>184.136684529347</v>
+        <v>0.62421925110961</v>
       </c>
       <c r="K75">
-        <v>0.595568451122632</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="L75">
-        <v>0.455929823281601</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="M75">
-        <v>0.62421925110961</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>0.62421925110961</v>
-      </c>
-      <c r="O75">
-        <v>0.238984286945568</v>
-      </c>
-      <c r="P75">
-        <v>0.238984286945568</v>
+        <v>0.2</v>
       </c>
       <c r="Q75">
-        <v>0.083465840357942</v>
+        <v>0.1</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75">
+        <v>0.23</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
         <v>0.2</v>
       </c>
       <c r="V75">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X75">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y75">
-        <v>3</v>
-      </c>
-      <c r="Z75">
-        <v>0.2</v>
-      </c>
-      <c r="AA75">
-        <v>0.3</v>
-      </c>
-      <c r="AB75">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC75">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD75">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B76">
         <v>139.481</v>
@@ -7375,84 +6238,69 @@
         <v>457632.980184378</v>
       </c>
       <c r="D76">
-        <v>0.8654</v>
+        <v>0.4184303</v>
       </c>
       <c r="E76">
-        <v>0.21</v>
+        <v>0.821276595744681</v>
       </c>
       <c r="F76">
-        <v>0.897954271961492</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G76">
-        <v>0.4184303</v>
+        <v>0.757486213877007</v>
       </c>
       <c r="H76">
-        <v>0.821276595744681</v>
+        <v>0.358471763179214</v>
       </c>
       <c r="I76">
-        <v>0.0345634443107367</v>
+        <v>0.561360301890219</v>
       </c>
       <c r="J76">
-        <v>184.136684529347</v>
+        <v>0.561360301890219</v>
       </c>
       <c r="K76">
-        <v>0.757486213877007</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="L76">
-        <v>0.358471763179214</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="M76">
-        <v>0.561360301890219</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>0.561360301890219</v>
-      </c>
-      <c r="O76">
-        <v>0.388003116567215</v>
-      </c>
-      <c r="P76">
-        <v>0.388003116567215</v>
+        <v>0.2</v>
       </c>
       <c r="Q76">
-        <v>0.0117563924274772</v>
+        <v>0.1</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76">
+        <v>0.23</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
         <v>0.2</v>
       </c>
       <c r="V76">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X76">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y76">
-        <v>3</v>
-      </c>
-      <c r="Z76">
-        <v>0.2</v>
-      </c>
-      <c r="AA76">
-        <v>0.3</v>
-      </c>
-      <c r="AB76">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC76">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD76">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B77">
         <v>141.879</v>
@@ -7461,81 +6309,66 @@
         <v>573919.951416108</v>
       </c>
       <c r="D77">
-        <v>0.687</v>
+        <v>0.3600577</v>
       </c>
       <c r="E77">
-        <v>0.21</v>
+        <v>0.821276595744681</v>
       </c>
       <c r="F77">
-        <v>0.838783518639634</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G77">
-        <v>0.3600577</v>
+        <v>0.770509148476537</v>
       </c>
       <c r="H77">
-        <v>0.821276595744681</v>
+        <v>0.352412971616659</v>
       </c>
       <c r="I77">
-        <v>0.0345634443107367</v>
+        <v>0.57325688846045</v>
       </c>
       <c r="J77">
-        <v>184.136684529347</v>
+        <v>0.57325688846045</v>
       </c>
       <c r="K77">
-        <v>0.770509148476537</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="L77">
-        <v>0.352412971616659</v>
+        <v>0.388003116567215</v>
       </c>
       <c r="M77">
-        <v>0.57325688846045</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>0.57325688846045</v>
-      </c>
-      <c r="O77">
-        <v>0.388003116567215</v>
-      </c>
-      <c r="P77">
-        <v>0.388003116567215</v>
+        <v>0.2</v>
       </c>
       <c r="Q77">
-        <v>0.0175712105077999</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S77">
+        <v>0.23</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
         <v>0.2</v>
       </c>
       <c r="V77">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="W77">
+        <v>0.333333333333333</v>
       </c>
       <c r="X77">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y77">
-        <v>3</v>
-      </c>
-      <c r="Z77">
-        <v>0.2</v>
-      </c>
-      <c r="AA77">
-        <v>0.3</v>
-      </c>
-      <c r="AB77">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC77">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD77">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B78">
         <v>190.392</v>
@@ -7544,90 +6377,75 @@
         <v>1318604.09835682</v>
       </c>
       <c r="D78">
-        <v>0.8094</v>
+        <v>0.1655709</v>
       </c>
       <c r="E78">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F78">
-        <v>0.923573111070846</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G78">
-        <v>0.1655709</v>
+        <v>1.03397104431766</v>
       </c>
       <c r="H78">
-        <v>1.0034516765286</v>
+        <v>0.262616076305727</v>
       </c>
       <c r="I78">
-        <v>0.0392761289644462</v>
+        <v>0.620284699014746</v>
       </c>
       <c r="J78">
-        <v>184.136684529347</v>
+        <v>0.620284699014746</v>
       </c>
       <c r="K78">
-        <v>1.03397104431766</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L78">
-        <v>0.262616076305727</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M78">
-        <v>0.620284699014746</v>
+        <v>0.1191</v>
       </c>
       <c r="N78">
-        <v>0.620284699014746</v>
+        <v>0.2</v>
       </c>
       <c r="O78">
-        <v>0.382118437118437</v>
+        <v>0.150902424084879</v>
       </c>
       <c r="P78">
-        <v>0.382118437118437</v>
+        <v>0.757961500640875</v>
       </c>
       <c r="Q78">
-        <v>0.00945640772384105</v>
+        <v>0.1</v>
       </c>
       <c r="R78">
-        <v>0.1191</v>
+        <v>10.72</v>
       </c>
       <c r="S78">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T78">
-        <v>0.150902424084879</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>0.757961500640875</v>
+        <v>0.2</v>
       </c>
       <c r="V78">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W78">
-        <v>10.72</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X78">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y78">
-        <v>3</v>
-      </c>
-      <c r="Z78">
-        <v>0.2</v>
-      </c>
-      <c r="AA78">
-        <v>0.3</v>
-      </c>
-      <c r="AB78">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC78">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD78">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B79">
         <v>123.225</v>
@@ -7636,84 +6454,69 @@
         <v>376099.907127143</v>
       </c>
       <c r="D79">
-        <v>0.1174</v>
+        <v>0.2861021</v>
       </c>
       <c r="E79">
-        <v>0.124</v>
+        <v>0.66199649737303</v>
       </c>
       <c r="F79">
-        <v>0.74356495468278</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G79">
-        <v>0.2861021</v>
+        <v>0.669203968318224</v>
       </c>
       <c r="H79">
-        <v>0.66199649737303</v>
+        <v>0.405761817812944</v>
       </c>
       <c r="I79">
-        <v>0.00891809076634602</v>
+        <v>0.682250889688753</v>
       </c>
       <c r="J79">
-        <v>184.136684529347</v>
+        <v>0.682250889688753</v>
       </c>
       <c r="K79">
-        <v>0.669203968318224</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="L79">
-        <v>0.405761817812944</v>
+        <v>0.238984286945568</v>
       </c>
       <c r="M79">
-        <v>0.682250889688753</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>0.682250889688753</v>
-      </c>
-      <c r="O79">
-        <v>0.238984286945568</v>
-      </c>
-      <c r="P79">
-        <v>0.238984286945568</v>
+        <v>0.2</v>
       </c>
       <c r="Q79">
-        <v>0.0259750635195488</v>
+        <v>0.128247562934364</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79">
+        <v>0.23</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
         <v>0.2</v>
       </c>
       <c r="V79">
-        <v>0.128247562934364</v>
+        <v>0.3</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X79">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y79">
-        <v>3</v>
-      </c>
-      <c r="Z79">
-        <v>0.2</v>
-      </c>
-      <c r="AA79">
-        <v>0.3</v>
-      </c>
-      <c r="AB79">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC79">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD79">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B80">
         <v>200.64</v>
@@ -7722,84 +6525,69 @@
         <v>784152.05342662</v>
       </c>
       <c r="D80">
-        <v>0.798</v>
+        <v>0.1599814</v>
       </c>
       <c r="E80">
-        <v>0.099</v>
+        <v>1.0034516765286</v>
       </c>
       <c r="F80">
-        <v>0.900627615062761</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G80">
-        <v>0.1599814</v>
+        <v>1.08962535364876</v>
       </c>
       <c r="H80">
-        <v>1.0034516765286</v>
+        <v>0.249202551834131</v>
       </c>
       <c r="I80">
-        <v>0.0392761289644462</v>
+        <v>0.617369308151065</v>
       </c>
       <c r="J80">
-        <v>184.136684529347</v>
+        <v>0.617369308151065</v>
       </c>
       <c r="K80">
-        <v>1.08962535364876</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="L80">
-        <v>0.249202551834131</v>
+        <v>0.382118437118437</v>
       </c>
       <c r="M80">
-        <v>0.617369308151065</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>0.617369308151065</v>
-      </c>
-      <c r="O80">
-        <v>0.382118437118437</v>
-      </c>
-      <c r="P80">
-        <v>0.382118437118437</v>
+        <v>0.2</v>
       </c>
       <c r="Q80">
-        <v>0.0117058968116312</v>
+        <v>0.1</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
+        <v>0.23</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
         <v>0.2</v>
       </c>
       <c r="V80">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X80">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y80">
-        <v>3</v>
-      </c>
-      <c r="Z80">
-        <v>0.2</v>
-      </c>
-      <c r="AA80">
-        <v>0.3</v>
-      </c>
-      <c r="AB80">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC80">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD80">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B81">
         <v>110.122</v>
@@ -7808,84 +6596,69 @@
         <v>987514.071557479</v>
       </c>
       <c r="D81">
-        <v>0.4254</v>
+        <v>0.543604</v>
       </c>
       <c r="E81">
-        <v>0.276</v>
+        <v>0.759818731117825</v>
       </c>
       <c r="F81">
-        <v>0.772567182901529</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G81">
-        <v>0.543604</v>
+        <v>0.598044872380925</v>
       </c>
       <c r="H81">
-        <v>0.759818731117825</v>
+        <v>0.454041880823087</v>
       </c>
       <c r="I81">
-        <v>0.0264795816823174</v>
+        <v>0.576351329607065</v>
       </c>
       <c r="J81">
-        <v>184.136684529347</v>
+        <v>0.576351329607065</v>
       </c>
       <c r="K81">
-        <v>0.598044872380925</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="L81">
-        <v>0.454041880823087</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="M81">
-        <v>0.576351329607065</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>0.576351329607065</v>
-      </c>
-      <c r="O81">
-        <v>0.351464372989876</v>
-      </c>
-      <c r="P81">
-        <v>0.351464372989876</v>
+        <v>0.2</v>
       </c>
       <c r="Q81">
-        <v>0.023766144501083</v>
+        <v>0.1</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81">
+        <v>0.23</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
         <v>0.2</v>
       </c>
       <c r="V81">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X81">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y81">
-        <v>3</v>
-      </c>
-      <c r="Z81">
-        <v>0.2</v>
-      </c>
-      <c r="AA81">
-        <v>0.3</v>
-      </c>
-      <c r="AB81">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC81">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD81">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B82">
         <v>168.131</v>
@@ -7894,90 +6667,75 @@
         <v>1841096.51798489</v>
       </c>
       <c r="D82">
-        <v>0.6144</v>
+        <v>0.3202876</v>
       </c>
       <c r="E82">
-        <v>0.276</v>
+        <v>0.759818731117825</v>
       </c>
       <c r="F82">
-        <v>0.762267879309908</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G82">
-        <v>0.3202876</v>
+        <v>0.913077154776314</v>
       </c>
       <c r="H82">
-        <v>0.759818731117825</v>
+        <v>0.297387156443488</v>
       </c>
       <c r="I82">
-        <v>0.0264795816823174</v>
+        <v>0.547529317572646</v>
       </c>
       <c r="J82">
-        <v>184.136684529347</v>
+        <v>0.547529317572646</v>
       </c>
       <c r="K82">
-        <v>0.913077154776314</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="L82">
-        <v>0.297387156443488</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="M82">
-        <v>0.547529317572646</v>
+        <v>0.0431</v>
       </c>
       <c r="N82">
-        <v>0.547529317572646</v>
+        <v>0.2</v>
       </c>
       <c r="O82">
-        <v>0.351464372989876</v>
+        <v>0.227758768190175</v>
       </c>
       <c r="P82">
-        <v>0.351464372989876</v>
+        <v>0.772239171754867</v>
       </c>
       <c r="Q82">
-        <v>0.0247824387977089</v>
+        <v>0.129130326981283</v>
       </c>
       <c r="R82">
-        <v>0.0431</v>
+        <v>15.31</v>
       </c>
       <c r="S82">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="T82">
-        <v>0.227758768190175</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>0.772239171754867</v>
+        <v>0.2</v>
       </c>
       <c r="V82">
-        <v>0.129130326981283</v>
+        <v>0.3</v>
       </c>
       <c r="W82">
-        <v>15.31</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X82">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y82">
-        <v>3</v>
-      </c>
-      <c r="Z82">
-        <v>0.2</v>
-      </c>
-      <c r="AA82">
-        <v>0.3</v>
-      </c>
-      <c r="AB82">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC82">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD82">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B83">
         <v>128.98</v>
@@ -7986,78 +6744,63 @@
         <v>603939.320198821</v>
       </c>
       <c r="D83">
-        <v>0.6498</v>
+        <v>0.4483873</v>
       </c>
       <c r="E83">
-        <v>0.276</v>
+        <v>0.759818731117825</v>
       </c>
       <c r="F83">
-        <v>0.678549787921632</v>
+        <v>184.136684529347</v>
       </c>
       <c r="G83">
-        <v>0.4483873</v>
+        <v>0.700457925207422</v>
       </c>
       <c r="H83">
-        <v>0.759818731117825</v>
+        <v>0.38765700108544</v>
       </c>
       <c r="I83">
-        <v>0.0264795816823174</v>
+        <v>0.469382331777597</v>
       </c>
       <c r="J83">
-        <v>184.136684529347</v>
+        <v>0.469382331777597</v>
       </c>
       <c r="K83">
-        <v>0.700457925207422</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="L83">
-        <v>0.38765700108544</v>
+        <v>0.351464372989876</v>
       </c>
       <c r="M83">
-        <v>0.469382331777597</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>0.469382331777597</v>
-      </c>
-      <c r="O83">
-        <v>0.351464372989876</v>
-      </c>
-      <c r="P83">
-        <v>0.351464372989876</v>
+        <v>0.2</v>
       </c>
       <c r="Q83">
-        <v>0.0330434069345763</v>
+        <v>0.1</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
+        <v>0.23</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>0.2</v>
       </c>
       <c r="V83">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="X83">
-        <v>0.23</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y83">
-        <v>3</v>
-      </c>
-      <c r="Z83">
-        <v>0.2</v>
-      </c>
-      <c r="AA83">
-        <v>0.3</v>
-      </c>
-      <c r="AB83">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AC83">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AD83">
         <v>1.5</v>
       </c>
     </row>

--- a/all_data_compiled.xlsx
+++ b/all_data_compiled.xlsx
@@ -34,7 +34,7 @@
     <t>Access to early warning</t>
   </si>
   <si>
-    <t>National GDP per capita (PPP USD)</t>
+    <t>National GDP per capita</t>
   </si>
   <si>
     <t xml:space="preserve"> Average income of the province</t>

--- a/all_data_compiled.xlsx
+++ b/all_data_compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>description</t>
   </si>
@@ -55,19 +55,16 @@
     <t>Social protection for non-poor people</t>
   </si>
   <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Exposure bias</t>
-  </si>
-  <si>
-    <t>Vulnerability without early warning</t>
-  </si>
-  <si>
-    <t>Asset-vulnerability bias</t>
-  </si>
-  <si>
-    <t>Asset vulnerability (shared sector)</t>
+    <t>Exposure, poor people</t>
+  </si>
+  <si>
+    <t>Exposure, non-poor people</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (poor people)</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (non-poor people)</t>
   </si>
   <si>
     <t xml:space="preserve"> Hazard (protection)</t>
@@ -127,19 +124,16 @@
     <t>social_r</t>
   </si>
   <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>v_s</t>
+    <t>fap</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>v_p</t>
+  </si>
+  <si>
+    <t>v_r</t>
   </si>
   <si>
     <t>protection</t>
@@ -764,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,95 +837,89 @@
       <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B4">
         <v>133.688</v>
@@ -967,48 +955,45 @@
         <v>0.40868266233886</v>
       </c>
       <c r="M4">
-        <v>0.1641</v>
+        <v>0.188715</v>
       </c>
       <c r="N4">
-        <v>0.2</v>
+        <v>0.149419361744008</v>
       </c>
       <c r="O4">
-        <v>0.123542760343149</v>
+        <v>0.152463285068896</v>
       </c>
       <c r="P4">
-        <v>0.234093237397461</v>
+        <v>0.1</v>
       </c>
       <c r="Q4">
-        <v>0.1</v>
+        <v>10.57</v>
       </c>
       <c r="R4">
-        <v>10.57</v>
+        <v>0.23</v>
       </c>
       <c r="S4">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V4">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W4">
         <v>0.333333333333333</v>
       </c>
       <c r="X4">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>179.014</v>
@@ -1044,48 +1029,45 @@
         <v>0.388003116567215</v>
       </c>
       <c r="M5">
-        <v>0.318</v>
+        <v>0.3657</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.29268438307697</v>
       </c>
       <c r="O5">
-        <v>0.190246526288616</v>
+        <v>0.363700034477779</v>
       </c>
       <c r="P5">
-        <v>0.911730224845332</v>
+        <v>0.1</v>
       </c>
       <c r="Q5">
-        <v>0.1</v>
+        <v>9.41</v>
       </c>
       <c r="R5">
-        <v>9.41</v>
+        <v>0.23</v>
       </c>
       <c r="S5">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V5">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W5">
         <v>0.333333333333333</v>
       </c>
       <c r="X5">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>126.492</v>
@@ -1121,48 +1103,45 @@
         <v>0.388003116567215</v>
       </c>
       <c r="M6">
-        <v>0.1146</v>
+        <v>0.13179</v>
       </c>
       <c r="N6">
-        <v>0.2</v>
+        <v>0.0986823214645805</v>
       </c>
       <c r="O6">
-        <v>0.193274885113575</v>
+        <v>0.290165593367945</v>
       </c>
       <c r="P6">
-        <v>0.50131039114282</v>
+        <v>0.1</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>8.61</v>
       </c>
       <c r="R6">
-        <v>8.61</v>
+        <v>0.23</v>
       </c>
       <c r="S6">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V6">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W6">
         <v>0.333333333333333</v>
       </c>
       <c r="X6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>119.962</v>
@@ -1201,39 +1180,42 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.389419132506782</v>
+      </c>
+      <c r="P7">
+        <v>0.135089223583236</v>
       </c>
       <c r="Q7">
-        <v>0.135089223583236</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S7">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V7">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7">
         <v>0.333333333333333</v>
       </c>
       <c r="X7">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>158.629</v>
@@ -1272,39 +1254,42 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.339851966509808</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S8">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V8">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W8">
         <v>0.333333333333333</v>
       </c>
       <c r="X8">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>124.667</v>
@@ -1343,39 +1328,42 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.362657249688178</v>
+      </c>
+      <c r="P9">
+        <v>0.125227041089264</v>
       </c>
       <c r="Q9">
-        <v>0.125227041089264</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S9">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V9">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W9">
         <v>0.333333333333333</v>
       </c>
       <c r="X9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>158.732</v>
@@ -1411,48 +1399,45 @@
         <v>0.40868266233886</v>
       </c>
       <c r="M10">
-        <v>0.004</v>
+        <v>0.0046</v>
       </c>
       <c r="N10">
-        <v>0.2</v>
+        <v>0.00304693688066755</v>
       </c>
       <c r="O10">
-        <v>0.114280955450113</v>
+        <v>0.131939161763218</v>
       </c>
       <c r="P10">
-        <v>0.154515739245927</v>
+        <v>0.1</v>
       </c>
       <c r="Q10">
-        <v>0.1</v>
+        <v>6.51</v>
       </c>
       <c r="R10">
-        <v>6.51</v>
+        <v>0.23</v>
       </c>
       <c r="S10">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V10">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W10">
         <v>0.333333333333333</v>
       </c>
       <c r="X10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>175.235</v>
@@ -1491,39 +1476,42 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.188758185279946</v>
+      </c>
+      <c r="P11">
+        <v>0.1</v>
       </c>
       <c r="Q11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S11">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V11">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W11">
         <v>0.333333333333333</v>
       </c>
       <c r="X11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>134.8675</v>
@@ -1562,39 +1550,42 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.379713214478772</v>
+      </c>
+      <c r="P12">
+        <v>0.109018519019815</v>
       </c>
       <c r="Q12">
-        <v>0.109018519019815</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S12">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V12">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W12">
         <v>0.333333333333333</v>
       </c>
       <c r="X12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>277.019</v>
@@ -1633,39 +1624,42 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.423254612246285</v>
+      </c>
+      <c r="P13">
+        <v>0.104698863866378</v>
       </c>
       <c r="Q13">
-        <v>0.104698863866378</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S13">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V13">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W13">
         <v>0.333333333333333</v>
       </c>
       <c r="X13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>316.686</v>
@@ -1704,36 +1698,39 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2</v>
-      </c>
-      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.215076821856866</v>
+      </c>
+      <c r="P14">
         <v>0.1</v>
       </c>
+      <c r="R14">
+        <v>0.23</v>
+      </c>
       <c r="S14">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V14">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W14">
         <v>0.333333333333333</v>
       </c>
       <c r="X14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>219.272</v>
@@ -1769,48 +1766,45 @@
         <v>0.362780034735979</v>
       </c>
       <c r="M15">
-        <v>0.0023</v>
+        <v>0.002645</v>
       </c>
       <c r="N15">
-        <v>0.2</v>
+        <v>0.00221888963667484</v>
       </c>
       <c r="O15">
-        <v>0.135340971531749</v>
+        <v>0.230356790840862</v>
       </c>
       <c r="P15">
-        <v>0.702047711300956</v>
+        <v>0.1</v>
       </c>
       <c r="Q15">
-        <v>0.1</v>
+        <v>7.73</v>
       </c>
       <c r="R15">
-        <v>7.73</v>
+        <v>0.23</v>
       </c>
       <c r="S15">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V15">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W15">
         <v>0.333333333333333</v>
       </c>
       <c r="X15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>303.525</v>
@@ -1849,39 +1843,42 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.421655744050761</v>
+      </c>
+      <c r="P16">
+        <v>0.108013523168847</v>
       </c>
       <c r="Q16">
-        <v>0.108013523168847</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S16">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V16">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W16">
         <v>0.333333333333333</v>
       </c>
       <c r="X16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>237.761</v>
@@ -1920,39 +1917,42 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.409498502939167</v>
+      </c>
+      <c r="P17">
+        <v>0.113920550286055</v>
       </c>
       <c r="Q17">
-        <v>0.113920550286055</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S17">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V17">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W17">
         <v>0.333333333333333</v>
       </c>
       <c r="X17">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>148.638</v>
@@ -1991,39 +1991,42 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.31356117758185</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
       </c>
       <c r="Q18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S18">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V18">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W18">
         <v>0.333333333333333</v>
       </c>
       <c r="X18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>145.749</v>
@@ -2059,48 +2062,45 @@
         <v>0.330754776712315</v>
       </c>
       <c r="M19">
-        <v>0.0239</v>
+        <v>0.027485</v>
       </c>
       <c r="N19">
-        <v>0.2</v>
+        <v>0.0204554765899223</v>
       </c>
       <c r="O19">
-        <v>0.153161084807299</v>
+        <v>0.221694207791634</v>
       </c>
       <c r="P19">
-        <v>0.447457806077575</v>
+        <v>0.1</v>
       </c>
       <c r="Q19">
-        <v>0.1</v>
+        <v>9.82</v>
       </c>
       <c r="R19">
-        <v>9.82</v>
+        <v>0.23</v>
       </c>
       <c r="S19">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V19">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W19">
         <v>0.333333333333333</v>
       </c>
       <c r="X19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>253.279</v>
@@ -2136,48 +2136,45 @@
         <v>0.382118437118437</v>
       </c>
       <c r="M20">
-        <v>0.0101</v>
+        <v>0.011615</v>
       </c>
       <c r="N20">
-        <v>0.2</v>
+        <v>0.00998054133918157</v>
       </c>
       <c r="O20">
-        <v>0.176900982320819</v>
+        <v>0.418673134826198</v>
       </c>
       <c r="P20">
-        <v>1.36670893136654</v>
+        <v>0.104395897258309</v>
       </c>
       <c r="Q20">
-        <v>0.104395897258309</v>
+        <v>6.51</v>
       </c>
       <c r="R20">
-        <v>6.51</v>
+        <v>0.23</v>
       </c>
       <c r="S20">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V20">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W20">
         <v>0.333333333333333</v>
       </c>
       <c r="X20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>179.424</v>
@@ -2213,48 +2210,45 @@
         <v>0.339605685126709</v>
       </c>
       <c r="M21">
-        <v>0.1017</v>
+        <v>0.116955</v>
       </c>
       <c r="N21">
-        <v>0.2</v>
+        <v>0.0979555197301289</v>
       </c>
       <c r="O21">
-        <v>0.163789618368886</v>
+        <v>0.294633115961937</v>
       </c>
       <c r="P21">
-        <v>0.798850982718373</v>
+        <v>0.1</v>
       </c>
       <c r="Q21">
-        <v>0.1</v>
+        <v>9.34</v>
       </c>
       <c r="R21">
-        <v>9.34</v>
+        <v>0.23</v>
       </c>
       <c r="S21">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V21">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W21">
         <v>0.333333333333333</v>
       </c>
       <c r="X21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>149.238</v>
@@ -2293,39 +2287,42 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.414358425287269</v>
+      </c>
+      <c r="P22">
+        <v>0.111268127867627</v>
       </c>
       <c r="Q22">
-        <v>0.111268127867627</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S22">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U22">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V22">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W22">
         <v>0.333333333333333</v>
       </c>
       <c r="X22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>152.074</v>
@@ -2361,48 +2358,45 @@
         <v>0.403793944470449</v>
       </c>
       <c r="M23">
-        <v>0.0897</v>
+        <v>0.103155</v>
       </c>
       <c r="N23">
-        <v>0.2</v>
+        <v>0.0802867368322654</v>
       </c>
       <c r="O23">
-        <v>0.196891213289496</v>
+        <v>0.338661767479629</v>
       </c>
       <c r="P23">
-        <v>0.720045104205248</v>
+        <v>0.1</v>
       </c>
       <c r="Q23">
-        <v>0.1</v>
+        <v>15.36</v>
       </c>
       <c r="R23">
-        <v>15.36</v>
+        <v>0.23</v>
       </c>
       <c r="S23">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U23">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V23">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W23">
         <v>0.333333333333333</v>
       </c>
       <c r="X23">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>156.261</v>
@@ -2441,39 +2435,42 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.211300149506622</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
       </c>
       <c r="Q24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S24">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V24">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W24">
         <v>0.333333333333333</v>
       </c>
       <c r="X24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y24">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>177.386</v>
@@ -2509,48 +2506,45 @@
         <v>0.432902672615501</v>
       </c>
       <c r="M25">
-        <v>0.1211</v>
+        <v>0.139265</v>
       </c>
       <c r="N25">
-        <v>0.2</v>
+        <v>0.114118255281751</v>
       </c>
       <c r="O25">
-        <v>0.213320830679287</v>
+        <v>0.37536961186832</v>
       </c>
       <c r="P25">
-        <v>0.759648181909913</v>
+        <v>0.13063852224195</v>
       </c>
       <c r="Q25">
-        <v>0.13063852224195</v>
+        <v>15.94</v>
       </c>
       <c r="R25">
-        <v>15.94</v>
+        <v>0.23</v>
       </c>
       <c r="S25">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V25">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W25">
         <v>0.333333333333333</v>
       </c>
       <c r="X25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>241.147</v>
@@ -2589,39 +2583,42 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.390687508315041</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
       </c>
       <c r="Q26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S26">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V26">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W26">
         <v>0.333333333333333</v>
       </c>
       <c r="X26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y26">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>282.606</v>
@@ -2660,39 +2657,42 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0.459895423958806</v>
+      </c>
+      <c r="P27">
+        <v>0.11297762957612</v>
       </c>
       <c r="Q27">
-        <v>0.11297762957612</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S27">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V27">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W27">
         <v>0.333333333333333</v>
       </c>
       <c r="X27">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>207.478</v>
@@ -2731,39 +2731,42 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.366896550573602</v>
+      </c>
+      <c r="P28">
+        <v>0.123401195342912</v>
       </c>
       <c r="Q28">
-        <v>0.123401195342912</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S28">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V28">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W28">
         <v>0.333333333333333</v>
       </c>
       <c r="X28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>137.747</v>
@@ -2802,39 +2805,42 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.288049120682868</v>
+      </c>
+      <c r="P29">
+        <v>0.1</v>
       </c>
       <c r="Q29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S29">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V29">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W29">
         <v>0.333333333333333</v>
       </c>
       <c r="X29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>156.283</v>
@@ -2870,48 +2876,45 @@
         <v>0.327049914685371</v>
       </c>
       <c r="M30">
-        <v>0.0184</v>
+        <v>0.02116</v>
       </c>
       <c r="N30">
-        <v>0.2</v>
+        <v>0.0170138257245778</v>
       </c>
       <c r="O30">
-        <v>0.179598631377796</v>
+        <v>0.306435266609834</v>
       </c>
       <c r="P30">
-        <v>0.706222727083207</v>
+        <v>0.1</v>
       </c>
       <c r="Q30">
-        <v>0.1</v>
+        <v>7.9</v>
       </c>
       <c r="R30">
-        <v>7.9</v>
+        <v>0.23</v>
       </c>
       <c r="S30">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V30">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W30">
         <v>0.333333333333333</v>
       </c>
       <c r="X30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>190.398</v>
@@ -2950,39 +2953,42 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.341160373719579</v>
+      </c>
+      <c r="P31">
+        <v>0.113389942290189</v>
       </c>
       <c r="Q31">
-        <v>0.113389942290189</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S31">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V31">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W31">
         <v>0.333333333333333</v>
       </c>
       <c r="X31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>97.289</v>
@@ -3021,39 +3027,42 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0.25072679164382</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
       </c>
       <c r="Q32">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S32">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U32">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V32">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W32">
         <v>0.333333333333333</v>
       </c>
       <c r="X32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y32">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>131195.356598692</v>
@@ -3083,36 +3092,36 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0.2</v>
-      </c>
-      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>0.191428783823967</v>
       </c>
+      <c r="R33">
+        <v>0.23</v>
+      </c>
       <c r="S33">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V33">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W33">
         <v>0.333333333333333</v>
       </c>
       <c r="X33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y33">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>130.115</v>
@@ -3151,39 +3160,42 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.249226386447578</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
       </c>
       <c r="Q34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S34">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U34">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V34">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W34">
         <v>0.333333333333333</v>
       </c>
       <c r="X34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y34">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>162.895</v>
@@ -3222,39 +3234,42 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.388146298892102</v>
+      </c>
+      <c r="P35">
+        <v>0.134735860125326</v>
       </c>
       <c r="Q35">
-        <v>0.134735860125326</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S35">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U35">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V35">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W35">
         <v>0.333333333333333</v>
       </c>
       <c r="X35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y35">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>149.062</v>
@@ -3290,48 +3305,45 @@
         <v>0.40868266233886</v>
       </c>
       <c r="M36">
-        <v>0.0571</v>
+        <v>0.065665</v>
       </c>
       <c r="N36">
-        <v>0.2</v>
+        <v>0.0507829538984966</v>
       </c>
       <c r="O36">
-        <v>0.119179611300511</v>
+        <v>0.146174762523903</v>
       </c>
       <c r="P36">
-        <v>0.226508132799018</v>
+        <v>0.1</v>
       </c>
       <c r="Q36">
-        <v>0.1</v>
+        <v>10.64</v>
       </c>
       <c r="R36">
-        <v>10.64</v>
+        <v>0.23</v>
       </c>
       <c r="S36">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V36">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W36">
         <v>0.333333333333333</v>
       </c>
       <c r="X36">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y36">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>192.382</v>
@@ -3367,48 +3379,45 @@
         <v>0.446950440736166</v>
       </c>
       <c r="M37">
-        <v>0.0599</v>
+        <v>0.068885</v>
       </c>
       <c r="N37">
-        <v>0.2</v>
+        <v>0.0589147531695343</v>
       </c>
       <c r="O37">
-        <v>0.190727718841027</v>
+        <v>0.376494276892936</v>
       </c>
       <c r="P37">
-        <v>0.973988254988496</v>
+        <v>0.11069009836215</v>
       </c>
       <c r="Q37">
-        <v>0.11069009836215</v>
+        <v>48.14</v>
       </c>
       <c r="R37">
-        <v>48.14</v>
+        <v>0.23</v>
       </c>
       <c r="S37">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U37">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V37">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W37">
         <v>0.333333333333333</v>
       </c>
       <c r="X37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y37">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>175.91</v>
@@ -3444,48 +3453,45 @@
         <v>0.446950440736166</v>
       </c>
       <c r="M38">
-        <v>0.0413</v>
+        <v>0.047495</v>
       </c>
       <c r="N38">
-        <v>0.2</v>
+        <v>0.0400049963438626</v>
       </c>
       <c r="O38">
-        <v>0.170994571605574</v>
+        <v>0.313748032009296</v>
       </c>
       <c r="P38">
-        <v>0.834842059974893</v>
+        <v>0.1</v>
       </c>
       <c r="Q38">
-        <v>0.1</v>
+        <v>27.75</v>
       </c>
       <c r="R38">
-        <v>27.75</v>
+        <v>0.23</v>
       </c>
       <c r="S38">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U38">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V38">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W38">
         <v>0.333333333333333</v>
       </c>
       <c r="X38">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y38">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>187.023</v>
@@ -3524,39 +3530,42 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.382805248991804</v>
+      </c>
+      <c r="P39">
+        <v>0.133153007241779</v>
       </c>
       <c r="Q39">
-        <v>0.133153007241779</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S39">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U39">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V39">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W39">
         <v>0.333333333333333</v>
       </c>
       <c r="X39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y39">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>169.871</v>
@@ -3592,48 +3601,45 @@
         <v>0.339605685126709</v>
       </c>
       <c r="M40">
-        <v>0.0859</v>
+        <v>0.098785</v>
       </c>
       <c r="N40">
-        <v>0.2</v>
+        <v>0.0817480828450343</v>
       </c>
       <c r="O40">
-        <v>0.154860991439121</v>
+        <v>0.257401509648132</v>
       </c>
       <c r="P40">
-        <v>0.662145562004368</v>
+        <v>0.1</v>
       </c>
       <c r="Q40">
-        <v>0.1</v>
+        <v>10.29</v>
       </c>
       <c r="R40">
-        <v>10.29</v>
+        <v>0.23</v>
       </c>
       <c r="S40">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U40">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V40">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W40">
         <v>0.333333333333333</v>
       </c>
       <c r="X40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>170.385</v>
@@ -3669,48 +3675,45 @@
         <v>0.40868266233886</v>
       </c>
       <c r="M41">
-        <v>0.0658</v>
+        <v>0.07567</v>
       </c>
       <c r="N41">
-        <v>0.2</v>
+        <v>0.0621923221479076</v>
       </c>
       <c r="O41">
-        <v>0.12560453410512</v>
+        <v>0.173222304410523</v>
       </c>
       <c r="P41">
-        <v>0.379108689384981</v>
+        <v>0.1</v>
       </c>
       <c r="Q41">
-        <v>0.1</v>
+        <v>7.5</v>
       </c>
       <c r="R41">
-        <v>7.5</v>
+        <v>0.23</v>
       </c>
       <c r="S41">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V41">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W41">
         <v>0.333333333333333</v>
       </c>
       <c r="X41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y41">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>206.399</v>
@@ -3746,48 +3749,45 @@
         <v>0.446950440736166</v>
       </c>
       <c r="M42">
-        <v>0.0183</v>
+        <v>0.021045</v>
       </c>
       <c r="N42">
-        <v>0.2</v>
+        <v>0.0176770431707038</v>
       </c>
       <c r="O42">
-        <v>0.157277107693199</v>
+        <v>0.299801918728384</v>
       </c>
       <c r="P42">
-        <v>0.906201882305776</v>
+        <v>0.1</v>
       </c>
       <c r="Q42">
-        <v>0.1</v>
+        <v>23.79</v>
       </c>
       <c r="R42">
-        <v>23.79</v>
+        <v>0.23</v>
       </c>
       <c r="S42">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V42">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W42">
         <v>0.333333333333333</v>
       </c>
       <c r="X42">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y42">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>249.092</v>
@@ -3823,48 +3823,45 @@
         <v>0.362780034735979</v>
       </c>
       <c r="M43">
-        <v>0.0031</v>
+        <v>0.003565</v>
       </c>
       <c r="N43">
-        <v>0.2</v>
+        <v>0.00306823999693611</v>
       </c>
       <c r="O43">
-        <v>0.17494307609482</v>
+        <v>0.400677709602969</v>
       </c>
       <c r="P43">
-        <v>1.29033190993967</v>
+        <v>0.105971668934738</v>
       </c>
       <c r="Q43">
-        <v>0.105971668934738</v>
+        <v>8.78</v>
       </c>
       <c r="R43">
-        <v>8.78</v>
+        <v>0.23</v>
       </c>
       <c r="S43">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V43">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W43">
         <v>0.333333333333333</v>
       </c>
       <c r="X43">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y43">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>164.672</v>
@@ -3900,48 +3897,45 @@
         <v>0.330754776712315</v>
       </c>
       <c r="M44">
-        <v>0.0106</v>
+        <v>0.01219</v>
       </c>
       <c r="N44">
-        <v>0.2</v>
+        <v>0.00906861891254617</v>
       </c>
       <c r="O44">
-        <v>0.147794884761301</v>
+        <v>0.221544883688664</v>
       </c>
       <c r="P44">
-        <v>0.499002377832455</v>
+        <v>0.1</v>
       </c>
       <c r="Q44">
-        <v>0.1</v>
+        <v>8.09</v>
       </c>
       <c r="R44">
-        <v>8.09</v>
+        <v>0.23</v>
       </c>
       <c r="S44">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U44">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V44">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W44">
         <v>0.333333333333333</v>
       </c>
       <c r="X44">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y44">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>131.981</v>
@@ -3977,48 +3971,45 @@
         <v>0.238984286945568</v>
       </c>
       <c r="M45">
-        <v>0.0506</v>
+        <v>0.05819</v>
       </c>
       <c r="N45">
-        <v>0.2</v>
+        <v>0.0292559619824276</v>
       </c>
       <c r="O45">
-        <v>0.190609444875137</v>
+        <v>0.244783044022428</v>
       </c>
       <c r="P45">
-        <v>0.284212564507382</v>
+        <v>0.1</v>
       </c>
       <c r="Q45">
-        <v>0.1</v>
+        <v>10.34</v>
       </c>
       <c r="R45">
-        <v>10.34</v>
+        <v>0.23</v>
       </c>
       <c r="S45">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U45">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V45">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W45">
         <v>0.333333333333333</v>
       </c>
       <c r="X45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y45">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>178.397</v>
@@ -4057,39 +4048,42 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.342239164554777</v>
+      </c>
+      <c r="P46">
+        <v>0.1</v>
       </c>
       <c r="Q46">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S46">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U46">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V46">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W46">
         <v>0.333333333333333</v>
       </c>
       <c r="X46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y46">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47">
         <v>140.218</v>
@@ -4125,48 +4119,45 @@
         <v>0.238984286945568</v>
       </c>
       <c r="M47">
-        <v>0.0757</v>
+        <v>0.087055</v>
       </c>
       <c r="N47">
-        <v>0.2</v>
+        <v>0.0594147543420233</v>
       </c>
       <c r="O47">
-        <v>0.187472822849751</v>
+        <v>0.28127287626786</v>
       </c>
       <c r="P47">
-        <v>0.500339473168788</v>
+        <v>0.1</v>
       </c>
       <c r="Q47">
-        <v>0.1</v>
+        <v>7.23</v>
       </c>
       <c r="R47">
-        <v>7.23</v>
+        <v>0.23</v>
       </c>
       <c r="S47">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U47">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V47">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W47">
         <v>0.333333333333333</v>
       </c>
       <c r="X47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y47">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <v>151.717</v>
@@ -4205,39 +4196,42 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.410010013883929</v>
+      </c>
+      <c r="P48">
+        <v>0.130312981091365</v>
       </c>
       <c r="Q48">
-        <v>0.130312981091365</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S48">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U48">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V48">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W48">
         <v>0.333333333333333</v>
       </c>
       <c r="X48">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y48">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49">
         <v>126.563</v>
@@ -4276,39 +4270,42 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0.291415600214873</v>
+      </c>
+      <c r="P49">
+        <v>0.1</v>
       </c>
       <c r="Q49">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S49">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U49">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V49">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W49">
         <v>0.333333333333333</v>
       </c>
       <c r="X49">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y49">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50">
         <v>116.277</v>
@@ -4344,45 +4341,42 @@
         <v>0.330754776712315</v>
       </c>
       <c r="M50">
-        <v>0.0021</v>
+        <v>0.002415</v>
       </c>
       <c r="N50">
-        <v>0.2</v>
+        <v>0.00186444238126133</v>
       </c>
       <c r="O50">
-        <v>0.171863639942173</v>
+        <v>0.239373044984124</v>
       </c>
       <c r="P50">
-        <v>0.392807955566786</v>
-      </c>
-      <c r="Q50">
         <v>0.1</v>
       </c>
+      <c r="R50">
+        <v>0.23</v>
+      </c>
       <c r="S50">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V50">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W50">
         <v>0.333333333333333</v>
       </c>
       <c r="X50">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y50">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51">
         <v>205.538</v>
@@ -4421,39 +4415,42 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.350981323033059</v>
+      </c>
+      <c r="P51">
+        <v>0.101052833089455</v>
       </c>
       <c r="Q51">
-        <v>0.101052833089455</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S51">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U51">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V51">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W51">
         <v>0.333333333333333</v>
       </c>
       <c r="X51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y51">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52">
         <v>122.076</v>
@@ -4492,39 +4489,42 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0.152079389183164</v>
+      </c>
+      <c r="P52">
+        <v>0.1</v>
       </c>
       <c r="Q52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S52">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V52">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W52">
         <v>0.333333333333333</v>
       </c>
       <c r="X52">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y52">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53">
         <v>145.959</v>
@@ -4560,48 +4560,45 @@
         <v>0.432902672615501</v>
       </c>
       <c r="M53">
-        <v>0.0372</v>
+        <v>0.04278</v>
       </c>
       <c r="N53">
-        <v>0.2</v>
+        <v>0.0345337595762792</v>
       </c>
       <c r="O53">
-        <v>0.218666401622943</v>
+        <v>0.357654244532121</v>
       </c>
       <c r="P53">
-        <v>0.635615905679197</v>
+        <v>0.122579410501458</v>
       </c>
       <c r="Q53">
-        <v>0.122579410501458</v>
+        <v>14.13</v>
       </c>
       <c r="R53">
-        <v>14.13</v>
+        <v>0.23</v>
       </c>
       <c r="S53">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U53">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V53">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W53">
         <v>0.333333333333333</v>
       </c>
       <c r="X53">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y53">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54">
         <v>146.286</v>
@@ -4637,45 +4634,42 @@
         <v>0.399510616283393</v>
       </c>
       <c r="M54">
-        <v>0.002</v>
+        <v>0.0023</v>
       </c>
       <c r="N54">
-        <v>0.2</v>
+        <v>0.00169925976788599</v>
       </c>
       <c r="O54">
-        <v>0.168811720165914</v>
+        <v>0.257098629717753</v>
       </c>
       <c r="P54">
-        <v>0.522990402947535</v>
-      </c>
-      <c r="Q54">
         <v>0.1</v>
       </c>
+      <c r="R54">
+        <v>0.23</v>
+      </c>
       <c r="S54">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V54">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W54">
         <v>0.333333333333333</v>
       </c>
       <c r="X54">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y54">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55">
         <v>136.889</v>
@@ -4711,48 +4705,45 @@
         <v>0.348469006721434</v>
       </c>
       <c r="M55">
-        <v>0.1015</v>
+        <v>0.116725</v>
       </c>
       <c r="N55">
-        <v>0.2</v>
+        <v>0.0847692314013229</v>
       </c>
       <c r="O55">
-        <v>0.188434159310574</v>
+        <v>0.288353730420083</v>
       </c>
       <c r="P55">
-        <v>0.530262514371522</v>
+        <v>0.1</v>
       </c>
       <c r="Q55">
-        <v>0.1</v>
+        <v>8.5</v>
       </c>
       <c r="R55">
-        <v>8.5</v>
+        <v>0.23</v>
       </c>
       <c r="S55">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V55">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W55">
         <v>0.333333333333333</v>
       </c>
       <c r="X55">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y55">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56">
         <v>137.606</v>
@@ -4791,39 +4782,42 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0.28940231987449</v>
+      </c>
+      <c r="P56">
+        <v>0.1</v>
       </c>
       <c r="Q56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S56">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U56">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V56">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W56">
         <v>0.333333333333333</v>
       </c>
       <c r="X56">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y56">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57">
         <v>169.592</v>
@@ -4859,48 +4853,45 @@
         <v>0.382118437118437</v>
       </c>
       <c r="M57">
-        <v>0.1536</v>
+        <v>0.17664</v>
       </c>
       <c r="N57">
-        <v>0.2</v>
+        <v>0.145839590397331</v>
       </c>
       <c r="O57">
-        <v>0.137990459180758</v>
+        <v>0.208612015839051</v>
       </c>
       <c r="P57">
-        <v>0.511785793579998</v>
+        <v>0.1</v>
       </c>
       <c r="Q57">
-        <v>0.1</v>
+        <v>9.92</v>
       </c>
       <c r="R57">
-        <v>9.92</v>
+        <v>0.23</v>
       </c>
       <c r="S57">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U57">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V57">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W57">
         <v>0.333333333333333</v>
       </c>
       <c r="X57">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y57">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58">
         <v>214.169</v>
@@ -4936,48 +4927,45 @@
         <v>0.339605685126709</v>
       </c>
       <c r="M58">
-        <v>0.1914</v>
+        <v>0.22011</v>
       </c>
       <c r="N58">
-        <v>0.2</v>
+        <v>0.183919207588041</v>
       </c>
       <c r="O58">
-        <v>0.151640680968814</v>
+        <v>0.285573966207095</v>
       </c>
       <c r="P58">
-        <v>0.883227933181237</v>
+        <v>0.1</v>
       </c>
       <c r="Q58">
-        <v>0.1</v>
+        <v>14.25</v>
       </c>
       <c r="R58">
-        <v>14.25</v>
+        <v>0.23</v>
       </c>
       <c r="S58">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U58">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V58">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W58">
         <v>0.333333333333333</v>
       </c>
       <c r="X58">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y58">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59">
         <v>166.109</v>
@@ -5016,39 +5004,42 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0.392572211787595</v>
+      </c>
+      <c r="P59">
+        <v>0.117624572017593</v>
       </c>
       <c r="Q59">
-        <v>0.117624572017593</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S59">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U59">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V59">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W59">
         <v>0.333333333333333</v>
       </c>
       <c r="X59">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y59">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60">
         <v>142.899</v>
@@ -5087,39 +5078,42 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0.411233924427668</v>
+      </c>
+      <c r="P60">
+        <v>0.143995732465961</v>
       </c>
       <c r="Q60">
-        <v>0.143995732465961</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S60">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V60">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W60">
         <v>0.333333333333333</v>
       </c>
       <c r="X60">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y60">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61">
         <v>132.64</v>
@@ -5158,39 +5152,42 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0.41248804075057</v>
+      </c>
+      <c r="P61">
+        <v>0.154237106357491</v>
       </c>
       <c r="Q61">
-        <v>0.154237106357491</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S61">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V61">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W61">
         <v>0.333333333333333</v>
       </c>
       <c r="X61">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y61">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62">
         <v>235.621</v>
@@ -5226,48 +5223,45 @@
         <v>0.382118437118437</v>
       </c>
       <c r="M62">
-        <v>0.1074</v>
+        <v>0.12351</v>
       </c>
       <c r="N62">
-        <v>0.2</v>
+        <v>0.106078511915737</v>
       </c>
       <c r="O62">
-        <v>0.180309637494649</v>
+        <v>0.412615084591602</v>
       </c>
       <c r="P62">
-        <v>1.28836955320177</v>
+        <v>0.103966925918505</v>
       </c>
       <c r="Q62">
-        <v>0.103966925918505</v>
+        <v>8.49</v>
       </c>
       <c r="R62">
-        <v>8.49</v>
+        <v>0.23</v>
       </c>
       <c r="S62">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U62">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V62">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W62">
         <v>0.333333333333333</v>
       </c>
       <c r="X62">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>182.388</v>
@@ -5303,48 +5297,45 @@
         <v>0.446950440736166</v>
       </c>
       <c r="M63">
-        <v>0.1488</v>
+        <v>0.17112</v>
       </c>
       <c r="N63">
-        <v>0.2</v>
+        <v>0.143089732837144</v>
       </c>
       <c r="O63">
-        <v>0.15864112064591</v>
+        <v>0.281410282253697</v>
       </c>
       <c r="P63">
-        <v>0.77387981822071</v>
+        <v>0.1</v>
       </c>
       <c r="Q63">
-        <v>0.1</v>
+        <v>17.58</v>
       </c>
       <c r="R63">
-        <v>17.58</v>
+        <v>0.23</v>
       </c>
       <c r="S63">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U63">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V63">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W63">
         <v>0.333333333333333</v>
       </c>
       <c r="X63">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y63">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64">
         <v>179.092</v>
@@ -5380,48 +5371,45 @@
         <v>0.362780034735979</v>
       </c>
       <c r="M64">
-        <v>0.0128</v>
+        <v>0.01472</v>
       </c>
       <c r="N64">
-        <v>0.2</v>
+        <v>0.0120701781039144</v>
       </c>
       <c r="O64">
-        <v>0.130151706655587</v>
+        <v>0.190092306563477</v>
       </c>
       <c r="P64">
-        <v>0.460544094642627</v>
+        <v>0.1</v>
       </c>
       <c r="Q64">
-        <v>0.1</v>
+        <v>17.61</v>
       </c>
       <c r="R64">
-        <v>17.61</v>
+        <v>0.23</v>
       </c>
       <c r="S64">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U64">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V64">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W64">
         <v>0.333333333333333</v>
       </c>
       <c r="X64">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y64">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65">
         <v>199.391</v>
@@ -5460,39 +5448,42 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0.280862452946929</v>
+      </c>
+      <c r="P65">
+        <v>0.1</v>
       </c>
       <c r="Q65">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S65">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U65">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V65">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W65">
         <v>0.333333333333333</v>
       </c>
       <c r="X65">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y65">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66">
         <v>294.404</v>
@@ -5528,48 +5519,45 @@
         <v>0.362780034735979</v>
       </c>
       <c r="M66">
-        <v>0.0222</v>
+        <v>0.02553</v>
       </c>
       <c r="N66">
-        <v>0.2</v>
+        <v>0.0219837723130137</v>
       </c>
       <c r="O66">
-        <v>0.166492927866418</v>
+        <v>0.407993142799703</v>
       </c>
       <c r="P66">
-        <v>1.45051335229715</v>
+        <v>0.106425721398091</v>
       </c>
       <c r="Q66">
-        <v>0.106425721398091</v>
+        <v>16.23</v>
       </c>
       <c r="R66">
-        <v>16.23</v>
+        <v>0.23</v>
       </c>
       <c r="S66">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V66">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W66">
         <v>0.333333333333333</v>
       </c>
       <c r="X66">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y66">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67">
         <v>121.06</v>
@@ -5608,39 +5596,42 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0.384200350713085</v>
+      </c>
+      <c r="P67">
+        <v>0.112339824144241</v>
       </c>
       <c r="Q67">
-        <v>0.112339824144241</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S67">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U67">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V67">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W67">
         <v>0.333333333333333</v>
       </c>
       <c r="X67">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y67">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68">
         <v>134.968</v>
@@ -5676,48 +5667,45 @@
         <v>0.41525155702608</v>
       </c>
       <c r="M68">
-        <v>0.0794</v>
+        <v>0.09131</v>
       </c>
       <c r="N68">
-        <v>0.2</v>
+        <v>0.0674770920970798</v>
       </c>
       <c r="O68">
-        <v>0.189102127960899</v>
+        <v>0.290019172186821</v>
       </c>
       <c r="P68">
-        <v>0.533664244364233</v>
+        <v>0.1</v>
       </c>
       <c r="Q68">
-        <v>0.1</v>
+        <v>11.87</v>
       </c>
       <c r="R68">
-        <v>11.87</v>
+        <v>0.23</v>
       </c>
       <c r="S68">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U68">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V68">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W68">
         <v>0.333333333333333</v>
       </c>
       <c r="X68">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y68">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69">
         <v>107.685</v>
@@ -5753,48 +5741,45 @@
         <v>0.348469006721434</v>
       </c>
       <c r="M69">
-        <v>0.0005</v>
+        <v>0.000575</v>
       </c>
       <c r="N69">
-        <v>0.2</v>
+        <v>0.000414913493520872</v>
       </c>
       <c r="O69">
-        <v>0.206431281028406</v>
+        <v>0.285538860754928</v>
       </c>
       <c r="P69">
-        <v>0.383215079286533</v>
+        <v>0.1</v>
       </c>
       <c r="Q69">
-        <v>0.1</v>
+        <v>23.94</v>
       </c>
       <c r="R69">
-        <v>23.94</v>
+        <v>0.23</v>
       </c>
       <c r="S69">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V69">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W69">
         <v>0.333333333333333</v>
       </c>
       <c r="X69">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y69">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70">
         <v>106.487</v>
@@ -5833,36 +5818,39 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0.2</v>
-      </c>
-      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0.33141835270053</v>
+      </c>
+      <c r="P70">
         <v>0.104838211406474</v>
       </c>
+      <c r="R70">
+        <v>0.23</v>
+      </c>
       <c r="S70">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U70">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V70">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W70">
         <v>0.333333333333333</v>
       </c>
       <c r="X70">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y70">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71">
         <v>142.671</v>
@@ -5901,39 +5889,42 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0.341538423622197</v>
+      </c>
+      <c r="P71">
+        <v>0.1</v>
       </c>
       <c r="Q71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S71">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U71">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V71">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W71">
         <v>0.333333333333333</v>
       </c>
       <c r="X71">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y71">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B72">
         <v>191.36</v>
@@ -5969,48 +5960,45 @@
         <v>0.348469006721434</v>
       </c>
       <c r="M72">
-        <v>0.01</v>
+        <v>0.0115</v>
       </c>
       <c r="N72">
-        <v>0.2</v>
+        <v>0.00929471728937235</v>
       </c>
       <c r="O72">
-        <v>0.198441372337534</v>
+        <v>0.349683979732136</v>
       </c>
       <c r="P72">
-        <v>0.762152597581064</v>
+        <v>0.127583396548576</v>
       </c>
       <c r="Q72">
-        <v>0.127583396548576</v>
+        <v>6.51</v>
       </c>
       <c r="R72">
-        <v>6.51</v>
+        <v>0.23</v>
       </c>
       <c r="S72">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U72">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V72">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W72">
         <v>0.333333333333333</v>
       </c>
       <c r="X72">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y72">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73">
         <v>141.614</v>
@@ -6049,39 +6037,42 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0.319645417916082</v>
+      </c>
+      <c r="P73">
+        <v>0.1</v>
       </c>
       <c r="Q73">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S73">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U73">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V73">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W73">
         <v>0.333333333333333</v>
       </c>
       <c r="X73">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y73">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74">
         <v>113.736</v>
@@ -6117,48 +6108,45 @@
         <v>0.348469006721434</v>
       </c>
       <c r="M74">
-        <v>0.0746</v>
+        <v>0.08579</v>
       </c>
       <c r="N74">
-        <v>0.2</v>
+        <v>0.0640726443005721</v>
       </c>
       <c r="O74">
-        <v>0.209233755484781</v>
+        <v>0.30343632332348</v>
       </c>
       <c r="P74">
-        <v>0.450226435120077</v>
+        <v>0.1</v>
       </c>
       <c r="Q74">
-        <v>0.1</v>
+        <v>7.14</v>
       </c>
       <c r="R74">
-        <v>7.14</v>
+        <v>0.23</v>
       </c>
       <c r="S74">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U74">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V74">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W74">
         <v>0.333333333333333</v>
       </c>
       <c r="X74">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y74">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75">
         <v>109.666</v>
@@ -6197,39 +6185,42 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0.333075438476568</v>
+      </c>
+      <c r="P75">
+        <v>0.1</v>
       </c>
       <c r="Q75">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S75">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U75">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V75">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W75">
         <v>0.333333333333333</v>
       </c>
       <c r="X75">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y75">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76">
         <v>139.481</v>
@@ -6268,39 +6259,42 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0.31850421402075</v>
+      </c>
+      <c r="P76">
+        <v>0.1</v>
       </c>
       <c r="Q76">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S76">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U76">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V76">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W76">
         <v>0.333333333333333</v>
       </c>
       <c r="X76">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y76">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77">
         <v>141.879</v>
@@ -6339,36 +6333,39 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0.2</v>
-      </c>
-      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0.353928144916681</v>
+      </c>
+      <c r="P77">
         <v>0.1</v>
       </c>
+      <c r="R77">
+        <v>0.23</v>
+      </c>
       <c r="S77">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U77">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V77">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W77">
         <v>0.333333333333333</v>
       </c>
       <c r="X77">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y77">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78">
         <v>190.392</v>
@@ -6404,48 +6401,45 @@
         <v>0.382118437118437</v>
       </c>
       <c r="M78">
-        <v>0.1191</v>
+        <v>0.136965</v>
       </c>
       <c r="N78">
-        <v>0.2</v>
+        <v>0.11555515223702</v>
       </c>
       <c r="O78">
-        <v>0.150902424084879</v>
+        <v>0.2652806518946</v>
       </c>
       <c r="P78">
-        <v>0.757961500640875</v>
+        <v>0.1</v>
       </c>
       <c r="Q78">
-        <v>0.1</v>
+        <v>10.72</v>
       </c>
       <c r="R78">
-        <v>10.72</v>
+        <v>0.23</v>
       </c>
       <c r="S78">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U78">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V78">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W78">
         <v>0.333333333333333</v>
       </c>
       <c r="X78">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y78">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79">
         <v>123.225</v>
@@ -6484,39 +6478,42 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0.402820441475505</v>
+      </c>
+      <c r="P79">
+        <v>0.128247562934364</v>
       </c>
       <c r="Q79">
-        <v>0.128247562934364</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S79">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U79">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V79">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W79">
         <v>0.333333333333333</v>
       </c>
       <c r="X79">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y79">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80">
         <v>200.64</v>
@@ -6555,39 +6552,42 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0.271055299470911</v>
+      </c>
+      <c r="P80">
+        <v>0.1</v>
       </c>
       <c r="Q80">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S80">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U80">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V80">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W80">
         <v>0.333333333333333</v>
       </c>
       <c r="X80">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y80">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81">
         <v>110.122</v>
@@ -6626,39 +6626,42 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0.315328319177625</v>
+      </c>
+      <c r="P81">
+        <v>0.1</v>
       </c>
       <c r="Q81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S81">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U81">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V81">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W81">
         <v>0.333333333333333</v>
       </c>
       <c r="X81">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y81">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82">
         <v>168.131</v>
@@ -6694,48 +6697,45 @@
         <v>0.351464372989876</v>
       </c>
       <c r="M82">
-        <v>0.0431</v>
+        <v>0.049565</v>
       </c>
       <c r="N82">
-        <v>0.2</v>
+        <v>0.0400536243063978</v>
       </c>
       <c r="O82">
-        <v>0.227758768190175</v>
+        <v>0.403643010697264</v>
       </c>
       <c r="P82">
-        <v>0.772239171754867</v>
+        <v>0.129130326981283</v>
       </c>
       <c r="Q82">
-        <v>0.129130326981283</v>
+        <v>15.31</v>
       </c>
       <c r="R82">
-        <v>15.31</v>
+        <v>0.23</v>
       </c>
       <c r="S82">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U82">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V82">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W82">
         <v>0.333333333333333</v>
       </c>
       <c r="X82">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y82">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83">
         <v>128.98</v>
@@ -6774,33 +6774,36 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0.36105408341903</v>
+      </c>
+      <c r="P83">
+        <v>0.1</v>
       </c>
       <c r="Q83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S83">
-        <v>0.23</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="U83">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V83">
-        <v>0.3</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W83">
         <v>0.333333333333333</v>
       </c>
       <c r="X83">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y83">
         <v>1.5</v>
       </c>
     </row>

--- a/all_data_compiled.xlsx
+++ b/all_data_compiled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>description</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Elasticity of utility</t>
   </si>
   <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
     <t>gdp_pc_pp</t>
   </si>
   <si>
@@ -160,7 +163,10 @@
     <t>income_elast</t>
   </si>
   <si>
-    <t>Province</t>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
   <si>
     <t>Abra</t>
@@ -758,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,89 +843,95 @@
       <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>133.688</v>
@@ -990,10 +1002,13 @@
       <c r="X4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>179.014</v>
@@ -1064,10 +1079,13 @@
       <c r="X5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>126.492</v>
@@ -1138,10 +1156,13 @@
       <c r="X6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>119.962</v>
@@ -1212,10 +1233,13 @@
       <c r="X7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>158.629</v>
@@ -1286,10 +1310,13 @@
       <c r="X8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>124.667</v>
@@ -1360,10 +1387,13 @@
       <c r="X9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>158.732</v>
@@ -1434,10 +1464,13 @@
       <c r="X10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>175.235</v>
@@ -1508,10 +1541,13 @@
       <c r="X11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>134.8675</v>
@@ -1582,10 +1618,13 @@
       <c r="X12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>277.019</v>
@@ -1656,10 +1695,13 @@
       <c r="X13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>316.686</v>
@@ -1727,10 +1769,13 @@
       <c r="X14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>219.272</v>
@@ -1801,10 +1846,13 @@
       <c r="X15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>303.525</v>
@@ -1875,10 +1923,13 @@
       <c r="X16">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>237.761</v>
@@ -1949,10 +2000,13 @@
       <c r="X17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>148.638</v>
@@ -2023,10 +2077,13 @@
       <c r="X18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>145.749</v>
@@ -2097,10 +2154,13 @@
       <c r="X19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>253.279</v>
@@ -2171,10 +2231,13 @@
       <c r="X20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>179.424</v>
@@ -2245,10 +2308,13 @@
       <c r="X21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>149.238</v>
@@ -2319,10 +2385,13 @@
       <c r="X22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>152.074</v>
@@ -2393,10 +2462,13 @@
       <c r="X23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>156.261</v>
@@ -2467,10 +2539,13 @@
       <c r="X24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>177.386</v>
@@ -2541,10 +2616,13 @@
       <c r="X25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>241.147</v>
@@ -2615,10 +2693,13 @@
       <c r="X26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>282.606</v>
@@ -2689,10 +2770,13 @@
       <c r="X27">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>207.478</v>
@@ -2763,10 +2847,13 @@
       <c r="X28">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>137.747</v>
@@ -2837,10 +2924,13 @@
       <c r="X29">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>156.283</v>
@@ -2911,10 +3001,13 @@
       <c r="X30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>190.398</v>
@@ -2985,10 +3078,13 @@
       <c r="X31">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>97.289</v>
@@ -3059,10 +3155,13 @@
       <c r="X32">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>131195.356598692</v>
@@ -3118,10 +3217,13 @@
       <c r="X33">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>130.115</v>
@@ -3192,10 +3294,13 @@
       <c r="X34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <v>162.895</v>
@@ -3266,10 +3371,13 @@
       <c r="X35">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>149.062</v>
@@ -3340,10 +3448,13 @@
       <c r="X36">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>192.382</v>
@@ -3414,10 +3525,13 @@
       <c r="X37">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>175.91</v>
@@ -3488,10 +3602,13 @@
       <c r="X38">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>187.023</v>
@@ -3562,10 +3679,13 @@
       <c r="X39">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>169.871</v>
@@ -3636,10 +3756,13 @@
       <c r="X40">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>170.385</v>
@@ -3710,10 +3833,13 @@
       <c r="X41">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>206.399</v>
@@ -3784,10 +3910,13 @@
       <c r="X42">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>249.092</v>
@@ -3858,10 +3987,13 @@
       <c r="X43">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>164.672</v>
@@ -3932,10 +4064,13 @@
       <c r="X44">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>131.981</v>
@@ -4006,10 +4141,13 @@
       <c r="X45">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>178.397</v>
@@ -4080,10 +4218,13 @@
       <c r="X46">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>140.218</v>
@@ -4154,10 +4295,13 @@
       <c r="X47">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>151.717</v>
@@ -4228,10 +4372,13 @@
       <c r="X48">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>126.563</v>
@@ -4302,10 +4449,13 @@
       <c r="X49">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50">
         <v>116.277</v>
@@ -4373,10 +4523,13 @@
       <c r="X50">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51">
         <v>205.538</v>
@@ -4447,10 +4600,13 @@
       <c r="X51">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52">
         <v>122.076</v>
@@ -4521,10 +4677,13 @@
       <c r="X52">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>145.959</v>
@@ -4595,10 +4754,13 @@
       <c r="X53">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <v>146.286</v>
@@ -4666,10 +4828,13 @@
       <c r="X54">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55">
         <v>136.889</v>
@@ -4740,10 +4905,13 @@
       <c r="X55">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <v>137.606</v>
@@ -4814,10 +4982,13 @@
       <c r="X56">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57">
         <v>169.592</v>
@@ -4888,10 +5059,13 @@
       <c r="X57">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <v>214.169</v>
@@ -4962,10 +5136,13 @@
       <c r="X58">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59">
         <v>166.109</v>
@@ -5036,10 +5213,13 @@
       <c r="X59">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60">
         <v>142.899</v>
@@ -5110,10 +5290,13 @@
       <c r="X60">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <v>132.64</v>
@@ -5184,10 +5367,13 @@
       <c r="X61">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62">
         <v>235.621</v>
@@ -5258,10 +5444,13 @@
       <c r="X62">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B63">
         <v>182.388</v>
@@ -5332,10 +5521,13 @@
       <c r="X63">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64">
         <v>179.092</v>
@@ -5406,10 +5598,13 @@
       <c r="X64">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65">
         <v>199.391</v>
@@ -5480,10 +5675,13 @@
       <c r="X65">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66">
         <v>294.404</v>
@@ -5554,10 +5752,13 @@
       <c r="X66">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67">
         <v>121.06</v>
@@ -5628,10 +5829,13 @@
       <c r="X67">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Y67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68">
         <v>134.968</v>
@@ -5702,10 +5906,13 @@
       <c r="X68">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69">
         <v>107.685</v>
@@ -5776,10 +5983,13 @@
       <c r="X69">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70">
         <v>106.487</v>
@@ -5847,10 +6057,13 @@
       <c r="X70">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71">
         <v>142.671</v>
@@ -5921,10 +6134,13 @@
       <c r="X71">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72">
         <v>191.36</v>
@@ -5995,10 +6211,13 @@
       <c r="X72">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73">
         <v>141.614</v>
@@ -6069,10 +6288,13 @@
       <c r="X73">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74">
         <v>113.736</v>
@@ -6143,10 +6365,13 @@
       <c r="X74">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75">
         <v>109.666</v>
@@ -6217,10 +6442,13 @@
       <c r="X75">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76">
         <v>139.481</v>
@@ -6291,10 +6519,13 @@
       <c r="X76">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77">
         <v>141.879</v>
@@ -6362,10 +6593,13 @@
       <c r="X77">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78">
         <v>190.392</v>
@@ -6436,10 +6670,13 @@
       <c r="X78">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79">
         <v>123.225</v>
@@ -6510,10 +6747,13 @@
       <c r="X79">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80">
         <v>200.64</v>
@@ -6584,10 +6824,13 @@
       <c r="X80">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Y80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81">
         <v>110.122</v>
@@ -6658,10 +6901,13 @@
       <c r="X81">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Y81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82">
         <v>168.131</v>
@@ -6732,10 +6978,13 @@
       <c r="X82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83">
         <v>128.98</v>
@@ -6805,6 +7054,9 @@
       </c>
       <c r="X83">
         <v>1.5</v>
+      </c>
+      <c r="Y83">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/all_data_compiled.xlsx
+++ b/all_data_compiled.xlsx
@@ -1197,12 +1197,6 @@
       <c r="L7">
         <v>0.432902672615501</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0.389419132506782</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>0.135089223583236</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>0.23</v>
@@ -1274,12 +1268,6 @@
       <c r="L8">
         <v>0.403793944470449</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0.339851966509808</v>
       </c>
@@ -1287,7 +1275,7 @@
         <v>0.1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>0.23</v>
@@ -1351,12 +1339,6 @@
       <c r="L9">
         <v>0.432902672615501</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0.362657249688178</v>
       </c>
@@ -1364,7 +1346,7 @@
         <v>0.125227041089264</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>0.23</v>
@@ -1505,12 +1487,6 @@
       <c r="L11">
         <v>0.382118437118437</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0.188758185279946</v>
       </c>
@@ -1518,7 +1494,7 @@
         <v>0.1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0.23</v>
@@ -1582,12 +1558,6 @@
       <c r="L12">
         <v>0.238984286945568</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0.379713214478772</v>
       </c>
@@ -1595,7 +1565,7 @@
         <v>0.109018519019815</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>0.23</v>
@@ -1659,12 +1629,6 @@
       <c r="L13">
         <v>0.382118437118437</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0.423254612246285</v>
       </c>
@@ -1672,7 +1636,7 @@
         <v>0.104698863866378</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>0.23</v>
@@ -1736,12 +1700,6 @@
       <c r="L14">
         <v>0.339605685126709</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0.215076821856866</v>
       </c>
@@ -1887,12 +1845,6 @@
       <c r="L16">
         <v>0.40868266233886</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
         <v>0.421655744050761</v>
       </c>
@@ -1900,7 +1852,7 @@
         <v>0.108013523168847</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>0.23</v>
@@ -1964,12 +1916,6 @@
       <c r="L17">
         <v>0.41525155702608</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
         <v>0.409498502939167</v>
       </c>
@@ -1977,7 +1923,7 @@
         <v>0.113920550286055</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0.23</v>
@@ -2041,12 +1987,6 @@
       <c r="L18">
         <v>0.399510616283393</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
         <v>0.31356117758185</v>
       </c>
@@ -2054,7 +1994,7 @@
         <v>0.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>0.23</v>
@@ -2349,12 +2289,6 @@
       <c r="L22">
         <v>0.403793944470449</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>0.414358425287269</v>
       </c>
@@ -2362,7 +2296,7 @@
         <v>0.111268127867627</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>0.23</v>
@@ -2503,12 +2437,6 @@
       <c r="L24">
         <v>0.330754776712315</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>0.211300149506622</v>
       </c>
@@ -2516,7 +2444,7 @@
         <v>0.1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>0.23</v>
@@ -2657,12 +2585,6 @@
       <c r="L26">
         <v>0.403793944470449</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26">
         <v>0.390687508315041</v>
       </c>
@@ -2670,7 +2592,7 @@
         <v>0.1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
         <v>0.23</v>
@@ -2734,12 +2656,6 @@
       <c r="L27">
         <v>0.362780034735979</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
         <v>0.459895423958806</v>
       </c>
@@ -2747,7 +2663,7 @@
         <v>0.11297762957612</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27">
         <v>0.23</v>
@@ -2811,12 +2727,6 @@
       <c r="L28">
         <v>0.399510616283393</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0.366896550573602</v>
       </c>
@@ -2824,7 +2734,7 @@
         <v>0.123401195342912</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>0.23</v>
@@ -2888,12 +2798,6 @@
       <c r="L29">
         <v>0.327049914685371</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
         <v>0.288049120682868</v>
       </c>
@@ -2901,7 +2805,7 @@
         <v>0.1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29">
         <v>0.23</v>
@@ -3042,12 +2946,6 @@
       <c r="L31">
         <v>0.327049914685371</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
         <v>0.341160373719579</v>
       </c>
@@ -3055,7 +2953,7 @@
         <v>0.113389942290189</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31">
         <v>0.23</v>
@@ -3119,12 +3017,6 @@
       <c r="L32">
         <v>0.327049914685371</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
         <v>0.25072679164382</v>
       </c>
@@ -3132,7 +3024,7 @@
         <v>0.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <v>0.23</v>
@@ -3187,12 +3079,6 @@
       <c r="L33">
         <v>0.388003116567215</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="P33">
         <v>0.191428783823967</v>
       </c>
@@ -3258,12 +3144,6 @@
       <c r="L34">
         <v>0.41525155702608</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
         <v>0.249226386447578</v>
       </c>
@@ -3271,7 +3151,7 @@
         <v>0.1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>0.23</v>
@@ -3335,12 +3215,6 @@
       <c r="L35">
         <v>0.432902672615501</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
       <c r="O35">
         <v>0.388146298892102</v>
       </c>
@@ -3348,7 +3222,7 @@
         <v>0.134735860125326</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35">
         <v>0.23</v>
@@ -3643,12 +3517,6 @@
       <c r="L39">
         <v>0.432902672615501</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="O39">
         <v>0.382805248991804</v>
       </c>
@@ -3656,7 +3524,7 @@
         <v>0.133153007241779</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R39">
         <v>0.23</v>
@@ -4182,12 +4050,6 @@
       <c r="L46">
         <v>0.41525155702608</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
       <c r="O46">
         <v>0.342239164554777</v>
       </c>
@@ -4195,7 +4057,7 @@
         <v>0.1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R46">
         <v>0.23</v>
@@ -4336,12 +4198,6 @@
       <c r="L48">
         <v>0.407281090129695</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
       <c r="O48">
         <v>0.410010013883929</v>
       </c>
@@ -4349,7 +4205,7 @@
         <v>0.130312981091365</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48">
         <v>0.23</v>
@@ -4413,12 +4269,6 @@
       <c r="L49">
         <v>0.403793944470449</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
       <c r="O49">
         <v>0.291415600214873</v>
       </c>
@@ -4426,7 +4276,7 @@
         <v>0.1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49">
         <v>0.23</v>
@@ -4564,12 +4414,6 @@
       <c r="L51">
         <v>0.330754776712315</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
       <c r="O51">
         <v>0.350981323033059</v>
       </c>
@@ -4577,7 +4421,7 @@
         <v>0.101052833089455</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51">
         <v>0.23</v>
@@ -4641,12 +4485,6 @@
       <c r="L52">
         <v>0.40868266233886</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
       <c r="O52">
         <v>0.152079389183164</v>
       </c>
@@ -4654,7 +4492,7 @@
         <v>0.1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52">
         <v>0.23</v>
@@ -4946,12 +4784,6 @@
       <c r="L56">
         <v>0.41525155702608</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
       <c r="O56">
         <v>0.28940231987449</v>
       </c>
@@ -4959,7 +4791,7 @@
         <v>0.1</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56">
         <v>0.23</v>
@@ -5177,12 +5009,6 @@
       <c r="L59">
         <v>0.407281090129695</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
       <c r="O59">
         <v>0.392572211787595</v>
       </c>
@@ -5190,7 +5016,7 @@
         <v>0.117624572017593</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R59">
         <v>0.23</v>
@@ -5254,12 +5080,6 @@
       <c r="L60">
         <v>0.407281090129695</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
       <c r="O60">
         <v>0.411233924427668</v>
       </c>
@@ -5267,7 +5087,7 @@
         <v>0.143995732465961</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>0.23</v>
@@ -5331,12 +5151,6 @@
       <c r="L61">
         <v>0.407281090129695</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
       <c r="O61">
         <v>0.41248804075057</v>
       </c>
@@ -5344,7 +5158,7 @@
         <v>0.154237106357491</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61">
         <v>0.23</v>
@@ -5639,12 +5453,6 @@
       <c r="L65">
         <v>0.339605685126709</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
       <c r="O65">
         <v>0.280862452946929</v>
       </c>
@@ -5652,7 +5460,7 @@
         <v>0.1</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65">
         <v>0.23</v>
@@ -5793,12 +5601,6 @@
       <c r="L67">
         <v>0.407281090129695</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
       <c r="O67">
         <v>0.384200350713085</v>
       </c>
@@ -5806,7 +5608,7 @@
         <v>0.112339824144241</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67">
         <v>0.23</v>
@@ -6024,12 +5826,6 @@
       <c r="L70">
         <v>0.399510616283393</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
       <c r="O70">
         <v>0.33141835270053</v>
       </c>
@@ -6098,12 +5894,6 @@
       <c r="L71">
         <v>0.403793944470449</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
       <c r="O71">
         <v>0.341538423622197</v>
       </c>
@@ -6111,7 +5901,7 @@
         <v>0.1</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R71">
         <v>0.23</v>
@@ -6252,12 +6042,6 @@
       <c r="L73">
         <v>0.41525155702608</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
       <c r="O73">
         <v>0.319645417916082</v>
       </c>
@@ -6265,7 +6049,7 @@
         <v>0.1</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R73">
         <v>0.23</v>
@@ -6406,12 +6190,6 @@
       <c r="L75">
         <v>0.238984286945568</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
       <c r="O75">
         <v>0.333075438476568</v>
       </c>
@@ -6419,7 +6197,7 @@
         <v>0.1</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R75">
         <v>0.23</v>
@@ -6483,12 +6261,6 @@
       <c r="L76">
         <v>0.388003116567215</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
       <c r="O76">
         <v>0.31850421402075</v>
       </c>
@@ -6496,7 +6268,7 @@
         <v>0.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76">
         <v>0.23</v>
@@ -6560,12 +6332,6 @@
       <c r="L77">
         <v>0.388003116567215</v>
       </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
       <c r="O77">
         <v>0.353928144916681</v>
       </c>
@@ -6711,12 +6477,6 @@
       <c r="L79">
         <v>0.238984286945568</v>
       </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
       <c r="O79">
         <v>0.402820441475505</v>
       </c>
@@ -6724,7 +6484,7 @@
         <v>0.128247562934364</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R79">
         <v>0.23</v>
@@ -6788,12 +6548,6 @@
       <c r="L80">
         <v>0.382118437118437</v>
       </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
       <c r="O80">
         <v>0.271055299470911</v>
       </c>
@@ -6801,7 +6555,7 @@
         <v>0.1</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R80">
         <v>0.23</v>
@@ -6865,12 +6619,6 @@
       <c r="L81">
         <v>0.351464372989876</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
       <c r="O81">
         <v>0.315328319177625</v>
       </c>
@@ -6878,7 +6626,7 @@
         <v>0.1</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R81">
         <v>0.23</v>
@@ -7019,12 +6767,6 @@
       <c r="L83">
         <v>0.351464372989876</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
       <c r="O83">
         <v>0.36105408341903</v>
       </c>
@@ -7032,7 +6774,7 @@
         <v>0.1</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R83">
         <v>0.23</v>
